--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-06-19</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -489,7 +489,7 @@
     <t>患者の生誕地をAddress型で表現する</t>
   </si>
   <si>
-    <t>Race</t>
+    <t>race</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Patient_Race}
@@ -863,13 +863,6 @@
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.
 複数の名前で患者を追跡できる必要があります。例としては、正式名とパートナー名があります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:extension.value[x]}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>EN (actually, PN)</t>
@@ -2399,7 +2392,7 @@
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="24.91015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -5077,7 +5070,7 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>246</v>
@@ -5129,14 +5122,16 @@
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>245</v>
@@ -5148,13 +5143,13 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -5163,7 +5158,7 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5171,7 +5166,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5194,19 +5189,19 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -5255,7 +5250,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5270,16 +5265,16 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5287,7 +5282,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5399,7 +5394,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5513,7 +5508,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5539,13 +5534,13 @@
         <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5574,28 +5569,28 @@
         <v>187</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5604,13 +5599,13 @@
         <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5619,7 +5614,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5627,7 +5622,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5653,16 +5648,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5711,7 +5706,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5726,7 +5721,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5735,7 +5730,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5743,7 +5738,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5769,16 +5764,16 @@
         <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5806,28 +5801,28 @@
         <v>187</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5842,7 +5837,7 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5851,7 +5846,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5859,7 +5854,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5882,16 +5877,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5941,7 +5936,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5973,7 +5968,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5999,13 +5994,13 @@
         <v>221</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6055,7 +6050,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6070,7 +6065,7 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6087,7 +6082,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6113,16 +6108,16 @@
         <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6150,10 +6145,10 @@
         <v>187</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6171,7 +6166,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6186,16 +6181,16 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6203,7 +6198,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6226,19 +6221,19 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6287,7 +6282,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6302,24 +6297,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6342,19 +6337,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6403,7 +6398,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6418,7 +6413,7 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>176</v>
@@ -6427,7 +6422,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6435,7 +6430,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6458,19 +6453,19 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6519,7 +6514,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6534,16 +6529,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6551,7 +6546,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6663,7 +6658,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6777,7 +6772,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6803,16 +6798,16 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6825,7 +6820,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6840,28 +6835,28 @@
         <v>187</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6876,7 +6871,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6885,7 +6880,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6893,7 +6888,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6919,13 +6914,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6939,7 +6934,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6954,28 +6949,28 @@
         <v>187</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6990,7 +6985,7 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6999,7 +6994,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -7007,7 +7002,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7033,16 +7028,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7055,7 +7050,7 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>80</v>
@@ -7091,7 +7086,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7106,7 +7101,7 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7115,7 +7110,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7123,7 +7118,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7149,13 +7144,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7169,7 +7164,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -7205,7 +7200,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7220,7 +7215,7 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7229,7 +7224,7 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7237,11 +7232,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7263,13 +7258,13 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7283,7 +7278,7 @@
         <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>80</v>
@@ -7319,7 +7314,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7334,7 +7329,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7343,7 +7338,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7351,11 +7346,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7377,13 +7372,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7397,7 +7392,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7433,7 +7428,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7448,7 +7443,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7457,7 +7452,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7465,11 +7460,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7491,13 +7486,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7547,7 +7542,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7562,7 +7557,7 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7571,7 +7566,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7579,11 +7574,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7605,13 +7600,13 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7625,7 +7620,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7661,7 +7656,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7676,7 +7671,7 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7685,7 +7680,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7693,7 +7688,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7719,13 +7714,13 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7775,7 +7770,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7790,7 +7785,7 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7799,7 +7794,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7807,7 +7802,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7833,16 +7828,16 @@
         <v>221</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7855,7 +7850,7 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>80</v>
@@ -7891,7 +7886,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7906,7 +7901,7 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7915,7 +7910,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7923,7 +7918,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7949,16 +7944,16 @@
         <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7986,10 +7981,10 @@
         <v>198</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -8007,7 +8002,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8022,16 +8017,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8039,7 +8034,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8062,19 +8057,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8123,7 +8118,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8138,7 +8133,7 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>176</v>
@@ -8147,7 +8142,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8155,7 +8150,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8178,19 +8173,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -8239,7 +8234,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8254,7 +8249,7 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>176</v>
@@ -8263,7 +8258,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8271,7 +8266,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8294,19 +8289,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8355,7 +8350,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8367,10 +8362,10 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>176</v>
@@ -8387,7 +8382,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8499,7 +8494,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8613,11 +8608,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8639,10 +8634,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>159</v>
@@ -8697,7 +8692,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8729,7 +8724,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8755,16 +8750,16 @@
         <v>193</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8792,10 +8787,10 @@
         <v>198</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8813,7 +8808,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8828,7 +8823,7 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>176</v>
@@ -8837,7 +8832,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8845,7 +8840,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8868,17 +8863,17 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8927,7 +8922,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8942,7 +8937,7 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>176</v>
@@ -8951,7 +8946,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8959,7 +8954,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8982,19 +8977,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9043,7 +9038,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9058,7 +9053,7 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>176</v>
@@ -9067,7 +9062,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9075,7 +9070,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9098,17 +9093,17 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9157,7 +9152,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9172,7 +9167,7 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>176</v>
@@ -9181,7 +9176,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9189,7 +9184,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9215,14 +9210,14 @@
         <v>107</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9250,10 +9245,10 @@
         <v>187</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9271,7 +9266,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9286,7 +9281,7 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>176</v>
@@ -9295,7 +9290,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9303,7 +9298,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9329,16 +9324,16 @@
         <v>229</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9387,7 +9382,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9396,13 +9391,13 @@
         <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>176</v>
@@ -9411,7 +9406,7 @@
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9419,7 +9414,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9445,10 +9440,10 @@
         <v>221</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9499,7 +9494,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9514,7 +9509,7 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>176</v>
@@ -9531,7 +9526,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9554,19 +9549,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9615,7 +9610,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9630,10 +9625,10 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9647,7 +9642,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9759,7 +9754,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9873,11 +9868,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9899,10 +9894,10 @@
         <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9957,7 +9952,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9989,7 +9984,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10015,16 +10010,16 @@
         <v>193</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10073,7 +10068,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>87</v>
@@ -10088,16 +10083,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10105,7 +10100,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10131,16 +10126,16 @@
         <v>237</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10189,7 +10184,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10204,16 +10199,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10221,11 +10216,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10244,16 +10239,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10303,7 +10298,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10318,7 +10313,7 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>176</v>
@@ -10327,7 +10322,7 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10335,7 +10330,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10361,16 +10356,16 @@
         <v>229</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10419,7 +10414,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10434,10 +10429,10 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10451,7 +10446,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10474,19 +10469,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10535,7 +10530,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10550,7 +10545,7 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>176</v>
@@ -10567,7 +10562,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10679,7 +10674,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10793,11 +10788,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10819,10 +10814,10 @@
         <v>132</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>159</v>
@@ -10877,7 +10872,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10909,7 +10904,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10932,16 +10927,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10991,7 +10986,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>87</v>
@@ -11015,7 +11010,7 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11023,7 +11018,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11049,13 +11044,13 @@
         <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11084,10 +11079,10 @@
         <v>187</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -11105,7 +11100,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>87</v>
@@ -11120,7 +11115,7 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>176</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -2366,45 +2366,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -551,8 +551,7 @@
 この患者の識別子。</t>
   </si>
   <si>
-    <t>【JP_CORE】
-IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
+    <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
 Patient.identifier.system には、
 　urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号
 を使用する。
@@ -774,7 +773,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -811,9 +810,9 @@
 Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
 It is often used to filter patient lists to exclude inactive patients
 Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.
-この患者記録がアクティブに使用されているかどうか。多くのシステムは、このプロパティを使用して、組織のビジネスルールに基づいて一定期間見られなかった患者など、非現在の患者としてマークします。
-非アクティブな患者を除外するために患者リストをフィルタリングするためによく使用されます
-死亡した患者は、同じ理由で不活性とマークされる場合がありますが、死後しばらくは活性である場合があります。</t>
+この患者記録がアクティブに使用されているかどうか。多くのシステムは、このプロパティを使用して、組織のビジネスルールに基づいて一定期間見られなかった患者など、非現在の患者としてマークする。
+非アクティブな患者を除外するために患者リストをフィルタリングするためによく使用される。
+死亡した患者は、同じ理由で不活性とマークされる場合があるが、死後しばらくは活性である場合がある。</t>
   </si>
   <si>
     <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.
@@ -822,7 +821,7 @@
   </si>
   <si>
     <t>Need to be able to mark a patient record as not to be used because it was created in error.
-患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要があります。</t>
+患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要がある。</t>
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
@@ -849,14 +848,12 @@
   </si>
   <si>
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
-患者は、用途や適用期間が異なる複数の名前を持つ場合があります。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」です。
---------SWG3 コメント-----------
-FHIRデータ型仕様に従って、以下の案とした。
+患者は、用途や適用期間が異なる複数の名前を持つ場合がある。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」を使用する。
+FHIRデータ型仕様に従って、以下の内容を採用する。
 ・姓名分割できる場合は、名前パート HumanName.familyとHumanName.givenに指定する。
 ・ミドルネームがある場合は、given に指定する（givenは繰り返し可能）
 ・姓名に分割できない場合は、HumanName.text にフルネームを指定する。
 ・各名前パートとtext は、両方存在してもよい。
-　※診療文書構造化記述規約等では、姓に指定するとなっていた。
 ・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。
 ・漢字、カナの指定がない場合やローマ字名の場合などはデフォルトスライスが適用される。</t>
   </si>
@@ -1481,11 +1478,11 @@
     <t>Patient.address.period</t>
   </si>
   <si>
-    <t>Time period when address was/is in use　住所が使用されていた\（いる）期間</t>
+    <t>Time period when address was/is in use　住所が使用されていた（いる）期間</t>
   </si>
   <si>
     <t>Time period when address was/is in use.
-住所が使用されていた\（いる）期間</t>
+住所が使用されていた（いる）期間</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
@@ -1925,7 +1922,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole)
 </t>
   </si>
   <si>
@@ -2008,7 +2005,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -859,7 +859,7 @@
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.
-複数の名前で患者を追跡できる必要があります。例としては、正式名とパートナー名があります。</t>
+複数の名前で患者を追跡できる必要がある。例としては、正式名とパートナー名がある。</t>
   </si>
   <si>
     <t>EN (actually, PN)</t>
@@ -883,11 +883,11 @@
   </si>
   <si>
     <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).
-患者は、さまざまな用途または適用期間違いで連絡先を複数の方法を持っている場合があります。緊急時連絡先として、また身元確認を支援するためのオプションが必要になる場合があります。患者当人に直接連絡できない場合がありますが、患者を代理できる別の関係者（自宅の電話、またはペットの所有者の電話）を設定する場合もあります。</t>
+患者は、さまざまな用途または適用期間違いで連絡先を複数の方法を持っている場合がある。緊急時連絡先として、また身元確認を支援するためのオプションが必要になる場合がある。患者当人に直接連絡できない場合があるが、患者を代理できる別の関係者（自宅の電話、またはペットの所有者の電話）を設定する場合もある。</t>
   </si>
   <si>
     <t>People have (primary) ways to contact them in some way such as phone, email.
-人々は、電話、電子メールなどの何らかの方法で彼らに連絡する（プライマリ）方法を持っています。</t>
+人々は、電話、電子メールなどの何らかの方法で彼らに連絡する（プライマリ）方法を持っている。</t>
   </si>
   <si>
     <t>telecom</t>
@@ -920,7 +920,7 @@
  fax :  Fax 
  email : 電子メール 
  pager : ポケットベル 
- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これは、Webサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としています。電子メールアドレスには使用しないでください。
+ url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これは、Webサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないでください。
  sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）
  other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないでください。</t>
   </si>
@@ -1561,19 +1561,19 @@
   </si>
   <si>
     <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).
-患者が多胎児の一人であるか（boolean）、実際の出生順位（integer）であるかを示します。</t>
+患者が多胎児の一人であるか（boolean）、実際の出生順位（integer）であるかを示す。</t>
   </si>
   <si>
     <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).
 multipleBirthBoolean　または　multipleBirthInteger　のどちらかに値が入る
 multipleBirthBoolean : 多胎出産時かどうか。
-３つ子の例にbooleanが指定された場合、3つの患者レコードすべてがvalueBoolean = trueになります（順序は示されない）
+３つ子の例にbooleanが指定された場合、3つの患者レコードすべてがvalueBoolean = trueになる（順序は示されない）
 multipleBirthInteger : 多胎出産時の出生順位。
 たとえば、３つ子の２番目の生まれはvalueInteger = 2で、3番目の生まれはvalueInteger = 3になる。</t>
   </si>
   <si>
     <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.
-多産児の曖昧性解消、特にラボなど、医療提供者が患者に会わない場合に関連します。</t>
+多産児の曖昧性解消、特にラボなど、医療提供者が患者に会わない場合に関連する。</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/multipleBirthInd,  player[classCode=PSN|ANM and determinerCode=INSTANCE]/multipleBirthOrderNumber</t>
@@ -1602,12 +1602,12 @@
 * Keep byte count low to ease resource updates
 ガイドライン：
 臨床写真ではなく、身分証明写真を使用してください。
-寸法をサムネイルに制限します。
+寸法をサムネイルに制限する。
 リソースの更新を容易にするため、バイト数を少なくしてください。</t>
   </si>
   <si>
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.
-多くのEHRシステムには、患者の画像をキャプチャする機能があります。より新しいソーシャルメディアの使用にも適合します。</t>
+多くのEHRシステムには、患者の画像をキャプチャする機能がある。より新しいソーシャルメディアの使用にも適合する。</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
@@ -1631,11 +1631,11 @@
   </si>
   <si>
     <t>Contact covers all kinds of contact parties: family members, business contacts, guardians, caregivers. Not applicable to register pedigree and family ties beyond use of having contact.
-連絡先には、家族、取引先、保護者、介護者など、あらゆる種類の連絡先が含まれます。連絡先として使用しない親戚や家族を登録するためには適用されません。</t>
+連絡先には、家族、取引先、保護者、介護者など、あらゆる種類の連絡先が含まれる。連絡先として使用しない親戚や家族を登録するためには適用されない。</t>
   </si>
   <si>
     <t>Need to track people you can contact about the patient.
-患者について連絡できる人を確認する必要があります。</t>
+患者について連絡できる人を確認する必要がある。</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1690,7 +1690,7 @@
   </si>
   <si>
     <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.
-状況に応じて、アプローチするのに最適な関係者を決定するために使用されます。</t>
+状況に応じて、アプローチするのに最適な関係者を決定するために使用される。</t>
   </si>
   <si>
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
@@ -1720,7 +1720,7 @@
   </si>
   <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.
-連絡先は名前で識別する必要がありますが、その連絡先に複数の名前が必要になることはまれです。</t>
+連絡先は名前で識別する必要があるが、その連絡先に複数の名前が必要になることはまれである。</t>
   </si>
   <si>
     <t>name</t>
@@ -1740,11 +1740,11 @@
   </si>
   <si>
     <t>Contact may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification.
-連絡先には、さまざまな用途または適用期間で連絡を取るための複数の方法があります。その人に緊急に連絡する際の連絡先を確認する必要があります。</t>
+連絡先には、さまざまな用途または適用期間で連絡を取るための複数の方法がある。その人に緊急に連絡する際の連絡先を確認する必要がある。</t>
   </si>
   <si>
     <t>People have (primary) ways to contact them in some way such as phone, email.
-電話、電子メールなどの（優先する）連絡方法を確認する必要があります。</t>
+電話、電子メールなどの（優先する）連絡方法を確認する必要がある。</t>
   </si>
   <si>
     <t>NK1-5, NK1-6, NK1-40</t>
@@ -1775,7 +1775,7 @@
   </si>
   <si>
     <t>Needed to address the person correctly.
-その人に正しく話しかけるために必要です。</t>
+その人に正しく話しかけるために必要である。</t>
   </si>
   <si>
     <t>NK1-15</t>
@@ -1832,11 +1832,11 @@
   </si>
   <si>
     <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.
-言語が指定されていない場合、デフォルトのローカル言語が話されていることを意味します。 複数のモードの習熟度を伝える必要がある場合は、複数のPatient.Communicationアソシエーションが必要です。 動物の場合、言語は関連するフィールドではないため、インスタンスから除外する必要があります。 患者がデフォルトの現地言語を話さない場合、通訳者が必要であることを明示的に宣言するために、通訳者必須基準を使用できます。</t>
+言語が指定されていない場合、デフォルトのローカル言語が話されていることを意味する。 複数のモードの習熟度を伝える必要がある場合は、複数のPatient.Communicationアソシエーションが必要である。 動物の場合、言語は関連するフィールドではないため、インスタンスから除外する必要がある。 患者がデフォルトの現地言語を話さない場合、通訳者が必要であることを明示的に宣言するために、通訳者必須基準を使用できる。</t>
   </si>
   <si>
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.
-患者が現地の言語を話さない場合、通訳が必要になる場合があるため、話せる言語と習熟度は、患者と関心のある他の人の両方にとって注意すべき重要な事項です。</t>
+患者が現地の言語を話さない場合、通訳が必要になる場合があるため、話せる言語と習熟度は、患者と関心のある他の人の両方にとって注意すべき重要な事項である。</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -1861,7 +1861,7 @@
   </si>
   <si>
     <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.
-ISO-639-1 alpha 2コード小文字で言語を、また、オプションとしてハイフンとISO-3166-1 alpha 2コード大文字を続けて地域を表します。たとえば、英語の場合は「en」、アメリカ英語の場合は「en-US」、イギリス英語の場合は「en-EN」です。</t>
+ISO-639-1 alpha 2コード小文字で言語を、また、オプションとしてハイフンとISO-3166-1 alpha 2コード大文字を続けて地域を表す。たとえば、英語の場合は「en」、アメリカ英語の場合は「en-US」、イギリス英語の場合は「en-EN」である。</t>
   </si>
   <si>
     <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.
@@ -1875,7 +1875,7 @@
   </si>
   <si>
     <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.
-多言語の国のほとんどのシステムは、言語を伝えたいでしょう。 すべてのシステムが実際に地域の方言を必要とするわけではありません。</t>
+多言語の国のほとんどのシステムは、言語を伝えたいと考えられる。 すべてのシステムが実際に地域の方言を必要とするわけではない。</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
@@ -1894,16 +1894,16 @@
   </si>
   <si>
     <t>Indicates whether or not the patient prefers this language (over other languages he masters up a certain level).
-患者がこの言語を優先するかどうかを示します（他の言語よりも特定レベルまで習得している）。</t>
+患者がこの言語を優先するかどうかを示す（他の言語よりも特定レベルまで習得している）。</t>
   </si>
   <si>
     <t>This language is specifically identified for communicating healthcare information.
-この言語は、医療情報を伝えるために特に識別されます。
-患者がこの言語を習得している場合はtrue、そうでなければfalseを設定します。</t>
+この言語は、医療情報を伝えるために特に識別される。
+患者がこの言語を習得している場合はtrue、そうでなければfalseを設定する。</t>
   </si>
   <si>
     <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method.
-特定のレベルまで複数の言語を習得している人は、複数の言語を選択する可能性があります。つまり、特定の言語でのコミュニケーションに自信を持ち、他の言語を一種の備えとしています。</t>
+特定のレベルまで複数の言語を習得している人は、複数の言語を選択する可能性がある。つまり、特定の言語でのコミュニケーションに自信を持ち、他の言語を一種の備えとしている。</t>
   </si>
   <si>
     <t>preferenceInd</t>
@@ -1937,8 +1937,8 @@
 Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.
 Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.
 ----以下の翻訳は検討中の内容を含む----
-これはプライマリケア提供者(GPを含む)である場合もあれば、コミュニティ/障害を持つ患者指定のケアマネージャーである場合もあります。ケアチームの記録には使用されません。これらは、ケアプランまたはEpisodeOfCareリソースにリンクされるCareTeamリソースに含まれている必要があります。複数のGPは、学期中の大学GPと共にリストされた家庭GPなどの学生や、「フライイン/フライアウト」労働者など、さまざまな理由で患者に対して記録される場合があります。また、医学的問題を認識し続けるために家庭GPに含まれています。
-管轄区域は、必要に応じてこれを1、またはタイプごとに1にプロファイルできると決定する場合があります。</t>
+これはプライマリケア提供者(GPを含む)である場合もあれば、コミュニティ/障害を持つ患者指定のケアマネージャーである場合もある。ケアチームの記録には使用されない。これらは、ケアプランまたはEpisodeOfCareリソースにリンクされるCareTeamリソースに含まれている必要がある。複数のGPは、学期中の大学GPと共にリストされた家庭GPなどの学生や、「フライイン/フライアウト」労働者など、さまざまな理由で患者に対して記録される場合がある。また、医学的問題を認識し続けるために家庭GPに含まれる。
+管轄区域は、必要に応じてこれを1、またはタイプごとに1にプロファイルできると決定する場合がある。</t>
   </si>
   <si>
     <t>subjectOf.CareEvent.performer.AssignedEntity</t>
@@ -1958,11 +1958,11 @@
   </si>
   <si>
     <t>There is only one managing organization for a specific patient record. Other organizations will have their own Patient record, and may use the Link property to join the records together (or a Person resource which can include confidence ratings for the association).
-特定の患者記録を管理する組織は1つだけです。他の組織には独自の患者レコードがあり、Linkプロパティを使用してレコードを結合する場合があります（または、関連付けの信頼性評価を含めることができる個人リソース）</t>
+特定の患者記録を管理する組織は1つだけである。他の組織には独自の患者レコードがあり、Linkプロパティを使用してレコードを結合する場合がある（または、関連付けの信頼性評価を含めることができる個人リソース）</t>
   </si>
   <si>
     <t>Need to know who recognizes this patient record, manages and updates it.
-この患者記録を誰が認識し、管理し、更新するかを知る必要があります。</t>
+この患者記録を誰が認識し、管理し、更新するかを知る必要がある。</t>
   </si>
   <si>
     <t>.providerOrganization</t>
@@ -1985,7 +1985,7 @@
     <t>There are multiple use cases:   
 * Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
 * Distribution of patient information across multiple servers
-複数のユースケースがあります：
+複数のユースケースがある。
 ・事務的なエラーのため、一貫して人間を特定することが困難であり患者の記録が重複している。
 ・複数のサーバーにわたり患者情報が配布されている。</t>
   </si>
@@ -2017,7 +2017,7 @@
   </si>
   <si>
     <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.
-ここでRelatedPersonを参照すると、Personレコードを使用して患者とRelatedPersonを同じ個人として関連付ける必要がなくなります。</t>
+ここでRelatedPersonを参照すると、Personレコードを使用して患者とRelatedPersonを同じ個人として関連付ける必要がなくなる。</t>
   </si>
   <si>
     <t>PID-3, MRG-1</t>
@@ -2036,9 +2036,9 @@
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 この患者リソースと別の患者リソース間のリンクのタイプをValueSet(LinkType)より選択する。
 replaced-by　このリンクを含む患者リソースは使用しないでください。
-replaces　　　このリンクを含む患者リソースは、現在アクティブな患者レコードです。
-refer　　　　このリンクを含む患者リソースは使用中であり、有効ですが、患者に関する主な情報源とは見なされていません。
-seealso　　このリンクを含む患者リソースは使用中で有効ですが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指しています。</t>
+replaces　　　このリンクを含む患者リソースは、現在アクティブな患者レコードである。
+refer　　　　このリンクを含む患者リソースは使用中であり、有効であるが、患者に関する主な情報源とは見なされていない。
+seealso　　このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す。</t>
   </si>
   <si>
     <t>The type of link between this patient resource and another patient resource.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -1404,7 +1404,6 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-CORE】
 都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。
 例：東京都</t>
   </si>
@@ -1433,7 +1432,6 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-CORE】
 郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。
 例：113-8655</t>
   </si>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -920,9 +920,9 @@
  fax :  Fax 
  email : 電子メール 
  pager : ポケットベル 
- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これは、Webサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないでください。
+ url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これは、Webサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。
  sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）
- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないでください。</t>
+ other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
     <t>Telecommunications form for contact point.</t>
@@ -1599,9 +1599,9 @@
 * Limit dimensions to thumbnail.
 * Keep byte count low to ease resource updates
 ガイドライン：
-臨床写真ではなく、身分証明写真を使用してください。
+臨床写真ではなく、身分証明写真を使用すること。
 寸法をサムネイルに制限する。
-リソースの更新を容易にするため、バイト数を少なくしてください。</t>
+リソースの更新を容易にするため、バイト数を少なくすること。</t>
   </si>
   <si>
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.
@@ -1977,7 +1977,7 @@
   </si>
   <si>
     <t>There is no assumption that linked patient records have mutual links.
-リンクされた患者記録に相互リンクがあるという仮定はありません。</t>
+リンクされた患者記録に相互リンクがあるという仮定はない。</t>
   </si>
   <si>
     <t>There are multiple use cases:   
@@ -2033,7 +2033,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 この患者リソースと別の患者リソース間のリンクのタイプをValueSet(LinkType)より選択する。
-replaced-by　このリンクを含む患者リソースは使用しないでください。
+replaced-by　このリンクを含む患者リソースは使用しないこと。
 replaces　　　このリンクを含む患者リソースは、現在アクティブな患者レコードである。
 refer　　　　このリンクを含む患者リソースは使用中であり、有効であるが、患者に関する主な情報源とは見なされていない。
 seealso　　このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -266,8 +266,8 @@
 ケアまたはその他の健康関連サービスを受けている個人または動物に関する人口統計およびその他の管理情報。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -289,13 +289,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -308,16 +308,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -328,13 +328,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -347,19 +347,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -379,13 +379,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -405,13 +405,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -443,8 +443,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>religion</t>
@@ -521,17 +521,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -544,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier for this patient</t>
+    <t>この患者の識別子 / An identifier for this patient</t>
   </si>
   <si>
     <t>An identifier for this patient.
@@ -582,10 +583,10 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -597,10 +598,10 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -612,10 +613,10 @@
     <t>Patient.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
   </si>
   <si>
     <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.
@@ -627,13 +628,13 @@
 old　過去の識別子</t>
   </si>
   <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -652,10 +653,10 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.
@@ -667,13 +668,13 @@
 など</t>
   </si>
   <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -688,10 +689,10 @@
     <t>Patient.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.
@@ -703,7 +704,7 @@
 Patient.identifier.system は、uri 型のため、実際にインスタンスに設定される値は、上記の例であれば urn:oid:1.2.392.200119.6.102.11312345670 とする。</t>
   </si>
   <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -721,10 +722,10 @@
     <t>Patient.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.
@@ -750,10 +751,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
@@ -777,10 +778,10 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
   </si>
   <si>
     <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.
@@ -803,7 +804,7 @@
 </t>
   </si>
   <si>
-    <t>Whether this patient's record is in active use</t>
+    <t>この患者の記録が積極的に使用されているかどうか / Whether this patient's record is in active use</t>
   </si>
   <si>
     <t>Whether this patient record is in active use. 
@@ -824,7 +825,7 @@
 患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要がある。</t>
   </si>
   <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>このリソースは、アクティブな要素の値が提供されていない場合、一般にアクティブであると想定されています / This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -908,10 +909,10 @@
     <t>Patient.telecom.system</t>
   </si>
   <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+    <t>電話|ファックス|メール|ポケットベル|url |SMS |他の / phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>接触点の通信フォーム - 連絡先を利用するために必要な通信システム。 / Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
@@ -925,7 +926,7 @@
  other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
-    <t>Telecommunications form for contact point.</t>
+    <t>接触点の通信フォーム。 / Telecommunications form for contact point.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -947,17 +948,17 @@
     <t>Patient.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+    <t>実際の接触点の詳細 / The actual contact point details</t>
+  </si>
+  <si>
+    <t>実際の連絡先ポイントの詳細は、指定された通信システム（つまり、電話番号またはメールアドレス）にとって意味のある形式です。 / The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
   </si>
   <si>
     <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.
 連絡先の番号やメールアドレス</t>
   </si>
   <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+    <t>厳密に制御された形式ではないレガシー番号をサポートする必要があります。 / Need to support legacy numbers that are not in a tightly controlled format.</t>
   </si>
   <si>
     <t>ContactPoint.value</t>
@@ -972,10 +973,10 @@
     <t>Patient.telecom.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
+    <t>ホーム|作業|温度|古い|モバイル - この接触点の目的 / home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>接触点の目的を特定します。 / Identifies the purpose for the contact point.</t>
   </si>
   <si>
     <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.
@@ -987,10 +988,10 @@
 mobile モバイル機器</t>
   </si>
   <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
+    <t>人がこの連絡先を使用する方法を追跡する必要があるため、ユーザーは自分の目的に適したものを選択できます。 / Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>コンタクトポイントの使用。 / Use of contact point.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
@@ -1012,10 +1013,10 @@
 </t>
   </si>
   <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+    <t>優先順序を指定する（1 =最高） / Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>連絡先のセットを使用する優先順序を指定します。ランク値が低いコンタクトポイントは、ランク値が高いコンタクトポイントよりも優先されます。 / Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
   </si>
   <si>
     <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.
@@ -1028,10 +1029,10 @@
     <t>Patient.telecom.period</t>
   </si>
   <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
+    <t>接触点が使用されていた時間期間 / Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>接触点が使用されていた期間/使用されています。 / Time period when the contact point was/is in use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
@@ -1048,7 +1049,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other | unknown</t>
+    <t>男性|女性|その他|わからない / male | female | other | unknown</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.
@@ -1063,10 +1064,10 @@
 unknown 不明</t>
   </si>
   <si>
-    <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
-  </si>
-  <si>
-    <t>The gender of a person used for administrative purposes.</t>
+    <t>（少なくとも）名前と生年月日と組み合わせて、個人の識別に必要です。 / Needed for identification of the individual, in combination with (at least) name and birth date.</t>
+  </si>
+  <si>
+    <t>管理目的で使用される人の性別。 / The gender of a person used for administrative purposes.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
@@ -1101,7 +1102,7 @@
 例：1945-08-23</t>
   </si>
   <si>
-    <t>Age of the individual drives many clinical processes.</t>
+    <t>個人の年齢は、多くの臨床プロセスを推進します。 / Age of the individual drives many clinical processes.</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/birthTime</t>
@@ -1138,7 +1139,7 @@
 deceasedDateTime : 患者の死亡日時</t>
   </si>
   <si>
-    <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
+    <t>患者が亡くなったという事実は、臨床プロセスに影響を与えます。また、人間のコミュニケーションと関係管理において、その人が生きているかどうかを知る必要があります。 / The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
@@ -1171,7 +1172,7 @@
 ※診療文書構造化記述規約等では、streetAddressLine (FHIRではlineに対応) に指定するとなっていた。</t>
   </si>
   <si>
-    <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
+    <t>連絡、請求、報告の要件のために患者の住所を追跡し、識別を支援する必要がある場合があります。 / May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
     <t>addr</t>
@@ -1208,13 +1209,13 @@
 billing   請求書、インボイス、領収書などの送付用</t>
   </si>
   <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
+    <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>The use of an address.</t>
+    <t>アドレスの使用。 / The use of an address.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
@@ -1229,7 +1230,7 @@
     <t>Patient.address.type</t>
   </si>
   <si>
-    <t>postal | physical | both</t>
+    <t>郵便|物理|両方 / postal | physical | both</t>
   </si>
   <si>
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
@@ -1246,7 +1247,7 @@
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal).</t>
+    <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
@@ -1277,7 +1278,7 @@
 例：東京都文京区本郷7-3-1</t>
   </si>
   <si>
-    <t>A renderable, unencoded form.</t>
+    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
     <t>137 Nowhere Street, Erewhon 9132</t>
@@ -1365,10 +1366,10 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
+    <t>地区名（別名郡） / District name (aka county)</t>
+  </si>
+  <si>
+    <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
@@ -1424,10 +1425,10 @@
 </t>
   </si>
   <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
+    <t>エリアの郵便番号 / Postal code for area</t>
+  </si>
+  <si>
+    <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
@@ -1490,7 +1491,7 @@
 期間は、時間間隔（経過時間の測定値）には使用されない。</t>
   </si>
   <si>
-    <t>Allows addresses to be placed in historical context.</t>
+    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
@@ -1530,10 +1531,10 @@
 UNK 不明</t>
   </si>
   <si>
-    <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>The domestic partnership status of a person.</t>
+    <t>ほとんどの場合、すべてではないにしても、それをキャプチャします。 / Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>人の国内パートナーシップの状況。 / The domestic partnership status of a person.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/marital-status</t>
@@ -1636,8 +1637,8 @@
 患者について連絡できる人を確認する必要がある。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+pat-1:少なくとも連絡先の詳細または組織への参照を含めるものとする / SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/scopedRole[classCode=CON]</t>
@@ -1656,10 +1657,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1669,7 +1671,7 @@
     <t>Patient.contact.relationship</t>
   </si>
   <si>
-    <t>The kind of relationship</t>
+    <t>関係の種類 / The kind of relationship</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the contact person.
@@ -1691,7 +1693,7 @@
 状況に応じて、アプローチするのに最適な関係者を決定するために使用される。</t>
   </si>
   <si>
-    <t>The nature of the relationship between a patient and a contact person for that patient.</t>
+    <t>その患者の患者と接触者との関係の性質。 / The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
@@ -1710,7 +1712,7 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the contact person</t>
+    <t>連絡先に関連付けられた名前 / A name associated with the contact person</t>
   </si>
   <si>
     <t>A name associated with the contact person.
@@ -1730,7 +1732,7 @@
     <t>Patient.contact.telecom</t>
   </si>
   <si>
-    <t>A contact detail for the person</t>
+    <t>人の連絡先の詳細 / A contact detail for the person</t>
   </si>
   <si>
     <t>A contact detail for the person, e.g. a telephone number or an email address.
@@ -1751,7 +1753,7 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
-    <t>Address for the contact person</t>
+    <t>連絡先の住所 / Address for the contact person</t>
   </si>
   <si>
     <t>Address for the contact person.
@@ -1782,7 +1784,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t>Organization that is associated with the contact</t>
+    <t>連絡先に関連する組織 / Organization that is associated with the contact</t>
   </si>
   <si>
     <t>Organization on behalf of which the contact is acting or for which the contact is working.
@@ -1793,7 +1795,7 @@
 連絡先に関連する組織</t>
   </si>
   <si>
-    <t>For guardians or business related contacts, the organization is relevant.</t>
+    <t>保護者またはビジネス関連の連絡先については、組織が関連しています。 / For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
     <t xml:space="preserve">pat-1
@@ -1809,7 +1811,7 @@
     <t>Patient.contact.period</t>
   </si>
   <si>
-    <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
+    <t>この患者に関連するこの連絡先または組織が連絡するのが有効な期間 / The period during which this contact person or organization is valid to be contacted relating to this patient</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient.
@@ -1855,7 +1857,7 @@
     <t>Patient.communication.language</t>
   </si>
   <si>
-    <t>The language which can be used to communicate with the patient about his or her health</t>
+    <t>患者と自分の健康についてコミュニケーションをとるために使用できる言語 / The language which can be used to communicate with the patient about his or her health</t>
   </si>
   <si>
     <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.
@@ -1888,7 +1890,7 @@
     <t>Patient.communication.preferred</t>
   </si>
   <si>
-    <t>Language preference indicator</t>
+    <t>言語選好インジケーター / Language preference indicator</t>
   </si>
   <si>
     <t>Indicates whether or not the patient prefers this language (over other languages he masters up a certain level).
@@ -2007,7 +2009,7 @@
 </t>
   </si>
   <si>
-    <t>The other patient or related person resource that the link refers to</t>
+    <t>リンクが指す他の患者または関連者のリソース / The other patient or related person resource that the link refers to</t>
   </si>
   <si>
     <t>The other patient resource that the link refers to.
@@ -2024,7 +2026,7 @@
     <t>Patient.link.type</t>
   </si>
   <si>
-    <t>replaced-by | replaces | refer | seealso</t>
+    <t>交換|交換|参照|seealso / replaced-by | replaces | refer | seealso</t>
   </si>
   <si>
     <t>The type of link between this patient resource and another patient resource.
@@ -2039,7 +2041,7 @@
 seealso　　このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す。</t>
   </si>
   <si>
-    <t>The type of link between this patient resource and another patient resource.</t>
+    <t>この患者リソースと別の患者リソースとの間のリンクのタイプ。 / The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
@@ -2371,7 +2373,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.05859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2384,7 +2386,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -266,8 +266,8 @@
 ケアまたはその他の健康関連サービスを受けている個人または動物に関する人口統計およびその他の管理情報。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -289,13 +289,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -308,16 +308,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -328,13 +328,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -347,19 +347,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -379,13 +379,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -405,13 +405,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -443,8 +443,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>religion</t>
@@ -521,18 +521,17 @@
 user content</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -545,7 +544,7 @@
 </t>
   </si>
   <si>
-    <t>この患者の識別子 / An identifier for this patient</t>
+    <t>An identifier for this patient</t>
   </si>
   <si>
     <t>An identifier for this patient.
@@ -583,10 +582,10 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -598,10 +597,10 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -613,10 +612,10 @@
     <t>Patient.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>この識別子の目的。 / The purpose of this identifier.</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
   </si>
   <si>
     <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.
@@ -628,13 +627,13 @@
 old　過去の識別子</t>
   </si>
   <si>
-    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -653,10 +652,10 @@
 </t>
   </si>
   <si>
-    <t>識別子の説明 / Description of identifier</t>
-  </si>
-  <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.
@@ -668,13 +667,13 @@
 など</t>
   </si>
   <si>
-    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -689,10 +688,10 @@
     <t>Patient.identifier.system</t>
   </si>
   <si>
-    <t>識別子値の名前空間 / The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.
@@ -704,7 +703,7 @@
 Patient.identifier.system は、uri 型のため、実際にインスタンスに設定される値は、上記の例であれば urn:oid:1.2.392.200119.6.102.11312345670 とする。</t>
   </si>
   <si>
-    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -722,10 +721,10 @@
     <t>Patient.identifier.value</t>
   </si>
   <si>
-    <t>一意の値 / The value that is unique</t>
-  </si>
-  <si>
-    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.
@@ -751,10 +750,10 @@
 </t>
   </si>
   <si>
-    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
@@ -778,10 +777,10 @@
 </t>
   </si>
   <si>
-    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
   </si>
   <si>
     <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.
@@ -804,7 +803,7 @@
 </t>
   </si>
   <si>
-    <t>この患者の記録が積極的に使用されているかどうか / Whether this patient's record is in active use</t>
+    <t>Whether this patient's record is in active use</t>
   </si>
   <si>
     <t>Whether this patient record is in active use. 
@@ -825,7 +824,7 @@
 患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要がある。</t>
   </si>
   <si>
-    <t>このリソースは、アクティブな要素の値が提供されていない場合、一般にアクティブであると想定されています / This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -909,10 +908,10 @@
     <t>Patient.telecom.system</t>
   </si>
   <si>
-    <t>電話|ファックス|メール|ポケットベル|url |SMS |他の / phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>接触点の通信フォーム - 連絡先を利用するために必要な通信システム。 / Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
@@ -926,7 +925,7 @@
  other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
-    <t>接触点の通信フォーム。 / Telecommunications form for contact point.</t>
+    <t>Telecommunications form for contact point.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -948,17 +947,17 @@
     <t>Patient.telecom.value</t>
   </si>
   <si>
-    <t>実際の接触点の詳細 / The actual contact point details</t>
-  </si>
-  <si>
-    <t>実際の連絡先ポイントの詳細は、指定された通信システム（つまり、電話番号またはメールアドレス）にとって意味のある形式です。 / The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
   </si>
   <si>
     <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.
 連絡先の番号やメールアドレス</t>
   </si>
   <si>
-    <t>厳密に制御された形式ではないレガシー番号をサポートする必要があります。 / Need to support legacy numbers that are not in a tightly controlled format.</t>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
   </si>
   <si>
     <t>ContactPoint.value</t>
@@ -973,10 +972,10 @@
     <t>Patient.telecom.use</t>
   </si>
   <si>
-    <t>ホーム|作業|温度|古い|モバイル - この接触点の目的 / home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>接触点の目的を特定します。 / Identifies the purpose for the contact point.</t>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
   </si>
   <si>
     <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.
@@ -988,10 +987,10 @@
 mobile モバイル機器</t>
   </si>
   <si>
-    <t>人がこの連絡先を使用する方法を追跡する必要があるため、ユーザーは自分の目的に適したものを選択できます。 / Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>コンタクトポイントの使用。 / Use of contact point.</t>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
@@ -1013,10 +1012,10 @@
 </t>
   </si>
   <si>
-    <t>優先順序を指定する（1 =最高） / Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>連絡先のセットを使用する優先順序を指定します。ランク値が低いコンタクトポイントは、ランク値が高いコンタクトポイントよりも優先されます。 / Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
   </si>
   <si>
     <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.
@@ -1029,10 +1028,10 @@
     <t>Patient.telecom.period</t>
   </si>
   <si>
-    <t>接触点が使用されていた時間期間 / Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>接触点が使用されていた期間/使用されています。 / Time period when the contact point was/is in use.</t>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
@@ -1049,7 +1048,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>男性|女性|その他|わからない / male | female | other | unknown</t>
+    <t>male | female | other | unknown</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.
@@ -1064,10 +1063,10 @@
 unknown 不明</t>
   </si>
   <si>
-    <t>（少なくとも）名前と生年月日と組み合わせて、個人の識別に必要です。 / Needed for identification of the individual, in combination with (at least) name and birth date.</t>
-  </si>
-  <si>
-    <t>管理目的で使用される人の性別。 / The gender of a person used for administrative purposes.</t>
+    <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
+  </si>
+  <si>
+    <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
@@ -1102,7 +1101,7 @@
 例：1945-08-23</t>
   </si>
   <si>
-    <t>個人の年齢は、多くの臨床プロセスを推進します。 / Age of the individual drives many clinical processes.</t>
+    <t>Age of the individual drives many clinical processes.</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/birthTime</t>
@@ -1139,7 +1138,7 @@
 deceasedDateTime : 患者の死亡日時</t>
   </si>
   <si>
-    <t>患者が亡くなったという事実は、臨床プロセスに影響を与えます。また、人間のコミュニケーションと関係管理において、その人が生きているかどうかを知る必要があります。 / The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
+    <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
@@ -1172,7 +1171,7 @@
 ※診療文書構造化記述規約等では、streetAddressLine (FHIRではlineに対応) に指定するとなっていた。</t>
   </si>
   <si>
-    <t>連絡、請求、報告の要件のために患者の住所を追跡し、識別を支援する必要がある場合があります。 / May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
+    <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
     <t>addr</t>
@@ -1209,13 +1208,13 @@
 billing   請求書、インボイス、領収書などの送付用</t>
   </si>
   <si>
-    <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>アドレスの使用。 / The use of an address.</t>
+    <t>The use of an address.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
@@ -1230,7 +1229,7 @@
     <t>Patient.address.type</t>
   </si>
   <si>
-    <t>郵便|物理|両方 / postal | physical | both</t>
+    <t>postal | physical | both</t>
   </si>
   <si>
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
@@ -1247,7 +1246,7 @@
     <t>both</t>
   </si>
   <si>
-    <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
+    <t>The type of an address (physical / postal).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
@@ -1278,7 +1277,7 @@
 例：東京都文京区本郷7-3-1</t>
   </si>
   <si>
-    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
+    <t>A renderable, unencoded form.</t>
   </si>
   <si>
     <t>137 Nowhere Street, Erewhon 9132</t>
@@ -1366,10 +1365,10 @@
 </t>
   </si>
   <si>
-    <t>地区名（別名郡） / District name (aka county)</t>
-  </si>
-  <si>
-    <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
@@ -1425,10 +1424,10 @@
 </t>
   </si>
   <si>
-    <t>エリアの郵便番号 / Postal code for area</t>
-  </si>
-  <si>
-    <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
@@ -1491,7 +1490,7 @@
 期間は、時間間隔（経過時間の測定値）には使用されない。</t>
   </si>
   <si>
-    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+    <t>Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
@@ -1531,10 +1530,10 @@
 UNK 不明</t>
   </si>
   <si>
-    <t>ほとんどの場合、すべてではないにしても、それをキャプチャします。 / Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>人の国内パートナーシップの状況。 / The domestic partnership status of a person.</t>
+    <t>Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>The domestic partnership status of a person.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/marital-status</t>
@@ -1637,8 +1636,8 @@
 患者について連絡できる人を確認する必要がある。</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-pat-1:少なくとも連絡先の詳細または組織への参照を含めるものとする / SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/scopedRole[classCode=CON]</t>
@@ -1657,11 +1656,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1671,7 +1669,7 @@
     <t>Patient.contact.relationship</t>
   </si>
   <si>
-    <t>関係の種類 / The kind of relationship</t>
+    <t>The kind of relationship</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the contact person.
@@ -1693,7 +1691,7 @@
 状況に応じて、アプローチするのに最適な関係者を決定するために使用される。</t>
   </si>
   <si>
-    <t>その患者の患者と接触者との関係の性質。 / The nature of the relationship between a patient and a contact person for that patient.</t>
+    <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
@@ -1712,7 +1710,7 @@
 </t>
   </si>
   <si>
-    <t>連絡先に関連付けられた名前 / A name associated with the contact person</t>
+    <t>A name associated with the contact person</t>
   </si>
   <si>
     <t>A name associated with the contact person.
@@ -1732,7 +1730,7 @@
     <t>Patient.contact.telecom</t>
   </si>
   <si>
-    <t>人の連絡先の詳細 / A contact detail for the person</t>
+    <t>A contact detail for the person</t>
   </si>
   <si>
     <t>A contact detail for the person, e.g. a telephone number or an email address.
@@ -1753,7 +1751,7 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
-    <t>連絡先の住所 / Address for the contact person</t>
+    <t>Address for the contact person</t>
   </si>
   <si>
     <t>Address for the contact person.
@@ -1784,7 +1782,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t>連絡先に関連する組織 / Organization that is associated with the contact</t>
+    <t>Organization that is associated with the contact</t>
   </si>
   <si>
     <t>Organization on behalf of which the contact is acting or for which the contact is working.
@@ -1795,7 +1793,7 @@
 連絡先に関連する組織</t>
   </si>
   <si>
-    <t>保護者またはビジネス関連の連絡先については、組織が関連しています。 / For guardians or business related contacts, the organization is relevant.</t>
+    <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
     <t xml:space="preserve">pat-1
@@ -1811,7 +1809,7 @@
     <t>Patient.contact.period</t>
   </si>
   <si>
-    <t>この患者に関連するこの連絡先または組織が連絡するのが有効な期間 / The period during which this contact person or organization is valid to be contacted relating to this patient</t>
+    <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient.
@@ -1857,7 +1855,7 @@
     <t>Patient.communication.language</t>
   </si>
   <si>
-    <t>患者と自分の健康についてコミュニケーションをとるために使用できる言語 / The language which can be used to communicate with the patient about his or her health</t>
+    <t>The language which can be used to communicate with the patient about his or her health</t>
   </si>
   <si>
     <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.
@@ -1890,7 +1888,7 @@
     <t>Patient.communication.preferred</t>
   </si>
   <si>
-    <t>言語選好インジケーター / Language preference indicator</t>
+    <t>Language preference indicator</t>
   </si>
   <si>
     <t>Indicates whether or not the patient prefers this language (over other languages he masters up a certain level).
@@ -2009,7 +2007,7 @@
 </t>
   </si>
   <si>
-    <t>リンクが指す他の患者または関連者のリソース / The other patient or related person resource that the link refers to</t>
+    <t>The other patient or related person resource that the link refers to</t>
   </si>
   <si>
     <t>The other patient resource that the link refers to.
@@ -2026,7 +2024,7 @@
     <t>Patient.link.type</t>
   </si>
   <si>
-    <t>交換|交換|参照|seealso / replaced-by | replaces | refer | seealso</t>
+    <t>replaced-by | replaces | refer | seealso</t>
   </si>
   <si>
     <t>The type of link between this patient resource and another patient resource.
@@ -2041,7 +2039,7 @@
 seealso　　このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す。</t>
   </si>
   <si>
-    <t>この患者リソースと別の患者リソースとの間のリンクのタイプ。 / The type of link between this patient resource and another patient resource.</t>
+    <t>The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
@@ -2373,7 +2371,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.05859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2386,7 +2384,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="145.265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -482,7 +482,7 @@
     <t>患者の生誕地。</t>
   </si>
   <si>
-    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.
+    <t>The registered place of birth of the patient. A system may use the address.text if they don't store the birthPlace address in discrete elements.
 患者の登録された出生地。システムは、birthPlaceアドレスを個別の要素に格納しない場合、address.textを使用してよい。</t>
   </si>
   <si>
@@ -1163,7 +1163,7 @@
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
-【JPーCORE】
+【JP-Core仕様】
 FHIRデータ型仕様に従って、以下の案とした。
 ・住所が構造化されている場合、住所パート Address.contry、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
 ・住所が構造化されていない場合は、Address.text に記述する。
@@ -1304,7 +1304,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JPーCORE】
+【JP-Core仕様】
 state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
 英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。
 繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。
@@ -1341,7 +1341,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JPO-CORE】
+【JP-Core仕様】
 郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
 例：文京区</t>
   </si>
@@ -1372,7 +1372,7 @@
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
-【JPO-CORE】
+【JP-Core仕様】
 日本の住所では使用しない。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -1789,7 +1789,7 @@
 連絡先が主として活動する、または勤務している組織。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 連絡先に関連する組織</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -1163,8 +1163,7 @@
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
-【JP-Core仕様】
-FHIRデータ型仕様に従って、以下の案とした。
+【JP-Core仕様】FHIRデータ型仕様に従って、以下の案とした。
 ・住所が構造化されている場合、住所パート Address.contry、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
 ・住所が構造化されていない場合は、Address.text に記述する。
 ・各住所パートとtext は、両方存在してもよい。
@@ -1304,8 +1303,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-Core仕様】
-state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
+【JP-Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
 英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。
 繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。
 例：本郷7-3-1
@@ -1341,8 +1339,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-Core仕様】
-郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
+【JP-Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
 例：文京区</t>
   </si>
   <si>
@@ -1372,8 +1369,7 @@
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
-【JP-Core仕様】
-日本の住所では使用しない。</t>
+【JP-Core仕様】日本の住所では使用しない。</t>
   </si>
   <si>
     <t>Madison</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -727,7 +727,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processor to be confident that non-case-sensitive processing is safe.
 患者を一意的に識別するID(例えば、患者IDやカルテ番号など)を設定。</t>
   </si>
   <si>
@@ -1164,7 +1164,7 @@
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
 【JP-Core仕様】FHIRデータ型仕様に従って、以下の案とした。
-・住所が構造化されている場合、住所パート Address.contry、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
+・住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
 ・住所が構造化されていない場合は、Address.text に記述する。
 ・各住所パートとtext は、両方存在してもよい。
 ※診療文書構造化記述規約等では、streetAddressLine (FHIRではlineに対応) に指定するとなっていた。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -1163,7 +1163,7 @@
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
-【JP-Core仕様】FHIRデータ型仕様に従って、以下の案とした。
+【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。
 ・住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
 ・住所が構造化されていない場合は、Address.text に記述する。
 ・各住所パートとtext は、両方存在してもよい。
@@ -1303,7 +1303,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
+【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
 英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。
 繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。
 例：本郷7-3-1
@@ -1339,7 +1339,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
+【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
 例：文京区</t>
   </si>
   <si>
@@ -1369,7 +1369,7 @@
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
-【JP-Core仕様】日本の住所では使用しない。</t>
+【JP Core仕様】日本の住所では使用しない。</t>
   </si>
   <si>
     <t>Madison</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="576">
   <si>
     <t>Property</t>
   </si>
@@ -285,7 +285,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -580,6 +580,10 @@
   </si>
   <si>
     <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4030,13 +4034,13 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4087,7 +4091,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -4102,7 +4106,7 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4119,7 +4123,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4145,10 +4149,10 @@
         <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>159</v>
@@ -4192,7 +4196,7 @@
         <v>135</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>80</v>
@@ -4201,7 +4205,7 @@
         <v>136</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4216,7 +4220,7 @@
         <v>138</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -4233,7 +4237,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4259,16 +4263,16 @@
         <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -4293,13 +4297,13 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>80</v>
@@ -4317,7 +4321,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4332,7 +4336,7 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4349,7 +4353,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4372,19 +4376,19 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4409,13 +4413,13 @@
         <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>80</v>
@@ -4433,7 +4437,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4448,7 +4452,7 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4457,7 +4461,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4465,7 +4469,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4491,16 +4495,16 @@
         <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4513,7 +4517,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -4549,7 +4553,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4564,7 +4568,7 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4573,7 +4577,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4581,7 +4585,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4604,16 +4608,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4627,7 +4631,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -4663,7 +4667,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4678,7 +4682,7 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4687,7 +4691,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4695,7 +4699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4718,16 +4722,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4777,7 +4781,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4792,7 +4796,7 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4801,7 +4805,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4809,7 +4813,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4832,16 +4836,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4891,7 +4895,7 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4906,7 +4910,7 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4915,7 +4919,7 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4923,7 +4927,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4946,70 +4950,70 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5024,13 +5028,13 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -5041,7 +5045,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5064,19 +5068,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -5125,7 +5129,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5140,7 +5144,7 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -5149,7 +5153,7 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5157,7 +5161,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5180,19 +5184,19 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -5241,7 +5245,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5256,16 +5260,16 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5273,7 +5277,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5296,13 +5300,13 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5353,7 +5357,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5368,7 +5372,7 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5385,7 +5389,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5411,10 +5415,10 @@
         <v>132</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -5458,7 +5462,7 @@
         <v>135</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>80</v>
@@ -5467,7 +5471,7 @@
         <v>136</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5482,7 +5486,7 @@
         <v>138</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -5499,7 +5503,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5525,13 +5529,13 @@
         <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5557,13 +5561,13 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
@@ -5581,7 +5585,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5590,13 +5594,13 @@
         <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5605,7 +5609,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5613,7 +5617,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5636,19 +5640,19 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5697,7 +5701,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5712,7 +5716,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5721,7 +5725,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5729,7 +5733,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5755,16 +5759,16 @@
         <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5789,13 +5793,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5813,7 +5817,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5828,7 +5832,7 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5837,7 +5841,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5845,7 +5849,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5868,16 +5872,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5927,7 +5931,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5942,7 +5946,7 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -5951,7 +5955,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5959,7 +5963,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5982,16 +5986,16 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6041,7 +6045,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6056,7 +6060,7 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6073,7 +6077,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6099,16 +6103,16 @@
         <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6133,13 +6137,13 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6157,7 +6161,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6172,16 +6176,16 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6189,7 +6193,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6212,19 +6216,19 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6273,7 +6277,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6288,24 +6292,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6328,19 +6332,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6389,7 +6393,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6404,16 +6408,16 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6421,7 +6425,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6444,19 +6448,19 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6505,7 +6509,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6520,16 +6524,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6537,7 +6541,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6560,13 +6564,13 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6617,7 +6621,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6632,7 +6636,7 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6649,7 +6653,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6675,10 +6679,10 @@
         <v>132</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>159</v>
@@ -6722,7 +6726,7 @@
         <v>135</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>80</v>
@@ -6731,7 +6735,7 @@
         <v>136</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6746,7 +6750,7 @@
         <v>138</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6763,7 +6767,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6789,16 +6793,16 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6811,7 +6815,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6823,13 +6827,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6847,7 +6851,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6862,7 +6866,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6871,7 +6875,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6879,7 +6883,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6905,13 +6909,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6925,7 +6929,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6937,13 +6941,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6961,7 +6965,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6976,7 +6980,7 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6985,7 +6989,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6993,7 +6997,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7016,19 +7020,19 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7041,7 +7045,7 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>80</v>
@@ -7077,7 +7081,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7092,7 +7096,7 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7101,7 +7105,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7109,7 +7113,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7132,16 +7136,16 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7155,7 +7159,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -7191,7 +7195,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7206,7 +7210,7 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7215,7 +7219,7 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7223,11 +7227,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7246,16 +7250,16 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7269,7 +7273,7 @@
         <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>80</v>
@@ -7305,7 +7309,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7320,7 +7324,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7329,7 +7333,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7337,11 +7341,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7360,16 +7364,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7383,7 +7387,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7419,7 +7423,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7434,7 +7438,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7443,7 +7447,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7451,11 +7455,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7474,16 +7478,16 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7533,7 +7537,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7548,7 +7552,7 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7557,7 +7561,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7565,11 +7569,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7588,16 +7592,16 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7611,7 +7615,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7647,7 +7651,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7662,7 +7666,7 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7671,7 +7675,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7679,7 +7683,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7702,16 +7706,16 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7761,7 +7765,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7776,7 +7780,7 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7785,7 +7789,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7793,7 +7797,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7816,19 +7820,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7841,7 +7845,7 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>80</v>
@@ -7877,7 +7881,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7892,7 +7896,7 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7901,7 +7905,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7909,7 +7913,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7932,19 +7936,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7969,13 +7973,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7993,7 +7997,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8008,16 +8012,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8025,7 +8029,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8048,19 +8052,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8109,7 +8113,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8124,16 +8128,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8141,7 +8145,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8164,19 +8168,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -8225,7 +8229,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8240,16 +8244,16 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8257,7 +8261,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8280,19 +8284,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8341,7 +8345,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8353,13 +8357,13 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8373,7 +8377,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8396,13 +8400,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8453,7 +8457,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8468,7 +8472,7 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8485,7 +8489,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8511,10 +8515,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>159</v>
@@ -8567,7 +8571,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8582,7 +8586,7 @@
         <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8599,11 +8603,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8625,10 +8629,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>159</v>
@@ -8683,7 +8687,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8715,7 +8719,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8738,19 +8742,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8775,13 +8779,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8799,7 +8803,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8814,16 +8818,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8831,7 +8835,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8854,17 +8858,17 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8913,7 +8917,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8928,16 +8932,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8945,7 +8949,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8968,19 +8972,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9029,7 +9033,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9044,16 +9048,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9061,7 +9065,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9084,17 +9088,17 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9143,7 +9147,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9158,16 +9162,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9175,7 +9179,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9201,14 +9205,14 @@
         <v>107</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9233,13 +9237,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9257,7 +9261,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9272,16 +9276,16 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9289,7 +9293,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9312,19 +9316,19 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9373,7 +9377,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9382,22 +9386,22 @@
         <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9405,7 +9409,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9428,13 +9432,13 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9485,7 +9489,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9500,10 +9504,10 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9517,7 +9521,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9540,19 +9544,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9601,7 +9605,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9616,10 +9620,10 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9633,7 +9637,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9656,13 +9660,13 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9713,7 +9717,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9728,7 +9732,7 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -9745,7 +9749,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9771,10 +9775,10 @@
         <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>159</v>
@@ -9827,7 +9831,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9842,7 +9846,7 @@
         <v>138</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -9859,11 +9863,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9885,10 +9889,10 @@
         <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9943,7 +9947,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9975,7 +9979,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9998,19 +10002,19 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10059,7 +10063,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>87</v>
@@ -10074,16 +10078,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10091,7 +10095,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10114,19 +10118,19 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10175,7 +10179,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10190,16 +10194,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10207,11 +10211,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10230,16 +10234,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10289,7 +10293,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10304,16 +10308,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10321,7 +10325,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10344,19 +10348,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10405,7 +10409,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10420,10 +10424,10 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10437,7 +10441,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10460,19 +10464,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10521,7 +10525,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10536,10 +10540,10 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10553,7 +10557,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10576,13 +10580,13 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10633,7 +10637,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10648,7 +10652,7 @@
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10665,7 +10669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10691,10 +10695,10 @@
         <v>132</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>159</v>
@@ -10747,7 +10751,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10762,7 +10766,7 @@
         <v>138</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -10779,11 +10783,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10805,10 +10809,10 @@
         <v>132</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>159</v>
@@ -10863,7 +10867,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10895,7 +10899,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10918,16 +10922,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10977,7 +10981,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>87</v>
@@ -10995,13 +10999,13 @@
         <v>168</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11009,7 +11013,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11035,13 +11039,13 @@
         <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11067,13 +11071,13 @@
         <v>80</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -11091,7 +11095,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>87</v>
@@ -11106,10 +11110,10 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -548,16 +548,14 @@
   </si>
   <si>
     <t>An identifier for this patient.
-この患者の識別子。</t>
+この患者の識別子。【詳細参照】</t>
   </si>
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
 Patient.identifier.system には、
 　urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号
 を使用する。
-医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関番号（都道府県2桁、保険点数表コード1桁、保険医療機関番号７桁を連結したもの）または、特定健診・特定保健指導機関の医療機関番号10桁の先頭に１をつけた11桁とする。
-保険点数表コード1桁は医科は１，歯科は３である。
-医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
+医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-patient.html#医療機関コード)を参照すること。
 例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
 なお、urn:oid:1.2.392.100495.20.3.51　の部分は、厚生労働省 電子処方箋CDA 記述仕様第1版（平成30年7月）付表2 OID一覧において患者番号として割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。</t>
@@ -858,8 +856,7 @@
 ・ミドルネームがある場合は、given に指定する（givenは繰り返し可能）
 ・姓名に分割できない場合は、HumanName.text にフルネームを指定する。
 ・各名前パートとtext は、両方存在してもよい。
-・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。
-・漢字、カナの指定がない場合やローマ字名の場合などはデフォルトスライスが適用される。</t>
+・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -544,18 +544,18 @@
 </t>
   </si>
   <si>
-    <t>An identifier for this patient</t>
+    <t>An identifier for this patient 【詳細参照】</t>
   </si>
   <si>
     <t>An identifier for this patient.
-この患者の識別子。【詳細参照】</t>
+この患者の識別子。</t>
   </si>
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
 Patient.identifier.system には、
 　urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号
 を使用する。
-医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-patient.html#医療機関コード)を参照すること。
+医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。
 例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
 なお、urn:oid:1.2.392.100495.20.3.51　の部分は、厚生労働省 電子処方箋CDA 記述仕様第1版（平成30年7月）付表2 OID一覧において患者番号として割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -1982,7 +1982,7 @@
 * Distribution of patient information across multiple servers
 複数のユースケースがある。
 ・事務的なエラーのため、一貫して人間を特定することが困難であり患者の記録が重複している。
-・複数のサーバーにわたり患者情報が配布されている。</t>
+・複数のサーバにわたり患者情報が配布されている。</t>
   </si>
   <si>
     <t>outboundLink</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -479,7 +479,7 @@
 </t>
   </si>
   <si>
-    <t>患者の生誕地。</t>
+    <t>患者の生誕地</t>
   </si>
   <si>
     <t>The registered place of birth of the patient. A system may use the address.text if they don't store the birthPlace address in discrete elements.
@@ -496,7 +496,7 @@
 </t>
   </si>
   <si>
-    <t>患者の人種。</t>
+    <t>患者の人種</t>
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.
@@ -1552,7 +1552,7 @@
 integer</t>
   </si>
   <si>
-    <t>Whether patient is part of a multiple birth　患者が多胎出産の一人かどうか。</t>
+    <t>Whether patient is part of a multiple birth　患者が多胎出産の一人かどうか</t>
   </si>
   <si>
     <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).
@@ -1618,7 +1618,7 @@
 </t>
   </si>
   <si>
-    <t>A contact party (e.g. guardian, partner, friend) for the patient　患者の連絡先者（例：保護者、パートナー、友人）。</t>
+    <t>A contact party (e.g. guardian, partner, friend) for the patient　患者の連絡先者（例：保護者、パートナー、友人）</t>
   </si>
   <si>
     <t>A contact party (e.g. guardian, partner, friend) for the patient.
@@ -1921,11 +1921,11 @@
 </t>
   </si>
   <si>
-    <t>Patient's nominated primary care provider　患者が指名するケア提供者。</t>
+    <t>Patient's nominated primary care provider　患者が指名するケア提供者</t>
   </si>
   <si>
     <t>Patient's nominated care provider.
-患者が指名するケア提供者。</t>
+患者が指名するケア提供者</t>
   </si>
   <si>
     <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disability setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -557,7 +557,7 @@
 を使用する。
 医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。
 例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
-なお、urn:oid:1.2.392.100495.20.3.51　の部分は、厚生労働省 電子処方箋CDA 記述仕様第1版（平成30年7月）付表2 OID一覧において患者番号として割り当てられたOIDのURL型である。
+なお、urn:oid:1.2.392.100495.20.3.51　の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -454,7 +454,7 @@
 </t>
   </si>
   <si>
-    <t>患者の宗教</t>
+    <t>患者の宗教 【詳細参照】</t>
   </si>
   <si>
     <t>The patient's professed religious affiliations.
@@ -479,7 +479,7 @@
 </t>
   </si>
   <si>
-    <t>患者の生誕地</t>
+    <t>患者の生誕地 【詳細参照】</t>
   </si>
   <si>
     <t>The registered place of birth of the patient. A system may use the address.text if they don't store the birthPlace address in discrete elements.
@@ -496,7 +496,7 @@
 </t>
   </si>
   <si>
-    <t>患者の人種</t>
+    <t>患者の人種 【詳細参照】</t>
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.
@@ -614,7 +614,7 @@
     <t>Patient.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
+    <t>usual | official | temp | secondary | old (If known) 【詳細参照】</t>
   </si>
   <si>
     <t>The purpose of this identifier.</t>
@@ -654,7 +654,7 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
+    <t>Description of identifier 【詳細参照】</t>
   </si>
   <si>
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -690,7 +690,7 @@
     <t>Patient.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>The namespace for the identifier value 【詳細参照】</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -723,7 +723,7 @@
     <t>Patient.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>The value that is unique 【詳細参照】</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -909,7 +909,7 @@
     <t>Patient.telecom.system</t>
   </si>
   <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
+    <t>phone | fax | email | pager | url | sms | other 【詳細参照】</t>
   </si>
   <si>
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
@@ -973,7 +973,7 @@
     <t>Patient.telecom.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+    <t>home | work | temp | old | mobile - purpose of this contact point 【詳細参照】</t>
   </si>
   <si>
     <t>Identifies the purpose for the contact point.</t>
@@ -1155,7 +1155,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the individual　個人の住所</t>
+    <t>An address for the individual　個人の住所 【詳細参照】</t>
   </si>
   <si>
     <t>An address for the individual.
@@ -1192,7 +1192,7 @@
     <t>Patient.address.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | billing - purpose of this address　住所の用途</t>
+    <t>home | work | temp | old | billing - purpose of this address　住所の用途 【詳細参照】</t>
   </si>
   <si>
     <t>The purpose of this address.
@@ -1229,7 +1229,7 @@
     <t>Patient.address.type</t>
   </si>
   <si>
-    <t>postal | physical | both</t>
+    <t>postal | physical | both 【詳細参照】</t>
   </si>
   <si>
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
@@ -1261,7 +1261,7 @@
     <t>Patient.address.text</t>
   </si>
   <si>
-    <t>Text representation of the address　住所のテキスト表現</t>
+    <t>Text representation of the address　住所のテキスト表現 【詳細参照】</t>
   </si>
   <si>
     <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.
@@ -1295,7 +1295,7 @@
     <t>Patient.address.line</t>
   </si>
   <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.ストリート名や番地など</t>
+    <t>Street name, number, direction &amp; P.O. Box etc.ストリート名や番地など 【詳細参照】</t>
   </si>
   <si>
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.
@@ -1331,7 +1331,7 @@
 </t>
   </si>
   <si>
-    <t>Name of city, town etc.　市区町村名</t>
+    <t>Name of city, town etc.　市区町村名 【詳細参照】</t>
   </si>
   <si>
     <t>The name of the city, town, suburb, village or other community or delivery center.
@@ -1363,7 +1363,7 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
+    <t>District name (aka county) 【詳細参照】</t>
   </si>
   <si>
     <t>The name of the administrative area (county).</t>
@@ -1392,7 +1392,7 @@
 Territory</t>
   </si>
   <si>
-    <t>Sub-unit of country (abbreviations ok)　国の次の地区単位</t>
+    <t>Sub-unit of country (abbreviations ok)　国の次の地区単位 【詳細参照】</t>
   </si>
   <si>
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).
@@ -1421,7 +1421,7 @@
 </t>
   </si>
   <si>
-    <t>Postal code for area</t>
+    <t>Postal code for area 【詳細参照】</t>
   </si>
   <si>
     <t>A postal code designating a region defined by the postal service.</t>
@@ -1505,7 +1505,7 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t>Marital (civil) status of a patient　患者の婚姻（市民）状態</t>
+    <t>Marital (civil) status of a patient　患者の婚姻（市民）状態 【詳細参照】</t>
   </si>
   <si>
     <t>This field contains a patient's most recent marital (civil) status.
@@ -1666,7 +1666,7 @@
     <t>Patient.contact.relationship</t>
   </si>
   <si>
-    <t>The kind of relationship</t>
+    <t>The kind of relationship 【詳細参照】</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the contact person.
@@ -1852,7 +1852,7 @@
     <t>Patient.communication.language</t>
   </si>
   <si>
-    <t>The language which can be used to communicate with the patient about his or her health</t>
+    <t>The language which can be used to communicate with the patient about his or her health 【詳細参照】</t>
   </si>
   <si>
     <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.
@@ -1931,7 +1931,6 @@
     <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disability setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.
 Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.
 Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.
-----以下の翻訳は検討中の内容を含む----
 これはプライマリケア提供者(GPを含む)である場合もあれば、コミュニティ/障害を持つ患者指定のケアマネージャーである場合もある。ケアチームの記録には使用されない。これらは、ケアプランまたはEpisodeOfCareリソースにリンクされるCareTeamリソースに含まれている必要がある。複数のGPは、学期中の大学GPと共にリストされた家庭GPなどの学生や、「フライイン/フライアウト」労働者など、さまざまな理由で患者に対して記録される場合がある。また、医学的問題を認識し続けるために家庭GPに含まれる。
 管轄区域は、必要に応じてこれを1、またはタイプごとに1にプロファイルできると決定する場合がある。</t>
   </si>
@@ -2021,7 +2020,7 @@
     <t>Patient.link.type</t>
   </si>
   <si>
-    <t>replaced-by | replaces | refer | seealso</t>
+    <t>replaced-by | replaces | refer | seealso 【詳細参照】</t>
   </si>
   <si>
     <t>The type of link between this patient resource and another patient resource.

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -461,10 +461,10 @@
 患者の公言された宗教的所属。</t>
   </si>
   <si>
-    <t>患者の宗教をValueSet(v3.ReligiousAffiliation)より選択する。輸血や食事で考慮が必要な場合がある。
-1013 キリスト教
-1020 ヒンドゥー教
-1023 イスラム教
+    <t>患者の宗教をValueSet(v3.ReligiousAffiliation)より選択する。輸血や食事で考慮が必要な場合がある。 
+- 1013 キリスト教
+- 1020 ヒンドゥー教
+- 1023 イスラム教  
 など</t>
   </si>
   <si>
@@ -503,14 +503,14 @@
 オプションの拡張要素-すべてのリソースで使用できる。</t>
   </si>
   <si>
-    <t>患者の人種をValueSet(Race)より選択する。
-2034-7 中国人
-2039-6 日本人
-2040-4 韓国人
-2108-9 ヨーロッパ人
-2110-5 英国人
-2111-3 フランス人
-2112-1 ドイツ人
+    <t>患者の人種をValueSet(Race)より選択する。  
+- 2034-7 中国人
+- 2039-6 日本人
+- 2040-4 韓国人
+- 2108-9 ヨーロッパ人
+- 2110-5 英国人
+- 2111-3 フランス人
+- 2112-1 ドイツ人  
 など</t>
   </si>
   <si>
@@ -551,14 +551,11 @@
 この患者の識別子。</t>
   </si>
   <si>
-    <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
-Patient.identifier.system には、
-　urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号
-を使用する。
-医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。
-例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
-なお、urn:oid:1.2.392.100495.20.3.51　の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。
-地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。</t>
+    <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。  
+Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
+医療機関識別OID番号は患者IDの発行者である医療機関の識別するものである。保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。  
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」  
+なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.
@@ -620,13 +617,13 @@
     <t>The purpose of this identifier.</t>
   </si>
   <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.
-IDの種別をValueSet(IdentifierUse)より選択する。
-usual　　一般
-official　公式（マイナンバーなど、最も信頼できると見なされる場合に使用）
-temp　　一時的
-secondary　二次利用
-old　過去の識別子</t>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.  
+IDの種別をValueSet(IdentifierUse)より選択する。  
+- usual : 一般
+- official : 公式（マイナンバーなど、最も信頼できると見なされる場合に使用）
+- temp : 一時的
+- secondary : 二次利用
+- old : 過去の識別子</t>
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
@@ -660,12 +657,12 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.
-IDの種別をValueSet(Identifier Type Codes)より選択する。
-DL 運転免許証番号
-PPN パスポート番号
-BRN 血統登録番号
-MR カルテ番号
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.  
+IDの種別をValueSet(Identifier Type Codes)より選択する。
+- DL : 運転免許証番号
+- PPN : パスポート番号
+- BRN : 血統登録番号
+- MR : カルテ番号  
 など</t>
   </si>
   <si>
@@ -696,12 +693,12 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.
+    <t>Identifier.system is always case sensitive.  
 IDの名前空間を表す。
-医療機関固有の患者ID（カルテNo）を表現する場合、system には、患者IDの発行者である医療機関を識別するuriを指定する。
-医療機関を識別するために使用するOID について、もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。
-医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。
-例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」
+医療機関固有の患者ID（カルテNo）を表現する場合、system には、患者IDの発行者である医療機関を識別するuriを指定する。  
+医療機関を識別するために使用するOID について、もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。  
+医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。  
+例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」  
 Patient.identifier.system は、uri 型のため、実際にインスタンスに設定される値は、上記の例であれば urn:oid:1.2.392.200119.6.102.11312345670 とする。</t>
   </si>
   <si>
@@ -758,8 +755,8 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").  
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 IDが使われていた/使われている期間。</t>
   </si>
   <si>
@@ -811,18 +808,18 @@
     <t>Whether this patient record is in active use. 
 Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
 It is often used to filter patient lists to exclude inactive patients
-Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.
-この患者記録がアクティブに使用されているかどうか。多くのシステムは、このプロパティを使用して、組織のビジネスルールに基づいて一定期間見られなかった患者など、非現在の患者としてマークする。
-非アクティブな患者を除外するために患者リストをフィルタリングするためによく使用される。
+Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.  
+この患者記録がアクティブに使用されているかどうか。多くのシステムは、このプロパティを使用して、組織のビジネスルールに基づいて一定期間見られなかった患者など、非現在の患者としてマークする。  
+非アクティブな患者を除外するために患者リストをフィルタリングするためによく使用される。  
 死亡した患者は、同じ理由で不活性とマークされる場合があるが、死後しばらくは活性である場合がある。</t>
   </si>
   <si>
-    <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.
-この患者の記録が有効かどうか
+    <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.  
+この患者の記録が有効かどうか  
 誤って患者を登録して削除したい場合などにfalseにする</t>
   </si>
   <si>
-    <t>Need to be able to mark a patient record as not to be used because it was created in error.
+    <t>Need to be able to mark a patient record as not to be used because it was created in error.  
 患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要がある。</t>
   </si>
   <si>
@@ -849,14 +846,14 @@
 個人に関連付けられた名前。</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
-患者は、用途や適用期間が異なる複数の名前を持つ場合がある。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」を使用する。
-FHIRデータ型仕様に従って、以下の内容を採用する。
-・姓名分割できる場合は、名前パート HumanName.familyとHumanName.givenに指定する。
-・ミドルネームがある場合は、given に指定する（givenは繰り返し可能）
-・姓名に分割できない場合は、HumanName.text にフルネームを指定する。
-・各名前パートとtext は、両方存在してもよい。
-・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。</t>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.  
+患者は、用途や適用期間が異なる複数の名前を持つ場合がある。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」を使用する。  
+FHIRデータ型仕様に従って、以下の内容を採用する。
+- 姓名分割できる場合は、名前パート HumanName.familyとHumanName.givenに指定する
+- ミドルネームがある場合は、given に指定する（givenは繰り返し可能）  
+- 姓名に分割できない場合は、HumanName.text にフルネームを指定する
+- 各名前パートとtext は、両方存在してもよい
+- 漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.
@@ -915,15 +912,17 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-患者の連絡先の種別をValueSet(ContactPointSystem)より選択する。
- phone : 電話 
- fax :  Fax 
- email : 電子メール 
- pager : ポケットベル 
- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これは、Webサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。
- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）
- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size  
+患者の連絡先の種別をValueSet(ContactPointSystem)より選択する。  
+- phone : 電話
+- fax : Fax 
+- email : 電子メール
+- pager : ポケットベル
+- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先  
+これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。
+- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  
+- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先  
+例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
     <t>Telecommunications form for contact point.</t>
@@ -979,13 +978,13 @@
     <t>Identifies the purpose for the contact point.</t>
   </si>
   <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.
-患者の連絡先の種別をValueSet(ContactPointUse)より選択する。
-home 自宅
-work 職場
-temp 一時的
-old 以前の
-mobile モバイル機器</t>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.  
+患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  
+- home : 自宅
+- work : 職場
+- temp : 一時的
+- old : 以前の
+- mobile モバイル機器</t>
   </si>
   <si>
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
@@ -1036,7 +1035,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).  
 連絡先が使用されていた/されている期間</t>
   </si>
   <si>
@@ -1096,9 +1095,9 @@
 個人の生年月日</t>
   </si>
   <si>
-    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).
-実際の生年月日が不明な場合は、少なくとも推定年を推測として提供する必要があり、時間が必要な場合（出産/乳児ケアシステムなど）に使用できる標準の拡張extension「patient-birthTime」がある。
-患者の生年月日をYYYY-MM-DD形式で入れる
+    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).  
+実際の生年月日が不明な場合は、少なくとも推定年を推測として提供する必要があり、時間が必要な場合（出産/乳児ケアシステムなど）に使用できる標準の拡張extension「patient-birthTime」がある。  
+患者の生年月日をYYYY-MM-DD形式で入れる。  
 例：1945-08-23</t>
   </si>
   <si>
@@ -1131,12 +1130,12 @@
 個人が死亡しているかどうかを示す。</t>
   </si>
   <si>
-    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.
-値がない場合は、個人が死亡したかどうかについてのステートメントがないことを意味し、ほとんどのシステムは、値がないことを人が生きていることの兆候として解釈する。
-患者が死亡しているかどうかを示す
-deceasedBoolean　または　deceasedDateTime　のどちらかに値が入る
-deceasedBoolean : true(死亡) / false(生存)
-deceasedDateTime : 患者の死亡日時</t>
+    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.  
+値がない場合は、個人が死亡したかどうかについてのステートメントがないことを意味し、ほとんどのシステムは、値がないことを人が生きていることの兆候として解釈する。  
+患者が死亡しているかどうかを示す  
+deceasedBooleanまたはdeceasedDateTimeのどちらかに値が入る  
+- deceasedBoolean : true(死亡) / false(生存)  
+- deceasedDateTime : 患者の死亡日時</t>
   </si>
   <si>
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
@@ -1164,10 +1163,10 @@
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
-【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。
-・住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
-・住所が構造化されていない場合は、Address.text に記述する。
-・各住所パートとtext は、両方存在してもよい。
+【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。  
+- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。  
+- 住所が構造化されていない場合は、Address.text に記述する。  
+- 各住所パートとtext は、両方存在してもよい。
 ※診療文書構造化記述規約等では、streetAddressLine (FHIRではlineに対応) に指定するとなっていた。</t>
   </si>
   <si>
@@ -1200,12 +1199,12 @@
   </si>
   <si>
     <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.
-住所の用途をValueSet(AddressUse)より選択する。
-home   自宅
-work   職場
-temp   一時的
-old   以前の
-billing   請求書、インボイス、領収書などの送付用</t>
+住所の用途をValueSet(AddressUse)より選択する。  
+- home : 自宅
+- work : 職場
+- temp : 一時的
+- old : 以前の
+- billing : 請求書、インボイス、領収書などの送付用</t>
   </si>
   <si>
     <t>Allows an appropriate address to be chosen from a list of many.</t>
@@ -1236,11 +1235,11 @@
 住所（訪問できる住所）と郵送先住所（私書箱や気付住所など）を区別する。ほとんどのアドレスは両方。</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).
-住所の種類をValueSet(AddressType)より選択する。
-postal　　　郵送先 - 私書箱、気付の住所
-physical　　訪れることのできる物理的な住所。
-both　　　　postalとphysicalの両方</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).  
+住所の種類をValueSet(AddressType)より選択する。  
+- postal : 郵送先 - 私書箱、気付の住所
+- physical : 訪れることのできる物理的な住所
+- both : postalとphysicalの両方</t>
   </si>
   <si>
     <t>both</t>
@@ -1264,16 +1263,16 @@
     <t>Text representation of the address　住所のテキスト表現 【詳細参照】</t>
   </si>
   <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.
-表示するアドレス全体を指定する
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.  
+表示するアドレス全体を指定する  
 例：郵便ラベル。これは、特定の部品の代わりに、または特定の部品と同様に提供される場合がある。</t>
   </si>
   <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.
-テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。
-住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。
-住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。
-郵便番号は含めない。
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.  
+テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
+- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
+- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
+- 郵便番号は含めない。  
 例：東京都文京区本郷7-3-1</t>
   </si>
   <si>
@@ -1303,12 +1302,12 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。
-【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
-英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。
-繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。
-例：本郷7-3-1
-例：大字石神９７６
+１MBを超えないこと。  
+【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。  
+英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。  
+繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。  
+例：本郷7-3-1  
+例：大字石神９７６  
 例：藤崎町大字藤崎字西村1-2 春山荘201号室</t>
   </si>
   <si>
@@ -1339,9 +1338,8 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。
-【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
-例：文京区</t>
+１MBを超えないこと。  
+【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
   </si>
   <si>
     <t>Erewhon</t>
@@ -1400,9 +1398,8 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。
-都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。
-例：東京都</t>
+１MBを超えないこと。  
+都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1428,9 +1425,8 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。
-郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。
-例：113-8655</t>
+１MBを超えないこと。  
+郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
   </si>
   <si>
     <t>9132</t>
@@ -1455,10 +1451,10 @@
 国-一般的に理解されている、または一般的に受け入れられている国の国名かコード。</t>
   </si>
   <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.
-ISO 3166 3文字コードは、人間が読める国名の代わりに使用する。
-ISO 3166の2文字または3文字のコード
-日本であれば、jp　または　jpn</t>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.  
+ISO 3166 3文字コードは、人間が読める国名の代わりに使用する。  
+ISO 3166の2文字または3文字のコード  
+日本であれば、jpまたはjpn</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1481,9 +1477,9 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
-住所が使用されていた/されている期間。
-期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).  
+住所が使用されていた/されている期間。  
+期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  
 期間は、時間間隔（経過時間の測定値）には使用されない。</t>
   </si>
   <si>
@@ -1512,19 +1508,19 @@
 このフィールドは患者の最新の婚姻（市民）状態が含む。</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-患者の婚姻関係をValueSet(Marital Status Codes)より選択する。
-A 婚姻取消・無効
-D 離婚
-I 暫定法令
-L 法的別居中
-M 既婚
-P 一夫多妻制
-S 生涯独身・非婚
-T 同棲
-U 未婚
-W 未亡人
-UNK 不明</t>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.  
+患者の婚姻関係をValueSet(Marital Status Codes)より選択する。  
+- A : 婚姻取消・無効
+- D : 離婚
+- I : 暫定法令
+- L : 法的別居中
+- M : 既婚
+- P : 一夫多妻制
+- S : 生涯独身・非婚
+- T : 同棲
+- U : 未婚
+- W : 未亡人
+- UNK : 不明</t>
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
@@ -1559,12 +1555,12 @@
 患者が多胎児の一人であるか（boolean）、実際の出生順位（integer）であるかを示す。</t>
   </si>
   <si>
-    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).
-multipleBirthBoolean　または　multipleBirthInteger　のどちらかに値が入る
-multipleBirthBoolean : 多胎出産時かどうか。
-３つ子の例にbooleanが指定された場合、3つの患者レコードすべてがvalueBoolean = trueになる（順序は示されない）
-multipleBirthInteger : 多胎出産時の出生順位。
-たとえば、３つ子の２番目の生まれはvalueInteger = 2で、3番目の生まれはvalueInteger = 3になる。</t>
+    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).  
+multipleBirthBooleanまたはmultipleBirthIntegerのどちらかに値が入る  
+- multipleBirthBoolean : 多胎出産時かどうか  
+３つ子の例にbooleanが指定された場合、3つの患者レコードすべてがvalueBoolean = trueになる（順序は示されない）  
+- multipleBirthInteger : 多胎出産時の出生順位  
+たとえば、３つ子の２番目の生まれはvalueInteger = 2で、3番目の生まれはvalueInteger = 3になる</t>
   </si>
   <si>
     <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.
@@ -1591,14 +1587,14 @@
 患者の画像。</t>
   </si>
   <si>
-    <t>Guidelines:
-* Use id photos, not clinical photos.
-* Limit dimensions to thumbnail.
-* Keep byte count low to ease resource updates
-ガイドライン：
-臨床写真ではなく、身分証明写真を使用すること。
-寸法をサムネイルに制限する。
-リソースの更新を容易にするため、バイト数を少なくすること。</t>
+    <t>Guidelines:  
+- Use id photos, not clinical photos.  
+- Limit dimensions to thumbnail.  
+- Keep byte count low to ease resource updates  
+ガイドライン：  
+- 臨床写真ではなく、身分証明写真を使用すること  
+- 寸法をサムネイルに制限する  
+- リソースの更新を容易にするため、バイト数を少なくすること</t>
   </si>
   <si>
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.
@@ -1673,15 +1669,15 @@
 患者と連絡先の関係性。</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-患者との関係性をValueSet(PatientContactRelationship)より選択する。
-C 緊急連絡先
-E 雇用者
-F 連邦政府機関
-I 保険会社
-N 近親者
-S 州政府機関
-U 不明</t>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.  
+患者との関係性をValueSet(PatientContactRelationship)より選択する。  
+- C : 緊急連絡先
+- E : 雇用者
+- F : 連邦政府機関
+- I : 保険会社
+- N : 近親者
+- S : 州政府機関
+- U : 不明</t>
   </si>
   <si>
     <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.
@@ -1826,11 +1822,11 @@
 彼または彼女の健康について患者と会話する際に使用する言語。</t>
   </si>
   <si>
-    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.
-言語が指定されていない場合、デフォルトのローカル言語が話されていることを意味する。 複数のモードの習熟度を伝える必要がある場合は、複数のPatient.Communicationアソシエーションが必要である。 動物の場合、言語は関連するフィールドではないため、インスタンスから除外する必要がある。 患者がデフォルトの現地言語を話さない場合、通訳者が必要であることを明示的に宣言するために、通訳者必須基準を使用できる。</t>
-  </si>
-  <si>
-    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.
+    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.  
+言語が指定されていない場合、デフォルトのローカル言語が話されていることを意味する。複数のモードの習熟度を伝える必要がある場合は、複数のPatient.Communicationアソシエーションが必要である。動物の場合、言語は関連するフィールドではないため、インスタンスから除外する必要がある。患者がデフォルトの現地言語を話さない場合、通訳者が必要であることを明示的に宣言するために、通訳者必須基準を使用できる。</t>
+  </si>
+  <si>
+    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.  
 患者が現地の言語を話さない場合、通訳が必要になる場合があるため、話せる言語と習熟度は、患者と関心のある他の人の両方にとって注意すべき重要な事項である。</t>
   </si>
   <si>
@@ -1855,17 +1851,17 @@
     <t>The language which can be used to communicate with the patient about his or her health 【詳細参照】</t>
   </si>
   <si>
-    <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.
-ISO-639-1 alpha 2コード小文字で言語を、また、オプションとしてハイフンとISO-3166-1 alpha 2コード大文字を続けて地域を表す。たとえば、英語の場合は「en」、アメリカ英語の場合は「en-US」、イギリス英語の場合は「en-EN」である。</t>
+    <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.  
+ISO-639-1 alpha 2コード小文字で言語を、またオプションとしてハイフンとISO-3166-1 alpha 2コード大文字を続けて地域を表す。たとえば、英語の場合は「en」、アメリカ英語の場合は「en-US」、イギリス英語の場合は「en-EN」である。</t>
   </si>
   <si>
     <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.
-患者とコミュニケーションするときに使用できる言語をValueSet(CommonLanguages)より選択する。
-de ドイツ語
-en 英語
-fr フランス語
-ja 日本語
-ko 韓国語
+患者とコミュニケーションするときに使用できる言語をValueSet(CommonLanguages)より選択する。
+- de : ドイツ語
+- en : 英語
+- fr : フランス語
+- ja : 日本語
+- ko : 韓国語  
 など</t>
   </si>
   <si>
@@ -1929,9 +1925,9 @@
   </si>
   <si>
     <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disability setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.
-Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.
-Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.
-これはプライマリケア提供者(GPを含む)である場合もあれば、コミュニティ/障害を持つ患者指定のケアマネージャーである場合もある。ケアチームの記録には使用されない。これらは、ケアプランまたはEpisodeOfCareリソースにリンクされるCareTeamリソースに含まれている必要がある。複数のGPは、学期中の大学GPと共にリストされた家庭GPなどの学生や、「フライイン/フライアウト」労働者など、さまざまな理由で患者に対して記録される場合がある。また、医学的問題を認識し続けるために家庭GPに含まれる。
+Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.  
+Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.  
+これはプライマリケア提供者(GPを含む)である場合もあれば、コミュニティ/障害を持つ患者指定のケアマネージャーである場合もある。ケアチームの記録には使用されない。これらはケアプランまたはEpisodeOfCareリソースにリンクされるCareTeamリソースに含まれている必要がある。複数のGPは、学期中の大学GPと共にリストされた家庭GPなどの学生や、「フライイン/フライアウト」労働者など、さまざまな理由で患者に対して記録される場合がある。また、医学的問題を認識し続けるために家庭GPに含まれる。  
 管轄区域は、必要に応じてこれを1、またはタイプごとに1にプロファイルできると決定する場合がある。</t>
   </si>
   <si>
@@ -2027,12 +2023,12 @@
 この患者リソースと別の患者リソース間のリンクのタイプ。</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-この患者リソースと別の患者リソース間のリンクのタイプをValueSet(LinkType)より選択する。
-replaced-by　このリンクを含む患者リソースは使用しないこと。
-replaces　　　このリンクを含む患者リソースは、現在アクティブな患者レコードである。
-refer　　　　このリンクを含む患者リソースは使用中であり、有効であるが、患者に関する主な情報源とは見なされていない。
-seealso　　このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す。</t>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size  
+この患者リソースと別の患者リソース間のリンクのタイプをValueSet(LinkType)より選択する。
+- replaced-by : このリンクを含む患者リソースは使用しないこと
+- replaces : このリンクを含む患者リソースは、現在アクティブな患者レコードである
+- refer : このリンクを含む患者リソースは使用中であり、有効であるが、患者に関する主な情報源とは見なされていない
+- seealso : このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す</t>
   </si>
   <si>
     <t>The type of link between this patient resource and another patient resource.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -464,7 +464,7 @@
     <t>患者の宗教をValueSet(v3.ReligiousAffiliation)より選択する。輸血や食事で考慮が必要な場合がある。 
 - 1013 キリスト教
 - 1020 ヒンドゥー教
-- 1023 イスラム教  
+- 1023 イスラム教
 など</t>
   </si>
   <si>
@@ -510,7 +510,7 @@
 - 2108-9 ヨーロッパ人
 - 2110-5 英国人
 - 2111-3 フランス人
-- 2112-1 ドイツ人  
+- 2112-1 ドイツ人
 など</t>
   </si>
   <si>
@@ -662,7 +662,7 @@
 - DL : 運転免許証番号
 - PPN : パスポート番号
 - BRN : 血統登録番号
-- MR : カルテ番号  
+- MR : カルテ番号
 など</t>
   </si>
   <si>
@@ -984,7 +984,7 @@
 - work : 職場
 - temp : 一時的
 - old : 以前の
-- mobile モバイル機器</t>
+- mobile : モバイル機器</t>
   </si>
   <si>
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
@@ -1164,9 +1164,9 @@
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
 【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。  
-- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。  
-- 住所が構造化されていない場合は、Address.text に記述する。  
-- 各住所パートとtext は、両方存在してもよい。
+- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する
+- 住所が構造化されていない場合は、Address.text に記述する
+- 各住所パートとtext は、両方存在してもよい
 ※診療文書構造化記述規約等では、streetAddressLine (FHIRではlineに対応) に指定するとなっていた。</t>
   </si>
   <si>
@@ -1590,9 +1590,9 @@
     <t>Guidelines:  
 - Use id photos, not clinical photos.  
 - Limit dimensions to thumbnail.  
-- Keep byte count low to ease resource updates  
+- Keep byte count low to ease resource updates
 ガイドライン：  
-- 臨床写真ではなく、身分証明写真を使用すること  
+- 臨床写真ではなく、身分証明写真を使用すること
 - 寸法をサムネイルに制限する  
 - リソースの更新を容易にするため、バイト数を少なくすること</t>
   </si>
@@ -1974,10 +1974,10 @@
   <si>
     <t>There are multiple use cases:   
 * Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
-* Distribution of patient information across multiple servers
-複数のユースケースがある。
-・事務的なエラーのため、一貫して人間を特定することが困難であり患者の記録が重複している。
-・複数のサーバにわたり患者情報が配布されている。</t>
+* Distribution of patient information across multiple servers
+複数のユースケースがある。  
+- 事務的なエラーのため一貫して人間を特定することが困難であり患者の記録が重複している
+- 複数のサーバにわたり患者情報が配布されている</t>
   </si>
   <si>
     <t>outboundLink</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -553,8 +553,10 @@
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。  
 Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
-医療機関識別OID番号は患者IDの発行者である医療機関の識別するものである。保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。  
-例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」  
+医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+```
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
+```
 なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
@@ -694,12 +696,12 @@
   </si>
   <si>
     <t>Identifier.system is always case sensitive.  
-IDの名前空間を表す。
-医療機関固有の患者ID（カルテNo）を表現する場合、system には、患者IDの発行者である医療機関を識別するuriを指定する。  
-医療機関を識別するために使用するOID について、もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。  
-医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。  
-例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」  
-Patient.identifier.system は、uri 型のため、実際にインスタンスに設定される値は、上記の例であれば urn:oid:1.2.392.200119.6.102.11312345670 とする。</t>
+Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
+医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+```
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
+```
+なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -264,10 +267,6 @@
   <si>
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.
 ケアまたはその他の健康関連サービスを受けている個人または動物に関する人口統計およびその他の管理情報。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2288,55 +2287,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2399,221 +2398,221 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>84</v>
@@ -2622,13 +2621,13 @@
         <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -2637,20 +2636,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>88</v>
@@ -2669,80 +2668,80 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -2751,20 +2750,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>88</v>
@@ -2781,80 +2780,80 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -2863,17 +2862,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>88</v>
@@ -2895,80 +2894,80 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2977,23 +2976,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>107</v>
@@ -3009,26 +3008,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>111</v>
@@ -3040,49 +3039,49 @@
         <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -3095,19 +3094,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>117</v>
@@ -3123,62 +3122,62 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>99</v>
@@ -3187,16 +3186,16 @@
         <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -3209,19 +3208,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>125</v>
@@ -3237,80 +3236,80 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -3319,23 +3318,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>132</v>
@@ -3349,45 +3348,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>136</v>
@@ -3396,31 +3395,31 @@
         <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -3431,23 +3430,23 @@
         <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>140</v>
@@ -3463,59 +3462,59 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>144</v>
@@ -3524,19 +3523,19 @@
         <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -3547,23 +3546,23 @@
         <v>145</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>146</v>
@@ -3579,59 +3578,59 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>144</v>
@@ -3640,19 +3639,19 @@
         <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -3663,23 +3662,23 @@
         <v>150</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>151</v>
@@ -3695,59 +3694,59 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>144</v>
@@ -3756,19 +3755,19 @@
         <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -3781,19 +3780,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>132</v>
@@ -3811,62 +3810,62 @@
         <v>160</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>138</v>
@@ -3875,16 +3874,16 @@
         <v>130</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -3893,20 +3892,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>88</v>
@@ -3927,62 +3926,62 @@
         <v>167</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>99</v>
@@ -4000,7 +3999,7 @@
         <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -4009,23 +4008,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>173</v>
@@ -4039,80 +4038,80 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -4125,19 +4124,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>132</v>
@@ -4153,38 +4152,38 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>135</v>
@@ -4193,7 +4192,7 @@
         <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>136</v>
@@ -4202,13 +4201,13 @@
         <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -4217,16 +4216,16 @@
         <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -4235,17 +4234,17 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>88</v>
@@ -4269,26 +4268,26 @@
         <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>188</v>
@@ -4300,31 +4299,31 @@
         <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>99</v>
@@ -4333,16 +4332,16 @@
         <v>192</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -4351,20 +4350,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>88</v>
@@ -4385,26 +4384,26 @@
         <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>199</v>
@@ -4416,31 +4415,31 @@
         <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>99</v>
@@ -4449,16 +4448,16 @@
         <v>192</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -4467,20 +4466,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>88</v>
@@ -4501,62 +4500,62 @@
         <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>209</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>99</v>
@@ -4565,16 +4564,16 @@
         <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -4583,7 +4582,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4593,10 +4592,10 @@
         <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>88</v>
@@ -4615,62 +4614,62 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>217</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>99</v>
@@ -4679,16 +4678,16 @@
         <v>219</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -4697,20 +4696,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>88</v>
@@ -4729,62 +4728,62 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>99</v>
@@ -4793,16 +4792,16 @@
         <v>227</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -4811,20 +4810,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>88</v>
@@ -4843,62 +4842,62 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
@@ -4907,16 +4906,16 @@
         <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -4925,17 +4924,17 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>88</v>
@@ -4959,64 +4958,64 @@
         <v>242</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>243</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>237</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
@@ -5031,10 +5030,10 @@
         <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -5043,23 +5042,23 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>247</v>
@@ -5077,59 +5076,59 @@
         <v>251</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>144</v>
@@ -5141,16 +5140,16 @@
         <v>252</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -5159,20 +5158,20 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
@@ -5193,62 +5192,62 @@
         <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>99</v>
@@ -5260,13 +5259,13 @@
         <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -5275,23 +5274,23 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>173</v>
@@ -5305,80 +5304,80 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -5391,19 +5390,19 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>132</v>
@@ -5419,38 +5418,38 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>135</v>
@@ -5459,7 +5458,7 @@
         <v>181</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>136</v>
@@ -5468,13 +5467,13 @@
         <v>182</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>138</v>
@@ -5483,16 +5482,16 @@
         <v>177</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -5501,20 +5500,20 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
@@ -5533,26 +5532,26 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>188</v>
@@ -5564,25 +5563,25 @@
         <v>270</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5597,16 +5596,16 @@
         <v>273</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -5615,20 +5614,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
@@ -5649,62 +5648,62 @@
         <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>99</v>
@@ -5713,16 +5712,16 @@
         <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -5731,17 +5730,17 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>88</v>
@@ -5765,26 +5764,26 @@
         <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
         <v>188</v>
@@ -5796,31 +5795,31 @@
         <v>289</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>99</v>
@@ -5829,16 +5828,16 @@
         <v>291</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -5847,20 +5846,20 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
@@ -5879,62 +5878,62 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5943,16 +5942,16 @@
         <v>177</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -5961,20 +5960,20 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
@@ -5993,62 +5992,62 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>99</v>
@@ -6057,16 +6056,16 @@
         <v>304</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -6075,20 +6074,20 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
@@ -6109,26 +6108,26 @@
         <v>309</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>188</v>
@@ -6140,31 +6139,31 @@
         <v>311</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>99</v>
@@ -6176,13 +6175,13 @@
         <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>314</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
@@ -6191,20 +6190,20 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>88</v>
@@ -6225,62 +6224,62 @@
         <v>320</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>99</v>
@@ -6292,7 +6291,7 @@
         <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>323</v>
@@ -6307,17 +6306,17 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>88</v>
@@ -6341,62 +6340,62 @@
         <v>330</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
@@ -6408,13 +6407,13 @@
         <v>177</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -6423,20 +6422,20 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
@@ -6457,62 +6456,62 @@
         <v>338</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>333</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>99</v>
@@ -6524,13 +6523,13 @@
         <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -6539,23 +6538,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>173</v>
@@ -6569,80 +6568,80 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -6655,19 +6654,19 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>132</v>
@@ -6683,38 +6682,38 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>135</v>
@@ -6723,7 +6722,7 @@
         <v>181</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>136</v>
@@ -6732,13 +6731,13 @@
         <v>182</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>138</v>
@@ -6747,16 +6746,16 @@
         <v>177</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
@@ -6765,17 +6764,17 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>88</v>
@@ -6799,26 +6798,26 @@
         <v>348</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>349</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
         <v>188</v>
@@ -6830,31 +6829,31 @@
         <v>351</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
@@ -6863,16 +6862,16 @@
         <v>291</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
@@ -6881,20 +6880,20 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
@@ -6913,26 +6912,26 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>358</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
         <v>188</v>
@@ -6944,31 +6943,31 @@
         <v>360</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>99</v>
@@ -6977,16 +6976,16 @@
         <v>291</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -6995,20 +6994,20 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
@@ -7029,62 +7028,62 @@
         <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>368</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
@@ -7093,16 +7092,16 @@
         <v>370</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
@@ -7111,20 +7110,20 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
@@ -7143,62 +7142,62 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>376</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
@@ -7207,16 +7206,16 @@
         <v>378</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -7229,16 +7228,16 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
@@ -7257,62 +7256,62 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>385</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>386</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>99</v>
@@ -7321,16 +7320,16 @@
         <v>387</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
@@ -7343,16 +7342,16 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
@@ -7371,62 +7370,62 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>394</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>395</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>99</v>
@@ -7435,16 +7434,16 @@
         <v>396</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
@@ -7457,16 +7456,16 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
@@ -7485,62 +7484,62 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>403</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>99</v>
@@ -7549,16 +7548,16 @@
         <v>404</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
@@ -7571,16 +7570,16 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>88</v>
@@ -7599,62 +7598,62 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>411</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>412</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
@@ -7663,16 +7662,16 @@
         <v>413</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>414</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
@@ -7681,20 +7680,20 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>88</v>
@@ -7713,62 +7712,62 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>419</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
@@ -7777,16 +7776,16 @@
         <v>420</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>421</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
@@ -7795,20 +7794,20 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>88</v>
@@ -7829,62 +7828,62 @@
         <v>426</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>427</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>428</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>99</v>
@@ -7893,16 +7892,16 @@
         <v>304</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>429</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
@@ -7911,23 +7910,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>194</v>
@@ -7945,26 +7944,26 @@
         <v>434</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>199</v>
@@ -7976,31 +7975,31 @@
         <v>436</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>430</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
@@ -8012,13 +8011,13 @@
         <v>438</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>439</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
@@ -8027,23 +8026,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>441</v>
@@ -8061,62 +8060,62 @@
         <v>445</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>440</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>99</v>
@@ -8128,13 +8127,13 @@
         <v>177</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -8143,23 +8142,23 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>449</v>
@@ -8177,62 +8176,62 @@
         <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>99</v>
@@ -8244,13 +8243,13 @@
         <v>177</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>455</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
@@ -8259,23 +8258,23 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>457</v>
@@ -8293,62 +8292,62 @@
         <v>461</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>456</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>462</v>
@@ -8360,13 +8359,13 @@
         <v>177</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
@@ -8375,23 +8374,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>173</v>
@@ -8405,80 +8404,80 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
@@ -8491,19 +8490,19 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>132</v>
@@ -8519,62 +8518,62 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>138</v>
@@ -8583,16 +8582,16 @@
         <v>177</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
@@ -8605,13 +8604,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>88</v>
@@ -8635,62 +8634,62 @@
         <v>160</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>470</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>138</v>
@@ -8699,16 +8698,16 @@
         <v>130</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
@@ -8717,23 +8716,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>194</v>
@@ -8751,26 +8750,26 @@
         <v>475</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
         <v>199</v>
@@ -8782,31 +8781,31 @@
         <v>477</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>471</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8818,13 +8817,13 @@
         <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>479</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
@@ -8833,23 +8832,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>481</v>
@@ -8865,62 +8864,62 @@
         <v>484</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>480</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
@@ -8932,13 +8931,13 @@
         <v>177</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>486</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -8947,23 +8946,23 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>255</v>
@@ -8981,62 +8980,62 @@
         <v>491</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>487</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
@@ -9048,13 +9047,13 @@
         <v>177</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>492</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
@@ -9063,23 +9062,23 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>334</v>
@@ -9095,62 +9094,62 @@
         <v>496</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>493</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
@@ -9162,13 +9161,13 @@
         <v>177</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>497</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
@@ -9177,23 +9176,23 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>107</v>
@@ -9209,26 +9208,26 @@
         <v>500</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>188</v>
@@ -9240,31 +9239,31 @@
         <v>311</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>498</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
@@ -9276,13 +9275,13 @@
         <v>177</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>501</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
@@ -9291,23 +9290,23 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>230</v>
@@ -9325,56 +9324,56 @@
         <v>506</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>502</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>87</v>
@@ -9392,13 +9391,13 @@
         <v>177</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>509</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -9407,23 +9406,23 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>222</v>
@@ -9437,62 +9436,62 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>99</v>
@@ -9504,13 +9503,13 @@
         <v>177</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
@@ -9519,23 +9518,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>457</v>
@@ -9553,62 +9552,62 @@
         <v>518</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>514</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
@@ -9620,13 +9619,13 @@
         <v>520</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
@@ -9635,23 +9634,23 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>173</v>
@@ -9665,80 +9664,80 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
@@ -9751,19 +9750,19 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>132</v>
@@ -9779,62 +9778,62 @@
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>138</v>
@@ -9843,16 +9842,16 @@
         <v>177</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
@@ -9865,13 +9864,13 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>88</v>
@@ -9895,62 +9894,62 @@
         <v>160</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>470</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>138</v>
@@ -9959,16 +9958,16 @@
         <v>130</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
@@ -9977,7 +9976,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9987,13 +9986,13 @@
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>194</v>
@@ -10011,26 +10010,26 @@
         <v>528</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
         <v>111</v>
@@ -10042,19 +10041,19 @@
         <v>113</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>524</v>
@@ -10066,7 +10065,7 @@
         <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>99</v>
@@ -10078,13 +10077,13 @@
         <v>530</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>531</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
@@ -10093,23 +10092,23 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>238</v>
@@ -10127,62 +10126,62 @@
         <v>536</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>532</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10194,13 +10193,13 @@
         <v>538</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>539</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
@@ -10213,19 +10212,19 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>542</v>
@@ -10241,62 +10240,62 @@
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>540</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10308,13 +10307,13 @@
         <v>177</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>547</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
@@ -10323,20 +10322,20 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>88</v>
@@ -10357,62 +10356,62 @@
         <v>552</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>548</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
@@ -10424,13 +10423,13 @@
         <v>553</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
@@ -10439,17 +10438,17 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>88</v>
@@ -10473,62 +10472,62 @@
         <v>558</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
         <v>554</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -10540,13 +10539,13 @@
         <v>177</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
@@ -10555,23 +10554,23 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>173</v>
@@ -10585,80 +10584,80 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
@@ -10671,19 +10670,19 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>132</v>
@@ -10699,62 +10698,62 @@
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>138</v>
@@ -10763,16 +10762,16 @@
         <v>177</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
@@ -10785,13 +10784,13 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>88</v>
@@ -10815,62 +10814,62 @@
         <v>160</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>470</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>138</v>
@@ -10879,16 +10878,16 @@
         <v>130</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
@@ -10897,7 +10896,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10907,10 +10906,10 @@
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>88</v>
@@ -10929,50 +10928,50 @@
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>563</v>
@@ -10984,7 +10983,7 @@
         <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>99</v>
@@ -10996,13 +10995,13 @@
         <v>177</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>568</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
@@ -11011,7 +11010,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11021,10 +11020,10 @@
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>88</v>
@@ -11043,26 +11042,26 @@
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W76" t="s" s="2">
         <v>188</v>
@@ -11074,19 +11073,19 @@
         <v>574</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>569</v>
@@ -11098,7 +11097,7 @@
         <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>99</v>
@@ -11110,13 +11109,13 @@
         <v>177</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Information about an individual or animal receiving health care services　医療サービスを受けている個人または動物に関する情報</t>
@@ -2561,13 +2565,13 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2633,10 +2637,10 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>82</v>
@@ -2650,10 +2654,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2664,7 +2668,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2673,19 +2677,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2735,13 +2739,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2767,10 +2771,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2781,7 +2785,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2790,16 +2794,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2850,19 +2854,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2882,10 +2886,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2896,28 +2900,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2967,19 +2971,19 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>82</v>
@@ -2999,10 +3003,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3013,7 +3017,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
@@ -3025,16 +3029,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3060,13 +3064,13 @@
         <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>82</v>
@@ -3084,19 +3088,19 @@
         <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3116,21 +3120,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3142,16 +3146,16 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3201,22 +3205,22 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>82</v>
@@ -3233,14 +3237,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3259,16 +3263,16 @@
         <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3318,7 +3322,7 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3333,7 +3337,7 @@
         <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>82</v>
@@ -3350,10 +3354,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3376,13 +3380,13 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3421,17 +3425,17 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3443,7 +3447,7 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3463,13 +3467,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>82</v>
@@ -3491,16 +3495,16 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3550,7 +3554,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3559,10 +3563,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3582,13 +3586,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>82</v>
@@ -3598,7 +3602,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
@@ -3610,16 +3614,16 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3669,7 +3673,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3678,10 +3682,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3701,13 +3705,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>82</v>
@@ -3729,16 +3733,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3788,7 +3792,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3797,10 +3801,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3820,14 +3824,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3840,25 +3844,25 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3907,7 +3911,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3919,10 +3923,10 @@
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>82</v>
@@ -3939,10 +3943,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3950,7 +3954,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>81</v>
@@ -3962,22 +3966,22 @@
         <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -4026,7 +4030,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -4038,19 +4042,19 @@
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -4058,10 +4062,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4072,7 +4076,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4084,13 +4088,13 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4141,13 +4145,13 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
@@ -4156,7 +4160,7 @@
         <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>82</v>
@@ -4173,14 +4177,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4199,16 +4203,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4246,19 +4250,19 @@
         <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4270,10 +4274,10 @@
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>82</v>
@@ -4290,10 +4294,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4304,31 +4308,31 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4353,13 +4357,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4377,22 +4381,22 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
@@ -4401,7 +4405,7 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -4409,10 +4413,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4423,7 +4427,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -4432,22 +4436,22 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4472,13 +4476,13 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4496,22 +4500,22 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>82</v>
@@ -4520,7 +4524,7 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4528,10 +4532,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4542,7 +4546,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -4551,22 +4555,22 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4579,7 +4583,7 @@
         <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>82</v>
@@ -4615,22 +4619,22 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
@@ -4639,7 +4643,7 @@
         <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4647,10 +4651,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4658,10 +4662,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4670,19 +4674,19 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4696,7 +4700,7 @@
         <v>82</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>82</v>
@@ -4732,22 +4736,22 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
@@ -4756,7 +4760,7 @@
         <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4764,10 +4768,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4778,7 +4782,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
@@ -4787,19 +4791,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4849,22 +4853,22 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
@@ -4873,7 +4877,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4881,10 +4885,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4895,7 +4899,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4904,19 +4908,19 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4966,22 +4970,22 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -4990,7 +4994,7 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4998,10 +5002,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5012,103 +5016,103 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -5119,10 +5123,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5145,19 +5149,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5206,7 +5210,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5215,13 +5219,13 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
@@ -5230,7 +5234,7 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5238,10 +5242,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5261,22 +5265,22 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5325,7 +5329,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5337,19 +5341,19 @@
         <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5357,10 +5361,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5371,7 +5375,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -5383,13 +5387,13 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5440,13 +5444,13 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
@@ -5455,7 +5459,7 @@
         <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>82</v>
@@ -5472,14 +5476,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5498,16 +5502,16 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5545,19 +5549,19 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5569,10 +5573,10 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -5589,10 +5593,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5603,7 +5607,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5612,19 +5616,19 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5650,13 +5654,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5674,22 +5678,22 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5698,7 +5702,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5706,10 +5710,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5720,7 +5724,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5729,22 +5733,22 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5793,22 +5797,22 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5817,7 +5821,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5825,10 +5829,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5839,31 +5843,31 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5888,13 +5892,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5912,22 +5916,22 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -5936,7 +5940,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5944,10 +5948,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5958,7 +5962,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5967,19 +5971,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6029,22 +6033,22 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -6053,7 +6057,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6061,10 +6065,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6075,7 +6079,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -6084,19 +6088,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6146,22 +6150,22 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6170,7 +6174,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6178,10 +6182,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6192,7 +6196,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6201,22 +6205,22 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6241,13 +6245,13 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
@@ -6265,31 +6269,31 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6297,10 +6301,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6311,7 +6315,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6320,22 +6324,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6384,42 +6388,42 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6430,31 +6434,31 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6503,31 +6507,31 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6535,10 +6539,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6558,22 +6562,22 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6622,7 +6626,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6634,19 +6638,19 @@
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6654,10 +6658,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6668,7 +6672,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6680,13 +6684,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6737,13 +6741,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6752,7 +6756,7 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
@@ -6769,14 +6773,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6795,16 +6799,16 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6842,19 +6846,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6866,10 +6870,10 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
@@ -6886,10 +6890,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6900,31 +6904,31 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6937,7 +6941,7 @@
         <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>82</v>
@@ -6949,13 +6953,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6973,22 +6977,22 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -6997,7 +7001,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7005,10 +7009,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7019,7 +7023,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -7028,19 +7032,19 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7054,7 +7058,7 @@
         <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>82</v>
@@ -7066,13 +7070,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7090,22 +7094,22 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7114,7 +7118,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7122,10 +7126,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7136,7 +7140,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7145,22 +7149,22 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7173,7 +7177,7 @@
         <v>82</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>82</v>
@@ -7209,22 +7213,22 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7233,7 +7237,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7241,10 +7245,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7264,19 +7268,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7290,7 +7294,7 @@
         <v>82</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>82</v>
@@ -7326,7 +7330,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7338,10 +7342,10 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7350,7 +7354,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7358,21 +7362,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7381,19 +7385,19 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7407,7 +7411,7 @@
         <v>82</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>82</v>
@@ -7443,22 +7447,22 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7467,7 +7471,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7475,21 +7479,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7498,19 +7502,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7524,7 +7528,7 @@
         <v>82</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>82</v>
@@ -7560,22 +7564,22 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7584,7 +7588,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7592,21 +7596,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7615,19 +7619,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7677,22 +7681,22 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -7701,7 +7705,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7709,21 +7713,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7732,19 +7736,19 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7758,7 +7762,7 @@
         <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>82</v>
@@ -7794,22 +7798,22 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -7818,7 +7822,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7826,10 +7830,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7840,7 +7844,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7849,19 +7853,19 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7911,22 +7915,22 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
@@ -7935,7 +7939,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7943,10 +7947,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7957,7 +7961,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7966,22 +7970,22 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7994,7 +7998,7 @@
         <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>82</v>
@@ -8030,22 +8034,22 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
@@ -8054,7 +8058,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8062,10 +8066,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8076,7 +8080,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8088,19 +8092,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8125,13 +8129,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8149,31 +8153,31 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8181,10 +8185,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8195,7 +8199,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8207,19 +8211,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8268,31 +8272,31 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8300,10 +8304,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8326,19 +8330,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8387,7 +8391,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8399,19 +8403,19 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8419,10 +8423,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8445,19 +8449,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8506,7 +8510,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8518,13 +8522,13 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>82</v>
@@ -8538,10 +8542,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8552,7 +8556,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8564,13 +8568,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8621,13 +8625,13 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
@@ -8636,7 +8640,7 @@
         <v>82</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8653,14 +8657,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8679,16 +8683,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8738,7 +8742,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8750,10 +8754,10 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8770,14 +8774,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8790,25 +8794,25 @@
         <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8857,7 +8861,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8869,10 +8873,10 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
@@ -8889,10 +8893,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8915,19 +8919,19 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8952,13 +8956,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8976,7 +8980,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8988,19 +8992,19 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9008,10 +9012,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9022,7 +9026,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9034,17 +9038,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9093,31 +9097,31 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9125,10 +9129,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9151,19 +9155,19 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9212,7 +9216,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9224,19 +9228,19 @@
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9244,10 +9248,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9258,7 +9262,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9270,17 +9274,17 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9329,31 +9333,31 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9361,10 +9365,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9375,7 +9379,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9387,17 +9391,17 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9422,13 +9426,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9446,31 +9450,31 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9478,10 +9482,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9492,7 +9496,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9504,19 +9508,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9565,31 +9569,31 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9597,10 +9601,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9611,7 +9615,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9623,13 +9627,13 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9680,25 +9684,25 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
@@ -9712,10 +9716,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9738,19 +9742,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9799,7 +9803,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9811,13 +9815,13 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>82</v>
@@ -9831,10 +9835,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9845,7 +9849,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9857,13 +9861,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9914,13 +9918,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
@@ -9929,7 +9933,7 @@
         <v>82</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -9946,14 +9950,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9972,16 +9976,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10031,7 +10035,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10043,10 +10047,10 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10063,14 +10067,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10083,25 +10087,25 @@
         <v>82</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10150,7 +10154,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10162,10 +10166,10 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10182,10 +10186,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10193,10 +10197,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10208,19 +10212,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10245,13 +10249,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10269,31 +10273,31 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10301,10 +10305,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10315,7 +10319,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10327,19 +10331,19 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10388,31 +10392,31 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10420,14 +10424,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10446,16 +10450,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10505,7 +10509,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10517,19 +10521,19 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10537,10 +10541,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10551,7 +10555,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10560,22 +10564,22 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10624,25 +10628,25 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
@@ -10656,10 +10660,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10676,25 +10680,25 @@
         <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10743,7 +10747,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10755,13 +10759,13 @@
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
@@ -10775,10 +10779,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10789,7 +10793,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10801,13 +10805,13 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10858,13 +10862,13 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -10873,7 +10877,7 @@
         <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
@@ -10890,14 +10894,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10916,16 +10920,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10975,7 +10979,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10987,10 +10991,10 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>82</v>
@@ -11007,14 +11011,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11027,25 +11031,25 @@
         <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11094,7 +11098,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11106,10 +11110,10 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>82</v>
@@ -11126,10 +11130,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11137,10 +11141,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11149,19 +11153,19 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11211,31 +11215,31 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11243,10 +11247,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11254,10 +11258,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11266,19 +11270,19 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11304,13 +11308,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11328,25 +11332,25 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>82</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Information about an individual or animal receiving health care services　医療サービスを受けている個人または動物に関する情報</t>
@@ -2565,13 +2561,13 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2637,10 +2633,10 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>82</v>
@@ -2654,10 +2650,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2668,28 +2664,28 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2739,13 +2735,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2771,10 +2767,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2785,25 +2781,25 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2854,19 +2850,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2886,10 +2882,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2900,28 +2896,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2971,19 +2967,19 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>82</v>
@@ -3003,10 +2999,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3017,7 +3013,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
@@ -3029,16 +3025,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3064,43 +3060,43 @@
         <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3120,21 +3116,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3146,16 +3142,16 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3205,22 +3201,22 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>82</v>
@@ -3237,14 +3233,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3263,16 +3259,16 @@
         <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3322,7 +3318,7 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3337,7 +3333,7 @@
         <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>82</v>
@@ -3354,10 +3350,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3380,13 +3376,13 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3425,17 +3421,17 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3447,7 +3443,7 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3467,13 +3463,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>82</v>
@@ -3495,16 +3491,16 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3554,7 +3550,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3563,10 +3559,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3586,13 +3582,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>82</v>
@@ -3602,7 +3598,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
@@ -3614,16 +3610,16 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3673,7 +3669,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3682,10 +3678,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3705,13 +3701,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>82</v>
@@ -3733,16 +3729,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3792,7 +3788,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3801,10 +3797,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3824,14 +3820,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3844,25 +3840,25 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3911,7 +3907,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3923,10 +3919,10 @@
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>82</v>
@@ -3943,10 +3939,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3954,7 +3950,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>81</v>
@@ -3966,22 +3962,22 @@
         <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -4030,7 +4026,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -4042,19 +4038,19 @@
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -4062,10 +4058,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4076,7 +4072,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4088,13 +4084,13 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4145,22 +4141,22 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>82</v>
@@ -4177,14 +4173,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4203,16 +4199,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4250,19 +4246,19 @@
         <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4274,10 +4270,10 @@
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>82</v>
@@ -4294,10 +4290,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4308,31 +4304,31 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4357,47 +4353,47 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
       </c>
@@ -4405,7 +4401,7 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -4413,10 +4409,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4427,31 +4423,31 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4476,55 +4472,55 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4532,10 +4528,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4546,31 +4542,31 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4583,67 +4579,67 @@
         <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4651,10 +4647,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4662,31 +4658,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4700,67 +4696,67 @@
         <v>82</v>
       </c>
       <c r="T20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="U20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4768,10 +4764,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4782,28 +4778,28 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4853,31 +4849,31 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4885,10 +4881,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4899,28 +4895,28 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4970,31 +4966,31 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5002,10 +4998,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5016,103 +5012,103 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="O23" t="s" s="2">
+      <c r="P23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="P23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q23" t="s" s="2">
+      <c r="R23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -5123,10 +5119,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5149,19 +5145,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5210,7 +5206,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5219,22 +5215,22 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5242,10 +5238,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5265,22 +5261,22 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5329,7 +5325,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5341,19 +5337,19 @@
         <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5361,10 +5357,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5375,7 +5371,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -5387,13 +5383,13 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5444,22 +5440,22 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>82</v>
@@ -5476,14 +5472,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5502,16 +5498,16 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5549,19 +5545,19 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5573,10 +5569,10 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -5593,10 +5589,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5607,28 +5603,28 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5654,55 +5650,55 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI28" t="s" s="2">
+      <c r="AJ28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5710,10 +5706,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5724,31 +5720,31 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5797,31 +5793,31 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5829,10 +5825,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5843,31 +5839,31 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5892,55 +5888,55 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF30" t="s" s="2">
+      <c r="AG30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5948,10 +5944,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5962,28 +5958,28 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6033,22 +6029,22 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -6057,7 +6053,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6065,10 +6061,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6079,28 +6075,28 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6150,23 +6146,23 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
@@ -6174,7 +6170,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6182,10 +6178,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6196,31 +6192,31 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6245,55 +6241,55 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Z33" t="s" s="2">
+      <c r="AA33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6301,10 +6297,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6315,31 +6311,31 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6388,42 +6384,42 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6434,31 +6430,31 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6507,31 +6503,31 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6539,10 +6535,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6562,22 +6558,22 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6626,7 +6622,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6638,19 +6634,19 @@
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6658,10 +6654,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6672,7 +6668,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6684,13 +6680,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6741,22 +6737,22 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
@@ -6773,14 +6769,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6799,16 +6795,16 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N38" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6846,19 +6842,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AC38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6870,10 +6866,10 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
@@ -6890,10 +6886,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6904,31 +6900,31 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6941,67 +6937,67 @@
         <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="U39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Z39" t="s" s="2">
+      <c r="AA39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AA39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF39" t="s" s="2">
+      <c r="AG39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7009,10 +7005,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7023,28 +7019,28 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7058,67 +7054,67 @@
         <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="U40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Z40" t="s" s="2">
+      <c r="AA40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AA40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF40" t="s" s="2">
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7126,10 +7122,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7140,31 +7136,31 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7177,67 +7173,67 @@
         <v>82</v>
       </c>
       <c r="T41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="U41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF41" t="s" s="2">
+      <c r="AG41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7245,10 +7241,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7268,19 +7264,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7294,43 +7290,43 @@
         <v>82</v>
       </c>
       <c r="T42" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7342,19 +7338,19 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7362,42 +7358,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7411,67 +7407,67 @@
         <v>82</v>
       </c>
       <c r="T43" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="U43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF43" t="s" s="2">
+      <c r="AG43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7479,42 +7475,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7528,67 +7524,67 @@
         <v>82</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="U44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF44" t="s" s="2">
+      <c r="AG44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7596,42 +7592,42 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7681,31 +7677,31 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7713,42 +7709,42 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7762,67 +7758,67 @@
         <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="U46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF46" t="s" s="2">
+      <c r="AG46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7830,10 +7826,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7844,28 +7840,28 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7915,31 +7911,31 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7947,10 +7943,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7961,31 +7957,31 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7998,67 +7994,67 @@
         <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="U48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF48" t="s" s="2">
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8066,10 +8062,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8080,7 +8076,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8092,19 +8088,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8129,55 +8125,55 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Z49" t="s" s="2">
+      <c r="AA49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AA49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8185,10 +8181,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8199,7 +8195,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8211,19 +8207,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8272,31 +8268,31 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8304,10 +8300,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8330,19 +8326,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8391,7 +8387,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8403,19 +8399,19 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8423,10 +8419,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8449,19 +8445,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8510,7 +8506,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8522,13 +8518,13 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="AL52" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>82</v>
@@ -8542,10 +8538,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8556,7 +8552,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8568,13 +8564,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8625,22 +8621,22 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8657,14 +8653,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8683,16 +8679,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8742,7 +8738,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8754,10 +8750,10 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8774,14 +8770,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8794,25 +8790,25 @@
         <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="N55" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8861,7 +8857,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8873,10 +8869,10 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
@@ -8893,10 +8889,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8919,19 +8915,19 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8956,14 +8952,14 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8980,7 +8976,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8992,19 +8988,19 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9012,10 +9008,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9026,7 +9022,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9038,17 +9034,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9097,31 +9093,31 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9129,10 +9125,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9155,19 +9151,19 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9216,7 +9212,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9228,19 +9224,19 @@
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9248,10 +9244,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9262,7 +9258,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9274,17 +9270,17 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9333,31 +9329,31 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9365,10 +9361,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9379,7 +9375,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9391,17 +9387,17 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9426,55 +9422,55 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Z60" t="s" s="2">
+      <c r="AA60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AA60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AL60" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9482,10 +9478,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9496,7 +9492,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9508,19 +9504,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9569,31 +9565,31 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9601,10 +9597,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9615,7 +9611,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9627,13 +9623,13 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9684,25 +9680,25 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
@@ -9716,10 +9712,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9742,19 +9738,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9803,7 +9799,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9815,13 +9811,13 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>82</v>
@@ -9835,10 +9831,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9849,7 +9845,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9861,13 +9857,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9918,22 +9914,22 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -9950,14 +9946,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9976,16 +9972,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10035,7 +10031,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10047,10 +10043,10 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10067,14 +10063,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10087,25 +10083,25 @@
         <v>82</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="N66" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10154,7 +10150,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10166,10 +10162,10 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10186,10 +10182,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10197,10 +10193,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10212,19 +10208,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10249,14 +10245,14 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10273,31 +10269,31 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10305,10 +10301,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10319,7 +10315,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10331,19 +10327,19 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10392,31 +10388,31 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10424,14 +10420,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10450,16 +10446,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10509,7 +10505,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10521,19 +10517,19 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10541,10 +10537,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10555,31 +10551,31 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J70" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K70" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10628,25 +10624,25 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
@@ -10660,10 +10656,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10680,25 +10676,25 @@
         <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10747,7 +10743,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10759,13 +10755,13 @@
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
@@ -10779,10 +10775,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10793,7 +10789,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10805,13 +10801,13 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10862,22 +10858,22 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
@@ -10894,14 +10890,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10920,16 +10916,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10979,7 +10975,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10991,10 +10987,10 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>82</v>
@@ -11011,14 +11007,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11031,25 +11027,25 @@
         <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="N74" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11098,7 +11094,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11110,10 +11106,10 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>82</v>
@@ -11130,10 +11126,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11141,31 +11137,31 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J75" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K75" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11215,31 +11211,31 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11247,10 +11243,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11258,31 +11254,31 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K76" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11308,49 +11304,49 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="Z76" t="s" s="2">
+      <c r="AA76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AA76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="AL76" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>82</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="589">
   <si>
     <t>Property</t>
   </si>
@@ -295,13 +295,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -314,16 +314,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -334,13 +334,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -353,19 +353,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -385,13 +385,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -411,13 +411,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -449,8 +449,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.extension:religion</t>
@@ -536,17 +536,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -598,10 +599,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -613,10 +614,10 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -631,7 +632,7 @@
     <t>usual | official | temp | secondary | old (If known) 【詳細参照】</t>
   </si>
   <si>
-    <t>The purpose of this identifier.</t>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
   </si>
   <si>
     <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.  
@@ -643,13 +644,13 @@
 - old : 過去の識別子</t>
   </si>
   <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -671,7 +672,7 @@
     <t>Description of identifier 【詳細参照】</t>
   </si>
   <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.  
@@ -683,13 +684,13 @@
 など</t>
   </si>
   <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -707,7 +708,7 @@
     <t>The namespace for the identifier value 【詳細参照】</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.  
@@ -719,7 +720,7 @@
 なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -740,7 +741,7 @@
     <t>The value that is unique 【詳細参照】</t>
   </si>
   <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processor to be confident that non-case-sensitive processing is safe.
@@ -766,10 +767,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").  
@@ -793,10 +794,10 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
   </si>
   <si>
     <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.
@@ -819,7 +820,7 @@
 </t>
   </si>
   <si>
-    <t>Whether this patient's record is in active use</t>
+    <t>この患者の記録が積極的に使用されているかどうか / Whether this patient's record is in active use</t>
   </si>
   <si>
     <t>Whether this patient record is in active use. 
@@ -840,7 +841,7 @@
 患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要がある。</t>
   </si>
   <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>このリソースは、アクティブな要素の値が提供されていない場合、一般にアクティブであると想定されています / This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -917,16 +918,38 @@
     <t>Patient.telecom.id</t>
   </si>
   <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
     <t>Patient.telecom.extension</t>
   </si>
   <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Patient.telecom.system</t>
   </si>
   <si>
     <t>phone | fax | email | pager | url | sms | other 【詳細参照】</t>
   </si>
   <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+    <t>連絡先用通信フォーム - どの通信システムを使用するには接点が必要ですか。</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size  
@@ -942,7 +965,7 @@
 例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
-    <t>Telecommunications form for contact point.</t>
+    <t>「連絡先のための通信フォーム。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -955,6 +978,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>./scheme</t>
   </si>
   <si>
@@ -964,10 +991,10 @@
     <t>Patient.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+    <t>実際の連絡先の詳細</t>
+  </si>
+  <si>
+    <t>指定されたコミュニケーションシステムに意味がある形式での実際の連絡先の詳細（電話番号または電子メールアドレス）を提供してください。</t>
   </si>
   <si>
     <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.
@@ -992,7 +1019,7 @@
     <t>home | work | temp | old | mobile - purpose of this contact point 【詳細参照】</t>
   </si>
   <si>
-    <t>Identifies the purpose for the contact point.</t>
+    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
     <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.  
@@ -1007,7 +1034,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>Use of contact point.</t>
+    <t>「接点の使用。」(Setten no shiyō.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
@@ -1029,10 +1056,10 @@
 </t>
   </si>
   <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+    <t>「使用の優先順位を指定してください（1が最も優先度が高い）」</t>
+  </si>
+  <si>
+    <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
   </si>
   <si>
     <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.
@@ -1045,10 +1072,10 @@
     <t>Patient.telecom.period</t>
   </si>
   <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
+    <t>「コンタクトポイントが使用されている時間帯」</t>
+  </si>
+  <si>
+    <t>「接点が使用されていた/現在使用中である時間期間」</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
@@ -1065,7 +1092,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other | unknown</t>
+    <t>男性|女性|その他|わからない / male | female | other | unknown</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.
@@ -1080,10 +1107,10 @@
 unknown 不明</t>
   </si>
   <si>
-    <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
-  </si>
-  <si>
-    <t>The gender of a person used for administrative purposes.</t>
+    <t>（少なくとも）名前と生年月日と組み合わせて、個人の識別に必要です。 / Needed for identification of the individual, in combination with (at least) name and birth date.</t>
+  </si>
+  <si>
+    <t>管理目的で使用される人の性別。 / The gender of a person used for administrative purposes.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
@@ -1118,7 +1145,7 @@
 例：1945-08-23</t>
   </si>
   <si>
-    <t>Age of the individual drives many clinical processes.</t>
+    <t>個人の年齢は、多くの臨床プロセスを推進します。 / Age of the individual drives many clinical processes.</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/birthTime</t>
@@ -1155,7 +1182,7 @@
 - deceasedDateTime : 患者の死亡日時</t>
   </si>
   <si>
-    <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
+    <t>患者が亡くなったという事実は、臨床プロセスに影響を与えます。また、人間のコミュニケーションと関係管理において、その人が生きているかどうかを知る必要があります。 / The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
@@ -1187,7 +1214,7 @@
 ※診療文書構造化記述規約等では、streetAddressLine (FHIRではlineに対応) に指定するとなっていた。</t>
   </si>
   <si>
-    <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
+    <t>連絡、請求、報告の要件のために患者の住所を追跡し、識別を支援する必要がある場合があります。 / May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
     <t>addr</t>
@@ -1224,13 +1251,13 @@
 - billing : 請求書、インボイス、領収書などの送付用</t>
   </si>
   <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
+    <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>The use of an address.</t>
+    <t>アドレスの使用。 / The use of an address.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
@@ -1262,7 +1289,7 @@
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal).</t>
+    <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
@@ -1293,7 +1320,7 @@
 例：東京都文京区本郷7-3-1</t>
   </si>
   <si>
-    <t>A renderable, unencoded form.</t>
+    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
     <t>137 Nowhere Street, Erewhon 9132</t>
@@ -1381,7 +1408,7 @@
     <t>District name (aka county) 【詳細参照】</t>
   </si>
   <si>
-    <t>The name of the administrative area (county).</t>
+    <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
@@ -1438,7 +1465,7 @@
     <t>Postal code for area 【詳細参照】</t>
   </si>
   <si>
-    <t>A postal code designating a region defined by the postal service.</t>
+    <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
@@ -1500,7 +1527,7 @@
 期間は、時間間隔（経過時間の測定値）には使用されない。</t>
   </si>
   <si>
-    <t>Allows addresses to be placed in historical context.</t>
+    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
@@ -1540,10 +1567,10 @@
 - UNK : 不明</t>
   </si>
   <si>
-    <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>The domestic partnership status of a person.</t>
+    <t>ほとんどの場合、すべてではないにしても、それをキャプチャします。 / Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>人の国内パートナーシップの状況。 / The domestic partnership status of a person.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/marital-status</t>
@@ -1646,8 +1673,8 @@
 患者について連絡できる人を確認する必要がある。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+pat-1:少なくとも連絡先の詳細または組織への参照を含めるものとする / SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/scopedRole[classCode=CON]</t>
@@ -1666,10 +1693,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1701,7 +1729,7 @@
 状況に応じて、アプローチするのに最適な関係者を決定するために使用される。</t>
   </si>
   <si>
-    <t>The nature of the relationship between a patient and a contact person for that patient.</t>
+    <t>その患者の患者と接触者との関係の性質。 / The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
@@ -1720,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the contact person</t>
+    <t>連絡先に関連付けられた名前 / A name associated with the contact person</t>
   </si>
   <si>
     <t>A name associated with the contact person.
@@ -1740,7 +1768,7 @@
     <t>Patient.contact.telecom</t>
   </si>
   <si>
-    <t>A contact detail for the person</t>
+    <t>人の連絡先の詳細 / A contact detail for the person</t>
   </si>
   <si>
     <t>A contact detail for the person, e.g. a telephone number or an email address.
@@ -1761,7 +1789,7 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
-    <t>Address for the contact person</t>
+    <t>連絡先の住所 / Address for the contact person</t>
   </si>
   <si>
     <t>Address for the contact person.
@@ -1792,7 +1820,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t>Organization that is associated with the contact</t>
+    <t>連絡先に関連する組織 / Organization that is associated with the contact</t>
   </si>
   <si>
     <t>Organization on behalf of which the contact is acting or for which the contact is working.
@@ -1803,7 +1831,7 @@
 連絡先に関連する組織</t>
   </si>
   <si>
-    <t>For guardians or business related contacts, the organization is relevant.</t>
+    <t>保護者またはビジネス関連の連絡先については、組織が関連しています。 / For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
     <t xml:space="preserve">pat-1
@@ -1819,7 +1847,7 @@
     <t>Patient.contact.period</t>
   </si>
   <si>
-    <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
+    <t>この患者に関連するこの連絡先または組織が連絡するのが有効な期間 / The period during which this contact person or organization is valid to be contacted relating to this patient</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient.
@@ -1898,7 +1926,7 @@
     <t>Patient.communication.preferred</t>
   </si>
   <si>
-    <t>Language preference indicator</t>
+    <t>言語選好インジケーター / Language preference indicator</t>
   </si>
   <si>
     <t>Indicates whether or not the patient prefers this language (over other languages he masters up a certain level).
@@ -2016,7 +2044,7 @@
 </t>
   </si>
   <si>
-    <t>The other patient or related person resource that the link refers to</t>
+    <t>リンクが指す他の患者または関連者のリソース / The other patient or related person resource that the link refers to</t>
   </si>
   <si>
     <t>The other patient resource that the link refers to.
@@ -2048,7 +2076,7 @@
 - seealso : このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す</t>
   </si>
   <si>
-    <t>The type of link between this patient resource and another patient resource.</t>
+    <t>この患者リソースと別の患者リソースとの間のリンクのタイプ。 / The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
@@ -2394,7 +2422,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -5390,10 +5418,10 @@
         <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5476,10 +5504,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5505,13 +5533,13 @@
         <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>274</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5552,7 +5580,7 @@
         <v>137</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>82</v>
@@ -5573,7 +5601,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>182</v>
@@ -5593,10 +5621,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5622,13 +5650,13 @@
         <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5657,10 +5685,10 @@
         <v>193</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5678,7 +5706,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5687,13 +5715,13 @@
         <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5702,7 +5730,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5710,10 +5738,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5739,16 +5767,16 @@
         <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5797,7 +5825,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5809,10 +5837,10 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5821,7 +5849,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5829,10 +5857,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5858,16 +5886,16 @@
         <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5895,10 +5923,10 @@
         <v>193</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5916,7 +5944,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5928,10 +5956,10 @@
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -5940,7 +5968,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5948,10 +5976,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5974,16 +6002,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6033,7 +6061,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6045,7 +6073,7 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>182</v>
@@ -6065,10 +6093,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6094,13 +6122,13 @@
         <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6150,7 +6178,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6162,10 +6190,10 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6182,10 +6210,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6211,16 +6239,16 @@
         <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6248,10 +6276,10 @@
         <v>193</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
@@ -6269,7 +6297,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6284,16 +6312,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6301,10 +6329,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6327,19 +6355,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6388,7 +6416,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6403,27 +6431,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6446,19 +6474,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6507,7 +6535,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6522,7 +6550,7 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>182</v>
@@ -6531,7 +6559,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6539,10 +6567,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6565,19 +6593,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6626,7 +6654,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6641,16 +6669,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6658,10 +6686,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6773,10 +6801,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6890,10 +6918,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6919,16 +6947,16 @@
         <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6941,7 +6969,7 @@
         <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>82</v>
@@ -6956,10 +6984,10 @@
         <v>193</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6977,7 +7005,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6992,7 +7020,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -7001,7 +7029,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7009,10 +7037,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7038,13 +7066,13 @@
         <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7058,7 +7086,7 @@
         <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>82</v>
@@ -7073,10 +7101,10 @@
         <v>193</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7094,7 +7122,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7109,7 +7137,7 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7118,7 +7146,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7126,10 +7154,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7155,16 +7183,16 @@
         <v>178</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7177,7 +7205,7 @@
         <v>82</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>82</v>
@@ -7213,7 +7241,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7228,7 +7256,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7237,7 +7265,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7245,10 +7273,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7274,13 +7302,13 @@
         <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7294,7 +7322,7 @@
         <v>82</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>82</v>
@@ -7330,7 +7358,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7345,7 +7373,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7354,7 +7382,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7362,14 +7390,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7391,13 +7419,13 @@
         <v>178</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7411,7 +7439,7 @@
         <v>82</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>82</v>
@@ -7447,7 +7475,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7462,7 +7490,7 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7471,7 +7499,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7479,14 +7507,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7508,13 +7536,13 @@
         <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7528,7 +7556,7 @@
         <v>82</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>82</v>
@@ -7564,7 +7592,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7579,7 +7607,7 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7588,7 +7616,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7596,14 +7624,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7625,13 +7653,13 @@
         <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7681,7 +7709,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7696,7 +7724,7 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -7705,7 +7733,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7713,14 +7741,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7742,13 +7770,13 @@
         <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7762,7 +7790,7 @@
         <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>82</v>
@@ -7798,7 +7826,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7813,7 +7841,7 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -7822,7 +7850,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7830,10 +7858,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7859,13 +7887,13 @@
         <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7915,7 +7943,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7930,7 +7958,7 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
@@ -7939,7 +7967,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7947,10 +7975,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7976,16 +8004,16 @@
         <v>227</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7998,7 +8026,7 @@
         <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>82</v>
@@ -8034,7 +8062,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8049,7 +8077,7 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
@@ -8058,7 +8086,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8066,10 +8094,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8095,16 +8123,16 @@
         <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8132,10 +8160,10 @@
         <v>204</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8153,7 +8181,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8168,16 +8196,16 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8185,10 +8213,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8211,19 +8239,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8272,7 +8300,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8287,7 +8315,7 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>182</v>
@@ -8296,7 +8324,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8304,10 +8332,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8330,19 +8358,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8391,7 +8419,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8406,7 +8434,7 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>182</v>
@@ -8415,7 +8443,7 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8423,10 +8451,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8449,19 +8477,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8510,7 +8538,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8522,10 +8550,10 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>182</v>
@@ -8542,10 +8570,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8657,10 +8685,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8774,14 +8802,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8803,10 +8831,10 @@
         <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>164</v>
@@ -8861,7 +8889,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8893,10 +8921,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8922,16 +8950,16 @@
         <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8959,10 +8987,10 @@
         <v>204</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8980,7 +9008,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8995,7 +9023,7 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>182</v>
@@ -9004,7 +9032,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9012,10 +9040,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9038,17 +9066,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9097,7 +9125,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9112,7 +9140,7 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>182</v>
@@ -9121,7 +9149,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9129,10 +9157,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9158,16 +9186,16 @@
         <v>260</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9216,7 +9244,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9240,7 +9268,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9248,10 +9276,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9274,17 +9302,17 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9333,7 +9361,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9348,7 +9376,7 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>182</v>
@@ -9357,7 +9385,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9365,10 +9393,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9394,14 +9422,14 @@
         <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9429,10 +9457,10 @@
         <v>193</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9450,7 +9478,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9465,7 +9493,7 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>182</v>
@@ -9474,7 +9502,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9482,10 +9510,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9511,16 +9539,16 @@
         <v>235</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9569,7 +9597,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9578,13 +9606,13 @@
         <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>182</v>
@@ -9593,7 +9621,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9601,10 +9629,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9630,10 +9658,10 @@
         <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9684,7 +9712,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9699,7 +9727,7 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>182</v>
@@ -9716,10 +9744,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9742,19 +9770,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9803,7 +9831,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9818,10 +9846,10 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>82</v>
@@ -9835,10 +9863,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9950,10 +9978,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10067,14 +10095,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10096,10 +10124,10 @@
         <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>164</v>
@@ -10154,7 +10182,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10186,10 +10214,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10215,16 +10243,16 @@
         <v>199</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10273,7 +10301,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>89</v>
@@ -10288,16 +10316,16 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10305,10 +10333,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10334,16 +10362,16 @@
         <v>243</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10392,7 +10420,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10407,16 +10435,16 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10424,14 +10452,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10450,16 +10478,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10509,7 +10537,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10524,7 +10552,7 @@
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>182</v>
@@ -10533,7 +10561,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10541,10 +10569,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10570,16 +10598,16 @@
         <v>235</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10628,7 +10656,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10643,10 +10671,10 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
@@ -10660,10 +10688,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10686,19 +10714,19 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10747,7 +10775,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10762,7 +10790,7 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>182</v>
@@ -10779,10 +10807,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10894,10 +10922,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11011,14 +11039,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11040,10 +11068,10 @@
         <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>164</v>
@@ -11098,7 +11126,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11130,10 +11158,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11156,16 +11184,16 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11215,7 +11243,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>89</v>
@@ -11239,7 +11267,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11247,10 +11275,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11276,13 +11304,13 @@
         <v>109</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11311,10 +11339,10 @@
         <v>193</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11332,7 +11360,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>89</v>
@@ -11347,7 +11375,7 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>182</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="544">
   <si>
     <t>Property</t>
   </si>
@@ -600,7 +600,7 @@
     <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
+    <t>urn:oid:1.2.392.100495.20.3.51.11312345670</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -623,9 +623,6 @@
   <si>
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processor to be confident that non-case-sensitive processing is safe.
 患者を一意的に識別するID(例えば、患者IDやカルテ番号など)を設定。</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -1131,9 +1128,6 @@
     <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>アドレスの使用。 / The use of an address.</t>
   </si>
   <si>
@@ -1161,9 +1155,6 @@
 - postal : 郵送先 - 私書箱、気付の住所
 - physical : 訪れることのできる物理的な住所
 - both : postalとphysicalの両方</t>
-  </si>
-  <si>
-    <t>both</t>
   </si>
   <si>
     <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
@@ -1200,7 +1191,7 @@
     <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
+    <t>東京都文京区本郷7-3-1</t>
   </si>
   <si>
     <t>Address.text</t>
@@ -1232,7 +1223,7 @@
 例：藤崎町大字藤崎字西村1-2 春山荘201号室</t>
   </si>
   <si>
-    <t>137 Nowhere Street</t>
+    <t>本郷7-3-1</t>
   </si>
   <si>
     <t>Address.line</t>
@@ -1263,7 +1254,7 @@
 【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
   </si>
   <si>
-    <t>Erewhon</t>
+    <t>文京区</t>
   </si>
   <si>
     <t>Address.city</t>
@@ -1290,9 +1281,6 @@
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
 【JP Core仕様】日本の住所では使用しない。</t>
-  </si>
-  <si>
-    <t>Madison</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -1353,7 +1341,7 @@
 郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
   </si>
   <si>
-    <t>9132</t>
+    <t>113-8655</t>
   </si>
   <si>
     <t>Address.postalCode</t>
@@ -1408,12 +1396,6 @@
   </si>
   <si>
     <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
   </si>
   <si>
     <t>Address.period</t>
@@ -2296,7 +2278,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="43.7265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -4482,43 +4464,43 @@
         <v>41</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4533,16 +4515,16 @@
         <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4550,10 +4532,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4576,16 +4558,16 @@
         <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4635,7 +4617,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4650,16 +4632,16 @@
         <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4667,10 +4649,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4693,16 +4675,16 @@
         <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4752,7 +4734,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4767,16 +4749,16 @@
         <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4784,10 +4766,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4810,26 +4792,26 @@
         <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="O22" t="s" s="2">
+      <c r="P22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="R22" t="s" s="2">
         <v>41</v>
       </c>
@@ -4873,7 +4855,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4888,13 +4870,13 @@
         <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4905,10 +4887,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4931,19 +4913,19 @@
         <v>41</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4992,7 +4974,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -5007,16 +4989,16 @@
         <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -5024,10 +5006,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5050,19 +5032,19 @@
         <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -5111,7 +5093,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -5126,16 +5108,16 @@
         <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -5143,10 +5125,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5172,10 +5154,10 @@
         <v>137</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5258,10 +5240,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5287,13 +5269,13 @@
         <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5334,7 +5316,7 @@
         <v>96</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>41</v>
@@ -5355,7 +5337,7 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>141</v>
@@ -5375,10 +5357,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5404,13 +5386,13 @@
         <v>68</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5439,28 +5421,28 @@
         <v>152</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5469,22 +5451,22 @@
         <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
@@ -5492,10 +5474,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5521,16 +5503,16 @@
         <v>137</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5579,7 +5561,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5591,19 +5573,19 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5611,10 +5593,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5640,16 +5622,16 @@
         <v>68</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -5677,28 +5659,28 @@
         <v>152</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5710,19 +5692,19 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5730,10 +5712,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5756,16 +5738,16 @@
         <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5815,7 +5797,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5827,7 +5809,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>141</v>
@@ -5847,10 +5829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5873,16 +5855,16 @@
         <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5932,7 +5914,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5944,10 +5926,10 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -5964,10 +5946,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5993,16 +5975,16 @@
         <v>68</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -6030,11 +6012,11 @@
         <v>152</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>41</v>
       </c>
@@ -6051,7 +6033,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -6066,16 +6048,16 @@
         <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -6083,10 +6065,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6109,19 +6091,19 @@
         <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -6170,7 +6152,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -6185,27 +6167,27 @@
         <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6228,19 +6210,19 @@
         <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -6289,7 +6271,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6304,7 +6286,7 @@
         <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>141</v>
@@ -6313,7 +6295,7 @@
         <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6321,10 +6303,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6347,19 +6329,19 @@
         <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6408,7 +6390,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6423,16 +6405,16 @@
         <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6440,10 +6422,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6555,10 +6537,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6672,10 +6654,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6701,16 +6683,16 @@
         <v>68</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6723,7 +6705,7 @@
         <v>41</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>41</v>
@@ -6738,28 +6720,28 @@
         <v>152</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6774,7 +6756,7 @@
         <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -6783,7 +6765,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6791,10 +6773,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6820,13 +6802,13 @@
         <v>68</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6840,7 +6822,7 @@
         <v>41</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>41</v>
@@ -6855,10 +6837,10 @@
         <v>152</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
@@ -6876,7 +6858,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6891,7 +6873,7 @@
         <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
@@ -6900,7 +6882,7 @@
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6908,10 +6890,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6937,16 +6919,16 @@
         <v>137</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6959,7 +6941,7 @@
         <v>41</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>41</v>
@@ -6995,7 +6977,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -7010,7 +6992,7 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
@@ -7019,7 +7001,7 @@
         <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -7027,10 +7009,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7056,13 +7038,13 @@
         <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7076,7 +7058,7 @@
         <v>41</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>41</v>
@@ -7112,7 +7094,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7127,7 +7109,7 @@
         <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -7136,7 +7118,7 @@
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -7144,14 +7126,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7173,13 +7155,13 @@
         <v>137</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7193,7 +7175,7 @@
         <v>41</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>41</v>
@@ -7229,7 +7211,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7244,7 +7226,7 @@
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -7253,7 +7235,7 @@
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7261,14 +7243,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7290,13 +7272,13 @@
         <v>137</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7310,7 +7292,7 @@
         <v>41</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>41</v>
@@ -7346,7 +7328,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7361,7 +7343,7 @@
         <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -7370,7 +7352,7 @@
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7378,14 +7360,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7407,13 +7389,13 @@
         <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7427,7 +7409,7 @@
         <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>41</v>
@@ -7463,7 +7445,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7478,7 +7460,7 @@
         <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -7487,7 +7469,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7495,14 +7477,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7524,13 +7506,13 @@
         <v>137</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7544,7 +7526,7 @@
         <v>41</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>41</v>
@@ -7580,7 +7562,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7595,7 +7577,7 @@
         <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -7604,7 +7586,7 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7612,10 +7594,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7641,13 +7623,13 @@
         <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7697,7 +7679,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7712,7 +7694,7 @@
         <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
@@ -7721,7 +7703,7 @@
         <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7729,10 +7711,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7755,19 +7737,19 @@
         <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7780,7 +7762,7 @@
         <v>41</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>41</v>
@@ -7816,7 +7798,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7831,7 +7813,7 @@
         <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -7840,7 +7822,7 @@
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7848,10 +7830,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7877,16 +7859,16 @@
         <v>158</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7914,10 +7896,10 @@
         <v>163</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
@@ -7935,7 +7917,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7950,16 +7932,16 @@
         <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7967,10 +7949,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7993,19 +7975,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -8054,7 +8036,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -8069,7 +8051,7 @@
         <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>141</v>
@@ -8078,7 +8060,7 @@
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -8086,10 +8068,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8112,19 +8094,19 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8173,7 +8155,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8188,7 +8170,7 @@
         <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>141</v>
@@ -8197,7 +8179,7 @@
         <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8205,10 +8187,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8231,19 +8213,19 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8292,7 +8274,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8304,10 +8286,10 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>141</v>
@@ -8324,10 +8306,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8439,10 +8421,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8556,14 +8538,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8585,10 +8567,10 @@
         <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>123</v>
@@ -8643,7 +8625,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8675,10 +8657,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8704,16 +8686,16 @@
         <v>158</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8741,10 +8723,10 @@
         <v>163</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8762,7 +8744,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8777,7 +8759,7 @@
         <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>141</v>
@@ -8786,7 +8768,7 @@
         <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8794,10 +8776,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8820,17 +8802,17 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8879,7 +8861,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8894,7 +8876,7 @@
         <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>141</v>
@@ -8903,7 +8885,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8911,10 +8893,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8937,19 +8919,19 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8998,7 +8980,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -9013,7 +8995,7 @@
         <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>141</v>
@@ -9022,7 +9004,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -9030,10 +9012,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9056,17 +9038,17 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -9115,7 +9097,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9130,7 +9112,7 @@
         <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>141</v>
@@ -9139,7 +9121,7 @@
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9147,10 +9129,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9176,14 +9158,14 @@
         <v>68</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -9211,11 +9193,11 @@
         <v>152</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>41</v>
       </c>
@@ -9232,7 +9214,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9247,7 +9229,7 @@
         <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>141</v>
@@ -9256,7 +9238,7 @@
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9264,10 +9246,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9290,19 +9272,19 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9351,7 +9333,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9360,13 +9342,13 @@
         <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>141</v>
@@ -9375,7 +9357,7 @@
         <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9383,10 +9365,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9409,13 +9391,13 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9466,7 +9448,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9481,7 +9463,7 @@
         <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>141</v>
@@ -9498,10 +9480,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9524,19 +9506,19 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9585,7 +9567,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9600,10 +9582,10 @@
         <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -9617,10 +9599,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9732,10 +9714,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9849,14 +9831,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9878,10 +9860,10 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>123</v>
@@ -9936,7 +9918,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9968,10 +9950,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9997,16 +9979,16 @@
         <v>158</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -10055,7 +10037,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>48</v>
@@ -10070,16 +10052,16 @@
         <v>60</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -10087,10 +10069,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10113,19 +10095,19 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -10174,7 +10156,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10189,16 +10171,16 @@
         <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10206,14 +10188,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10232,16 +10214,16 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10291,7 +10273,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10306,7 +10288,7 @@
         <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>141</v>
@@ -10315,7 +10297,7 @@
         <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10323,10 +10305,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10349,19 +10331,19 @@
         <v>49</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10410,7 +10392,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10425,10 +10407,10 @@
         <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -10442,10 +10424,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10468,19 +10450,19 @@
         <v>49</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10529,7 +10511,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10544,7 +10526,7 @@
         <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>141</v>
@@ -10561,10 +10543,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10676,10 +10658,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10793,14 +10775,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10822,10 +10804,10 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>123</v>
@@ -10880,7 +10862,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10912,10 +10894,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10938,16 +10920,16 @@
         <v>49</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10997,7 +10979,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>48</v>
@@ -11021,7 +11003,7 @@
         <v>41</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -11029,10 +11011,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11058,13 +11040,13 @@
         <v>68</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11093,10 +11075,10 @@
         <v>152</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>41</v>
@@ -11114,7 +11096,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>48</v>
@@ -11129,7 +11111,7 @@
         <v>60</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>141</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -151,6 +151,10 @@
   <si>
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.
 ケアまたはその他の健康関連サービスを受けている個人または動物に関する人口統計およびその他の管理情報。</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2398,13 +2402,13 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>41</v>
@@ -2418,10 +2422,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2432,7 +2436,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -2441,19 +2445,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2503,13 +2507,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2535,10 +2539,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2549,7 +2553,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2558,16 +2562,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2618,19 +2622,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2650,10 +2654,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2664,28 +2668,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2735,19 +2739,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2767,10 +2771,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2781,7 +2785,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2793,16 +2797,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2828,13 +2832,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2852,19 +2856,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2884,21 +2888,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2910,16 +2914,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2969,22 +2973,22 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>41</v>
@@ -3001,14 +3005,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3027,16 +3031,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3086,7 +3090,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -3101,7 +3105,7 @@
         <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>41</v>
@@ -3118,10 +3122,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3144,13 +3148,13 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3189,17 +3193,17 @@
         <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3211,7 +3215,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -3231,13 +3235,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>41</v>
@@ -3259,16 +3263,16 @@
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3318,7 +3322,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3327,10 +3331,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3350,13 +3354,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>41</v>
@@ -3366,7 +3370,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>41</v>
@@ -3378,16 +3382,16 @@
         <v>41</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3437,7 +3441,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3446,10 +3450,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>41</v>
@@ -3469,13 +3473,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>41</v>
@@ -3497,16 +3501,16 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3556,7 +3560,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3565,10 +3569,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>41</v>
@@ -3588,14 +3592,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3608,25 +3612,25 @@
         <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>41</v>
@@ -3675,7 +3679,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3687,10 +3691,10 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>41</v>
@@ -3707,10 +3711,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3718,7 +3722,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -3730,22 +3734,22 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3794,7 +3798,7 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3806,19 +3810,19 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>41</v>
@@ -3826,10 +3830,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3840,7 +3844,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3852,13 +3856,13 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3909,13 +3913,13 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
@@ -3924,7 +3928,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -3941,14 +3945,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3967,16 +3971,16 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4014,19 +4018,19 @@
         <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -4038,10 +4042,10 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -4058,10 +4062,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4072,31 +4076,31 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -4121,13 +4125,13 @@
         <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>41</v>
@@ -4145,22 +4149,22 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -4169,7 +4173,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -4177,10 +4181,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4191,7 +4195,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -4200,22 +4204,22 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -4240,13 +4244,13 @@
         <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>41</v>
@@ -4264,22 +4268,22 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -4288,7 +4292,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4296,10 +4300,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4310,7 +4314,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -4319,22 +4323,22 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -4347,7 +4351,7 @@
         <v>41</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>41</v>
@@ -4383,22 +4387,22 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -4407,7 +4411,7 @@
         <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4415,10 +4419,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4426,10 +4430,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -4438,19 +4442,19 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4500,22 +4504,22 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -4524,7 +4528,7 @@
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4532,10 +4536,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4546,7 +4550,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -4555,19 +4559,19 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4617,22 +4621,22 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -4641,7 +4645,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4649,10 +4653,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4663,7 +4667,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4672,19 +4676,19 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4734,22 +4738,22 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -4758,7 +4762,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4766,10 +4770,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4780,103 +4784,103 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="J22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="AI22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4887,10 +4891,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4913,19 +4917,19 @@
         <v>41</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4974,7 +4978,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4983,13 +4987,13 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -4998,7 +5002,7 @@
         <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -5006,10 +5010,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5029,22 +5033,22 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -5093,7 +5097,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -5105,19 +5109,19 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -5125,10 +5129,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5139,7 +5143,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -5151,13 +5155,13 @@
         <v>41</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5208,13 +5212,13 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
@@ -5223,7 +5227,7 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -5240,14 +5244,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5266,16 +5270,16 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5313,19 +5317,19 @@
         <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5337,10 +5341,10 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -5357,10 +5361,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5371,7 +5375,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -5380,19 +5384,19 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5418,13 +5422,13 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -5442,22 +5446,22 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -5466,7 +5470,7 @@
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
@@ -5474,10 +5478,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5488,7 +5492,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -5497,22 +5501,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5561,22 +5565,22 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -5585,7 +5589,7 @@
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5593,10 +5597,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5607,31 +5611,31 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -5656,13 +5660,13 @@
         <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>41</v>
@@ -5680,22 +5684,22 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -5704,7 +5708,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5712,10 +5716,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5726,7 +5730,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -5735,19 +5739,19 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5797,22 +5801,22 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -5821,7 +5825,7 @@
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5829,10 +5833,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5843,7 +5847,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5852,19 +5856,19 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5914,22 +5918,22 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -5938,7 +5942,7 @@
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5946,10 +5950,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5960,7 +5964,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5969,22 +5973,22 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -6009,13 +6013,13 @@
         <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>41</v>
@@ -6033,31 +6037,31 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -6065,10 +6069,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6079,7 +6083,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -6088,22 +6092,22 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -6152,42 +6156,42 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6198,31 +6202,31 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -6271,31 +6275,31 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6303,10 +6307,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6326,22 +6330,22 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6390,7 +6394,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6402,19 +6406,19 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6422,10 +6426,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6436,7 +6440,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -6448,13 +6452,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6505,13 +6509,13 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
@@ -6520,7 +6524,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -6537,14 +6541,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6563,16 +6567,16 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6610,19 +6614,19 @@
         <v>41</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6634,10 +6638,10 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -6654,10 +6658,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6668,31 +6672,31 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6717,13 +6721,13 @@
         <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>41</v>
@@ -6741,22 +6745,22 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -6765,7 +6769,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6773,10 +6777,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6787,7 +6791,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6796,19 +6800,19 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6834,13 +6838,13 @@
         <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
@@ -6858,22 +6862,22 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
@@ -6882,7 +6886,7 @@
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6890,10 +6894,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6904,7 +6908,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6913,22 +6917,22 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6941,7 +6945,7 @@
         <v>41</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>41</v>
@@ -6977,22 +6981,22 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
@@ -7001,7 +7005,7 @@
         <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -7009,10 +7013,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7032,19 +7036,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7058,7 +7062,7 @@
         <v>41</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>41</v>
@@ -7094,7 +7098,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7106,10 +7110,10 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -7118,7 +7122,7 @@
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -7126,21 +7130,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -7149,19 +7153,19 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7175,7 +7179,7 @@
         <v>41</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>41</v>
@@ -7211,22 +7215,22 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -7235,7 +7239,7 @@
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7243,21 +7247,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -7266,19 +7270,19 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7328,22 +7332,22 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -7352,7 +7356,7 @@
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7360,21 +7364,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -7383,19 +7387,19 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7409,7 +7413,7 @@
         <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>41</v>
@@ -7445,22 +7449,22 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -7469,7 +7473,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7477,21 +7481,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -7500,19 +7504,19 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7526,7 +7530,7 @@
         <v>41</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>41</v>
@@ -7562,22 +7566,22 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -7586,7 +7590,7 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7594,10 +7598,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7608,7 +7612,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
@@ -7617,19 +7621,19 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7679,22 +7683,22 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
@@ -7703,7 +7707,7 @@
         <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7711,10 +7715,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7725,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -7734,22 +7738,22 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7798,22 +7802,22 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -7822,7 +7826,7 @@
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7830,10 +7834,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7844,7 +7848,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7856,19 +7860,19 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7893,13 +7897,13 @@
         <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
@@ -7917,31 +7921,31 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7949,10 +7953,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7963,7 +7967,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -7975,19 +7979,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -8036,31 +8040,31 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -8068,10 +8072,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8094,19 +8098,19 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8155,7 +8159,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8167,19 +8171,19 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8187,10 +8191,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8213,19 +8217,19 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8274,7 +8278,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8286,13 +8290,13 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -8306,10 +8310,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8320,7 +8324,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -8332,13 +8336,13 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8389,13 +8393,13 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
@@ -8404,7 +8408,7 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
@@ -8421,14 +8425,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8447,16 +8451,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8506,7 +8510,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8518,10 +8522,10 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
@@ -8538,14 +8542,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8558,25 +8562,25 @@
         <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8625,7 +8629,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8637,10 +8641,10 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
@@ -8657,10 +8661,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8683,19 +8687,19 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8720,13 +8724,13 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8744,7 +8748,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8756,19 +8760,19 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8776,10 +8780,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8790,7 +8794,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8802,17 +8806,17 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8861,31 +8865,31 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8893,10 +8897,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8919,19 +8923,19 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8980,7 +8984,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8992,19 +8996,19 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -9012,10 +9016,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9026,7 +9030,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>41</v>
@@ -9038,17 +9042,17 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -9097,31 +9101,31 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9129,10 +9133,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9143,7 +9147,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -9155,17 +9159,17 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -9190,13 +9194,13 @@
         <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>41</v>
@@ -9214,31 +9218,31 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9246,10 +9250,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9260,7 +9264,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -9272,19 +9276,19 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9333,31 +9337,31 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9365,10 +9369,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9379,7 +9383,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -9391,13 +9395,13 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9448,25 +9452,25 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -9480,10 +9484,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9506,19 +9510,19 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9567,7 +9571,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9579,13 +9583,13 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -9599,10 +9603,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9613,7 +9617,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -9625,13 +9629,13 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9682,13 +9686,13 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>41</v>
@@ -9697,7 +9701,7 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>41</v>
@@ -9714,14 +9718,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9740,16 +9744,16 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9799,7 +9803,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9811,10 +9815,10 @@
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
@@ -9831,14 +9835,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9851,25 +9855,25 @@
         <v>41</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9918,7 +9922,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9930,10 +9934,10 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
@@ -9950,10 +9954,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9961,10 +9965,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>41</v>
@@ -9976,19 +9980,19 @@
         <v>41</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -10013,13 +10017,13 @@
         <v>41</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>41</v>
@@ -10037,31 +10041,31 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -10069,10 +10073,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10083,7 +10087,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>41</v>
@@ -10095,19 +10099,19 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -10156,31 +10160,31 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10188,14 +10192,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10214,16 +10218,16 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10273,7 +10277,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10285,19 +10289,19 @@
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10305,10 +10309,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10319,7 +10323,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -10328,22 +10332,22 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10392,25 +10396,25 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -10424,10 +10428,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10444,25 +10448,25 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10511,7 +10515,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10523,13 +10527,13 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -10543,10 +10547,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10557,7 +10561,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -10569,13 +10573,13 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10626,13 +10630,13 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
@@ -10641,7 +10645,7 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
@@ -10658,14 +10662,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10684,16 +10688,16 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10743,7 +10747,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10755,10 +10759,10 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
@@ -10775,14 +10779,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10795,25 +10799,25 @@
         <v>41</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -10862,7 +10866,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10874,10 +10878,10 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>41</v>
@@ -10894,10 +10898,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10905,10 +10909,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
@@ -10917,19 +10921,19 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10979,31 +10983,31 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -11011,10 +11015,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11022,10 +11026,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -11034,19 +11038,19 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11072,13 +11076,13 @@
         <v>41</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>41</v>
@@ -11096,25 +11100,25 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -146,11 +146,10 @@
 </t>
   </si>
   <si>
-    <t>Information about an individual or animal receiving health care services　医療サービスを受けている個人または動物に関する情報</t>
-  </si>
-  <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.
-ケアまたはその他の健康関連サービスを受けている個人または動物に関する人口統計およびその他の管理情報。</t>
+    <t>医療サービスを受けている個人または動物に関する情報</t>
+  </si>
+  <si>
+    <t>ケアまたはその他の健康関連サービスを受けている個人または動物に関する人口統計およびその他の管理情報。</t>
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -347,8 +346,7 @@
     <t>患者の宗教 【詳細参照】</t>
   </si>
   <si>
-    <t>The patient's professed religious affiliations.
-患者の公言された宗教的所属。</t>
+    <t>患者の公言された宗教的所属。</t>
   </si>
   <si>
     <t>患者の宗教をValueSet(v3.ReligiousAffiliation)より選択する。輸血や食事で考慮が必要な場合がある。 
@@ -375,8 +373,7 @@
     <t>患者の生誕地 【詳細参照】</t>
   </si>
   <si>
-    <t>The registered place of birth of the patient. A system may use the address.text if they don't store the birthPlace address in discrete elements.
-患者の登録された出生地。システムは、birthPlaceアドレスを個別の要素に格納しない場合、address.textを使用してよい。</t>
+    <t>患者の登録された出生地。システムは、birthPlaceアドレスを個別の要素に格納しない場合、address.textを使用してよい。</t>
   </si>
   <si>
     <t>患者の生誕地をAddress型で表現する</t>
@@ -395,8 +392,7 @@
     <t>患者の人種 【詳細参照】</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.
-オプションの拡張要素-すべてのリソースで使用できる。</t>
+    <t>オプションの拡張要素-すべてのリソースで使用できる。</t>
   </si>
   <si>
     <t>患者の人種をValueSet(Race)より選択する。  
@@ -441,11 +437,10 @@
 </t>
   </si>
   <si>
-    <t>An identifier for this patient 【詳細参照】</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.
-この患者の識別子。</t>
+    <t>患者の識別子【詳細参照】</t>
+  </si>
+  <si>
+    <t>患者の識別子。</t>
   </si>
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。  
@@ -457,8 +452,7 @@
 なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
-    <t>Patients are almost always assigned specific numerical identifiers.
-ほとんどの場合、患者には特定の数値識別子が割り当てられる。</t>
+    <t>ほとんどの場合、患者には特定の数値識別子が割り当てられる。</t>
   </si>
   <si>
     <t>id</t>
@@ -516,13 +510,7 @@
     <t>この識別子の目的。 / The purpose of this identifier.</t>
   </si>
   <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.  
-IDの種別をValueSet(IdentifierUse)より選択する。  
-- usual : 一般
-- official : 公式（マイナンバーなど、最も信頼できると見なされる場合に使用）
-- temp : 一時的
-- secondary : 二次利用
-- old : 過去の識別子</t>
+    <t>IDの種別をValueSet(IdentifierUse)より選択する。  - usual : 一般- official : 公式（マイナンバーなど、最も信頼できると見なされる場合に使用）- temp : 一時的　- secondary : 二次利用　- old : 過去の識別子</t>
   </si>
   <si>
     <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
@@ -550,19 +538,13 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier 【詳細参照】</t>
+    <t>識別子の種別 【詳細参照】</t>
   </si>
   <si>
     <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.  
-IDの種別をValueSet(Identifier Type Codes)より選択する。
-- DL : 運転免許証番号
-- PPN : パスポート番号
-- BRN : 血統登録番号
-- MR : カルテ番号
-など</t>
+    <t>IDの種別をValueSet(Identifier Type Codes)より選択する。　- DL : 運転免許証番号　- PPN : パスポート番号　- BRN : 血統登録番号　- MR : カルテ番号、など</t>
   </si>
   <si>
     <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -592,13 +574,7 @@
     <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.  
-Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
-医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細はOrganizationプロファイルの医療機関コード１０桁の説明を参照すること。  
-```
-例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
-```
-なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
+    <t>Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。 医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細はOrganizationプロファイルの医療機関コード１０桁の説明を参照すること。  ```例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」```　なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
     <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
@@ -619,14 +595,13 @@
     <t>Patient.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique 【詳細参照】</t>
+    <t>識別子のvalueは一意である必要がある。 【詳細参照】</t>
   </si>
   <si>
     <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processor to be confident that non-case-sensitive processing is safe.
-患者を一意的に識別するID(例えば、患者IDやカルテ番号など)を設定。</t>
+    <t>患者を一意的に識別するID(例えば、患者IDやカルテ番号など)を設定。</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -651,9 +626,7 @@
     <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").  
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
-IDが使われていた/使われている期間。</t>
+    <t>IDが使われていた/使われている期間。</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -678,8 +651,7 @@
     <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
   </si>
   <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.
-IDを発行した組織（テキストのみでも可）</t>
+    <t>IDを発行した組織（テキストのみでも可）</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -701,22 +673,15 @@
     <t>この患者の記録が積極的に使用されているかどうか / Whether this patient's record is in active use</t>
   </si>
   <si>
-    <t>Whether this patient record is in active use. 
-Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
-It is often used to filter patient lists to exclude inactive patients
-Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.  
-この患者記録がアクティブに使用されているかどうか。多くのシステムは、このプロパティを使用して、組織のビジネスルールに基づいて一定期間見られなかった患者など、非現在の患者としてマークする。  
+    <t>この患者記録がアクティブに使用されているかどうか。多くのシステムは、このプロパティを使用して、組織のビジネスルールに基づいて一定期間見られなかった患者など、非現在の患者としてマークする。  
 非アクティブな患者を除外するために患者リストをフィルタリングするためによく使用される。  
 死亡した患者は、同じ理由で不活性とマークされる場合があるが、死後しばらくは活性である場合がある。</t>
   </si>
   <si>
-    <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.  
-この患者の記録が有効かどうか  
-誤って患者を登録して削除したい場合などにfalseにする</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a patient record as not to be used because it was created in error.  
-患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要がある。</t>
+    <t>この患者の記録が有効かどうか。誤って患者を登録して削除したい場合などにfalseにする</t>
+  </si>
+  <si>
+    <t>患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要がある。</t>
   </si>
   <si>
     <t>このリソースは、アクティブな要素の値が提供されていない場合、一般にアクティブであると想定されています / This resource is generally assumed to be active if no value is provided for the active element</t>
@@ -735,15 +700,13 @@
 </t>
   </si>
   <si>
-    <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
-  </si>
-  <si>
-    <t>A name associated with the individual.
-個人に関連付けられた名前。</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.  
-患者は、用途や適用期間が異なる複数の名前を持つ場合がある。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」を使用する。  
+    <t>人の名前情報、その一部分と使い方</t>
+  </si>
+  <si>
+    <t>個人に関連付けられた名前。</t>
+  </si>
+  <si>
+    <t>患者は、用途や適用期間が異なる複数の名前を持つ場合がある。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」を使用する。  
 FHIRデータ型仕様に従って、以下の内容を採用する。
 - 姓名分割できる場合は、名前パート HumanName.familyとHumanName.givenに指定する
 - ミドルネームがある場合は、given に指定する（givenは繰り返し可能）  
@@ -752,8 +715,7 @@
 - 漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する</t>
   </si>
   <si>
-    <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.
-複数の名前で患者を追跡できる必要がある。例としては、正式名とパートナー名がある。</t>
+    <t>複数の名前で患者を追跡できる必要がある。例としては、正式名とパートナー名がある。</t>
   </si>
   <si>
     <t>EN (actually, PN)</t>
@@ -769,19 +731,16 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the individual　個人に連絡するための連絡先の詳細</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.
-個人に連絡するための連絡先の詳細（電話番号や電子メールアドレスなど）。</t>
-  </si>
-  <si>
-    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).
-患者は、さまざまな用途または適用期間違いで連絡先を複数の方法を持っている場合がある。緊急時連絡先として、また身元確認を支援するためのオプションが必要になる場合がある。患者当人に直接連絡できない場合があるが、患者を代理できる別の関係者（自宅の電話、またはペットの所有者の電話）を設定する場合もある。</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.
-人々は、電話、電子メールなどの何らかの方法で彼らに連絡する（プライマリ）方法を持っている。</t>
+    <t>個人に連絡するための連絡先の詳細</t>
+  </si>
+  <si>
+    <t>個人に連絡するための連絡先の詳細（電話番号や電子メールアドレスなど）。</t>
+  </si>
+  <si>
+    <t>患者は、さまざまな用途または適用期間違いで連絡先を複数の方法を持っている場合がある。緊急時連絡先として、また身元確認を支援するためのオプションが必要になる場合がある。患者当人に直接連絡できない場合があるが、患者を代理できる別の関係者（自宅の電話、またはペットの所有者の電話）を設定する場合もある。</t>
+  </si>
+  <si>
+    <t>人々は、電話、電子メールなどの何らかの方法で彼らに連絡する（プライマリ）方法を持っている。</t>
   </si>
   <si>
     <t>telecom</t>
@@ -830,17 +789,7 @@
     <t>連絡先用通信フォーム - どの通信システムを使用するには接点が必要ですか。</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size  
-患者の連絡先の種別をValueSet(ContactPointSystem)より選択する。  
-- phone : 電話
-- fax : Fax 
-- email : 電子メール
-- pager : ポケットベル
-- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先  
-これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。
-- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  
-- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先  
-例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
+    <t>患者の連絡先の種別をValueSet(ContactPointSystem)より選択する。  　- phone : 電話　- fax : Fax 　- email : 電子メール　- pager : ポケットベル　- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。　- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  　- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
     <t>「連絡先のための通信フォーム。」</t>
@@ -875,8 +824,7 @@
     <t>指定されたコミュニケーションシステムに意味がある形式での実際の連絡先の詳細（電話番号または電子メールアドレス）を提供してください。</t>
   </si>
   <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.
-連絡先の番号やメールアドレス</t>
+    <t>連絡先の番号やメールアドレス</t>
   </si>
   <si>
     <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
@@ -894,19 +842,18 @@
     <t>Patient.telecom.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point 【詳細参照】</t>
+    <t>home | work | temp | old | mobile - 連絡先の用途等 【詳細参照】</t>
   </si>
   <si>
     <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.  
-患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  
-- home : 自宅
-- work : 職場
-- temp : 一時的
-- old : 以前の
-- mobile : モバイル機器</t>
+    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。   一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。
+　- home : 自宅
+　- work : 職場
+　- temp : 一時的
+　- old : 以前の
+　- mobile : モバイル機器</t>
   </si>
   <si>
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
@@ -940,8 +887,7 @@
     <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
   </si>
   <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.
-連絡先の使用順序（1 = 最高）</t>
+    <t>連絡先の使用順序（1 = 最高）</t>
   </si>
   <si>
     <t>ContactPoint.rank</t>
@@ -956,9 +902,7 @@
     <t>「接点が使用されていた/現在使用中である時間期間」</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).  
-連絡先が使用されていた/されている期間</t>
+    <t>連絡先が使用されていた/されている期間</t>
   </si>
   <si>
     <t>ContactPoint.period</t>
@@ -973,12 +917,10 @@
     <t>男性|女性|その他|わからない / male | female | other | unknown</t>
   </si>
   <si>
-    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.
-管理上の性別-患者が管理および記録管理の目的で持つと見なされる性別。</t>
-  </si>
-  <si>
-    <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.
-患者の性別をValueSet(AdministrativeGender)より選択する。
+    <t>管理上の性別-患者が管理および記録管理の目的で持つと見なされる性別。</t>
+  </si>
+  <si>
+    <t>患者の性別をValueSet(AdministrativeGender)より選択する。
 male 男性
 female 女性
 other その他
@@ -1010,15 +952,10 @@
 </t>
   </si>
   <si>
-    <t>The date of birth for the individual　個人の生年月日</t>
-  </si>
-  <si>
-    <t>The date of birth for the individual.
-個人の生年月日</t>
-  </si>
-  <si>
-    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).  
-実際の生年月日が不明な場合は、少なくとも推定年を推測として提供する必要があり、時間が必要な場合（出産/乳児ケアシステムなど）に使用できる標準の拡張extension「patient-birthTime」がある。  
+    <t>個人の生年月日</t>
+  </si>
+  <si>
+    <t>実際の生年月日が不明な場合は、少なくとも推定年を推測として提供する必要があり、時間が必要な場合（出産/乳児ケアシステムなど）に使用できる標準の拡張extension「patient-birthTime」がある。  
 患者の生年月日をYYYY-MM-DD形式で入れる。  
 例：1945-08-23</t>
   </si>
@@ -1045,19 +982,16 @@
 dateTime</t>
   </si>
   <si>
-    <t>Indicates if the individual is deceased or not　個人が死亡しているかどうかを示す</t>
-  </si>
-  <si>
-    <t>Indicates if the individual is deceased or not.
-個人が死亡しているかどうかを示す。</t>
-  </si>
-  <si>
-    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.  
-値がない場合は、個人が死亡したかどうかについてのステートメントがないことを意味し、ほとんどのシステムは、値がないことを人が生きていることの兆候として解釈する。  
-患者が死亡しているかどうかを示す  
-deceasedBooleanまたはdeceasedDateTimeのどちらかに値が入る  
-- deceasedBoolean : true(死亡) / false(生存)  
-- deceasedDateTime : 患者の死亡日時</t>
+    <t>個人が死亡しているかどうかを示す</t>
+  </si>
+  <si>
+    <t>個人が死亡しているかどうかを示す。</t>
+  </si>
+  <si>
+    <t>値がない場合は、個人が死亡したかどうかについてのステートメントがないことを意味し、ほとんどのシステムは、値がないことを人が生きていることの兆候として解釈する。  
+患者が死亡しているかどうかを示す  deceasedBooleanまたはdeceasedDateTimeのどちらかに値が入る  
+　- deceasedBoolean : true(死亡) / false(生存)  
+　- deceasedDateTime : 患者の死亡日時</t>
   </si>
   <si>
     <t>患者が亡くなったという事実は、臨床プロセスに影響を与えます。また、人間のコミュニケーションと関係管理において、その人が生きているかどうかを知る必要があります。 / The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
@@ -1076,19 +1010,17 @@
 </t>
   </si>
   <si>
-    <t>An address for the individual　個人の住所 【詳細参照】</t>
-  </si>
-  <si>
-    <t>An address for the individual.
-個人の住所。</t>
-  </si>
-  <si>
-    <t>Patient may have multiple addresses with different uses or applicable periods.
-患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
+    <t>個人の住所 【詳細参照】</t>
+  </si>
+  <si>
+    <t>個人の住所。</t>
+  </si>
+  <si>
+    <t>患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
 【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。  
-- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する
-- 住所が構造化されていない場合は、Address.text に記述する
-- 各住所パートとtext は、両方存在してもよい
+　- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する
+　- 住所が構造化されていない場合は、Address.text に記述する
+　- 各住所パートとtext は、両方存在してもよい
 ※診療文書構造化記述規約等では、streetAddressLine (FHIRではlineに対応) に指定するとなっていた。</t>
   </si>
   <si>
@@ -1120,8 +1052,7 @@
 住所の用途</t>
   </si>
   <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.
-住所の用途をValueSet(AddressUse)より選択する。  
+    <t>住所の用途をValueSet(AddressUse)より選択する。  
 - home : 自宅
 - work : 職場
 - temp : 一時的
@@ -1150,12 +1081,10 @@
     <t>postal | physical | both 【詳細参照】</t>
   </si>
   <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
-住所（訪問できる住所）と郵送先住所（私書箱や気付住所など）を区別する。ほとんどのアドレスは両方。</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).  
-住所の種類をValueSet(AddressType)より選択する。  
+    <t>住所（訪問できる住所）と郵送先住所（私書箱や気付住所など）を区別する。ほとんどのアドレスは両方。</t>
+  </si>
+  <si>
+    <t>住所の種類をValueSet(AddressType)より選択する。  
 - postal : 郵送先 - 私書箱、気付の住所
 - physical : 訪れることのできる物理的な住所
 - both : postalとphysicalの両方</t>
@@ -1176,16 +1105,14 @@
     <t>Patient.address.text</t>
   </si>
   <si>
-    <t>Text representation of the address　住所のテキスト表現 【詳細参照】</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.  
-表示するアドレス全体を指定する  
+    <t>住所のテキスト表現 【詳細参照】</t>
+  </si>
+  <si>
+    <t>表示するアドレス全体を指定する  
 例：郵便ラベル。これは、特定の部品の代わりに、または特定の部品と同様に提供される場合がある。</t>
   </si>
   <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.  
-テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
+    <t>テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
 - 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
 - 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
 - 郵便番号は含めない。  
@@ -1210,16 +1137,13 @@
     <t>Patient.address.line</t>
   </si>
   <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.ストリート名や番地など 【詳細参照】</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.
-このコンポーネントには、家番号、アパート番号、通りの名前、通りの方向、P.O。が含まれる。ボックス番号、配達のヒント、および同様の住所情報など。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。  
-【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。  
+    <t>ストリート名や番地など 【詳細参照】</t>
+  </si>
+  <si>
+    <t>このコンポーネントには、家番号、アパート番号、通りの名前、通りの方向、P.O。が含まれる。ボックス番号、配達のヒント、および同様の住所情報など。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。  
 英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。  
 繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。  
 例：本郷7-3-1  
@@ -1246,16 +1170,13 @@
 </t>
   </si>
   <si>
-    <t>Name of city, town etc.　市区町村名 【詳細参照】</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.
-市、町、郊外、村、その他のコミュニティまたは配達センターの名前。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。  
-【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
+    <t>市区町村名 【詳細参照】</t>
+  </si>
+  <si>
+    <t>n市、町、郊外、村、その他のコミュニティまたは配達センターの名前。</t>
+  </si>
+  <si>
+    <t>１MBを超えないこと。  【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
   </si>
   <si>
     <t>文京区</t>
@@ -1277,14 +1198,13 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county) 【詳細参照】</t>
+    <t>地区名 【詳細参照】</t>
   </si>
   <si>
     <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
   </si>
   <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
-【JP Core仕様】日本の住所では使用しない。</t>
+    <t>【JP Core仕様】日本の住所では使用しない。</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -1303,16 +1223,13 @@
 Territory</t>
   </si>
   <si>
-    <t>Sub-unit of country (abbreviations ok)　国の次の地区単位 【詳細参照】</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).
-国の主権が制限されている国のサブユニット。日本の場合、都道府県名。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。  
-都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
+    <t>国の次の地区単位 【詳細参照】</t>
+  </si>
+  <si>
+    <t>国の主権が制限されている国のサブユニット。日本の場合、都道府県名。</t>
+  </si>
+  <si>
+    <t>１MBを超えないこと。  都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
   </si>
   <si>
     <t>東京都</t>
@@ -1334,15 +1251,13 @@
 </t>
   </si>
   <si>
-    <t>Postal code for area 【詳細参照】</t>
+    <t>郵便番号 【詳細参照】</t>
   </si>
   <si>
     <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。  
-郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
+    <t>郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
   </si>
   <si>
     <t>113-8655</t>
@@ -1360,17 +1275,13 @@
     <t>Patient.address.country</t>
   </si>
   <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)国名またはISO 3166コード</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.
-国-一般的に理解されている、または一般的に受け入れられている国の国名かコード。</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.  
-ISO 3166 3文字コードは、人間が読める国名の代わりに使用する。  
-ISO 3166の2文字または3文字のコード  
-日本であれば、jpまたはjpn</t>
+    <t>国名またはISO 3166コード　(ISO 3166 2 or 3文字こーど)</t>
+  </si>
+  <si>
+    <t>国-一般的に理解されている、または一般的に受け入れられている国の国名かコード。</t>
+  </si>
+  <si>
+    <t>ISO 3166 3文字コードは、人間が読める国名の代わりに使用する。  ISO 3166の2文字または3文字のコード.  日本であれば、jpまたはjpn</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1385,21 +1296,13 @@
     <t>Patient.address.period</t>
   </si>
   <si>
-    <t>Time period when address was/is in use　住所が使用されていた（いる）期間</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.
-住所が使用されていた（いる）期間</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).  
-住所が使用されていた/されている期間。  
-期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  
-期間は、時間間隔（経過時間の測定値）には使用されない。</t>
-  </si>
-  <si>
-    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+    <t>住所が使用されていた（いる）期間</t>
+  </si>
+  <si>
+    <t>住所が使用されていた/されている期間。 期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  期間は、時間間隔（経過時間の測定値）には使用されない。</t>
+  </si>
+  <si>
+    <t>アドレスを履歴上の文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>Address.period</t>
@@ -1411,15 +1314,13 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t>Marital (civil) status of a patient　患者の婚姻（市民）状態 【詳細参照】</t>
-  </si>
-  <si>
-    <t>This field contains a patient's most recent marital (civil) status.
-このフィールドは患者の最新の婚姻（市民）状態が含む。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.  
-患者の婚姻関係をValueSet(Marital Status Codes)より選択する。  
+    <t>患者の婚姻（市民）状態 【詳細参照】</t>
+  </si>
+  <si>
+    <t>このフィールドは患者の最新の婚姻（市民）状態</t>
+  </si>
+  <si>
+    <t>患者の婚姻関係をValueSet(Marital Status Codes)より選択する。  
 - A : 婚姻取消・無効
 - D : 離婚
 - I : 暫定法令
@@ -1458,23 +1359,20 @@
 integer</t>
   </si>
   <si>
-    <t>Whether patient is part of a multiple birth　患者が多胎出産の一人かどうか</t>
-  </si>
-  <si>
-    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).
-患者が多胎児の一人であるか（boolean）、実際の出生順位（integer）であるかを示す。</t>
-  </si>
-  <si>
-    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).  
-multipleBirthBooleanまたはmultipleBirthIntegerのどちらかに値が入る  
+    <t>患者が多胎出産の一人かどうか</t>
+  </si>
+  <si>
+    <t>患者が多胎児の一人であるか（boolean）、実際の出生順位（integer）であるかを示す。</t>
+  </si>
+  <si>
+    <t>multipleBirthBooleanまたはmultipleBirthIntegerのどちらかに値が入る  
 - multipleBirthBoolean : 多胎出産時かどうか  
 ３つ子の例にbooleanが指定された場合、3つの患者レコードすべてがvalueBoolean = trueになる（順序は示されない）  
 - multipleBirthInteger : 多胎出産時の出生順位  
 たとえば、３つ子の２番目の生まれはvalueInteger = 2で、3番目の生まれはvalueInteger = 3になる</t>
   </si>
   <si>
-    <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.
-多産児の曖昧性解消、特にラボなど、医療提供者が患者に会わない場合に関連する。</t>
+    <t>多産児の曖昧性解消、特にラボなど、医療提供者が患者に会わない場合に関連する。</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/multipleBirthInd,  player[classCode=PSN|ANM and determinerCode=INSTANCE]/multipleBirthOrderNumber</t>
@@ -1490,25 +1388,19 @@
 </t>
   </si>
   <si>
-    <t>Image of the patient　患者の画像</t>
-  </si>
-  <si>
-    <t>Image of the patient.
-患者の画像。</t>
-  </si>
-  <si>
-    <t>Guidelines:  
-- Use id photos, not clinical photos.  
-- Limit dimensions to thumbnail.  
-- Keep byte count low to ease resource updates
-ガイドライン：  
+    <t>患者の画像</t>
+  </si>
+  <si>
+    <t>患者の画像。</t>
+  </si>
+  <si>
+    <t>ガイドライン：  
 - 臨床写真ではなく、身分証明写真を使用すること
 - 寸法をサムネイルに制限する  
 - リソースの更新を容易にするため、バイト数を少なくすること</t>
   </si>
   <si>
-    <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.
-多くのEHRシステムには、患者の画像をキャプチャする機能がある。より新しいソーシャルメディアの使用にも適合する。</t>
+    <t>多くのEHRシステムには、患者の画像をキャプチャする機能がある。より新しいソーシャルメディアの使用にも適合する。</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
@@ -1524,19 +1416,16 @@
 </t>
   </si>
   <si>
-    <t>A contact party (e.g. guardian, partner, friend) for the patient　患者の連絡先者（例：保護者、パートナー、友人）</t>
-  </si>
-  <si>
-    <t>A contact party (e.g. guardian, partner, friend) for the patient.
-患者の連絡先者（例：保護者、パートナー、友人）。</t>
-  </si>
-  <si>
-    <t>Contact covers all kinds of contact parties: family members, business contacts, guardians, caregivers. Not applicable to register pedigree and family ties beyond use of having contact.
-連絡先には、家族、取引先、保護者、介護者など、あらゆる種類の連絡先が含まれる。連絡先として使用しない親戚や家族を登録するためには適用されない。</t>
-  </si>
-  <si>
-    <t>Need to track people you can contact about the patient.
-患者について連絡できる人を確認する必要がある。</t>
+    <t>患者の連絡先者（例：保護者、パートナー、友人）</t>
+  </si>
+  <si>
+    <t>患者の連絡先者（例：保護者、パートナー、友人）。</t>
+  </si>
+  <si>
+    <t>連絡先には、家族、取引先、保護者、介護者など、あらゆる種類の連絡先が含まれる。連絡先として使用しない親戚や家族を登録するためには適用されない。</t>
+  </si>
+  <si>
+    <t>患者について連絡できる人を確認する必要がある。</t>
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1573,15 +1462,13 @@
     <t>Patient.contact.relationship</t>
   </si>
   <si>
-    <t>The kind of relationship 【詳細参照】</t>
-  </si>
-  <si>
-    <t>The nature of the relationship between the patient and the contact person.
-患者と連絡先の関係性。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.  
-患者との関係性をValueSet(PatientContactRelationship)より選択する。  
+    <t>関係性の種類 【詳細参照】</t>
+  </si>
+  <si>
+    <t>患者と連絡先の関係性。</t>
+  </si>
+  <si>
+    <t>患者との関係性をValueSet(PatientContactRelationship)より選択する。  
 - C : 緊急連絡先
 - E : 雇用者
 - F : 連邦政府機関
@@ -1591,8 +1478,7 @@
 - U : 不明</t>
   </si>
   <si>
-    <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.
-状況に応じて、アプローチするのに最適な関係者を決定するために使用される。</t>
+    <t>状況に応じて、アプローチするのに最適な関係者を決定するために使用される。</t>
   </si>
   <si>
     <t>その患者の患者と接触者との関係の性質。 / The nature of the relationship between a patient and a contact person for that patient.</t>
@@ -1617,12 +1503,10 @@
     <t>連絡先に関連付けられた名前 / A name associated with the contact person</t>
   </si>
   <si>
-    <t>A name associated with the contact person.
-連絡先に登録された名前。</t>
-  </si>
-  <si>
-    <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.
-連絡先は名前で識別する必要があるが、その連絡先に複数の名前が必要になることはまれである。</t>
+    <t>連絡先に登録された名前。</t>
+  </si>
+  <si>
+    <t>連絡先は名前で識別する必要があるが、その連絡先に複数の名前が必要になることはまれである。</t>
   </si>
   <si>
     <t>name</t>
@@ -1637,16 +1521,13 @@
     <t>人の連絡先の詳細 / A contact detail for the person</t>
   </si>
   <si>
-    <t>A contact detail for the person, e.g. a telephone number or an email address.
-連絡先に登録された連絡方法（電話番号やメールアドレスなど）。</t>
-  </si>
-  <si>
-    <t>Contact may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification.
-連絡先には、さまざまな用途または適用期間で連絡を取るための複数の方法がある。その人に緊急に連絡する際の連絡先を確認する必要がある。</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.
-電話、電子メールなどの（優先する）連絡方法を確認する必要がある。</t>
+    <t>連絡先に登録された連絡方法（電話番号やメールアドレスなど）。</t>
+  </si>
+  <si>
+    <t>連絡先には、さまざまな用途または適用期間で連絡を取るための複数の方法がある。その人に緊急に連絡する際の連絡先を確認する必要がある。</t>
+  </si>
+  <si>
+    <t>電話、電子メールなどの（優先する）連絡方法を確認する必要がある。</t>
   </si>
   <si>
     <t>NK1-5, NK1-6, NK1-40</t>
@@ -1658,12 +1539,10 @@
     <t>連絡先の住所 / Address for the contact person</t>
   </si>
   <si>
-    <t>Address for the contact person.
-連絡先の住所。</t>
-  </si>
-  <si>
-    <t>Need to keep track where the contact person can be contacted per postal mail or visited.
-郵送ないし訪問により連絡を取ることができるよう注意する必要があるため。</t>
+    <t>連絡先の住所。</t>
+  </si>
+  <si>
+    <t>郵送ないし訪問により連絡を取ることができるよう注意する必要があるため。</t>
   </si>
   <si>
     <t>NK1-4</t>
@@ -1672,12 +1551,10 @@
     <t>Patient.contact.gender</t>
   </si>
   <si>
-    <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.
-管理上の性別-連絡先担当者が管理および記録管理のために持っていると考えられる性別。</t>
-  </si>
-  <si>
-    <t>Needed to address the person correctly.
-その人に正しく話しかけるために必要である。</t>
+    <t>管理上の性別-連絡先担当者が管理および記録管理のために持っていると考えられる性別。</t>
+  </si>
+  <si>
+    <t>その人に正しく話しかけるために必要である。</t>
   </si>
   <si>
     <t>NK1-15</t>
@@ -1689,12 +1566,10 @@
     <t>連絡先に関連する組織 / Organization that is associated with the contact</t>
   </si>
   <si>
-    <t>Organization on behalf of which the contact is acting or for which the contact is working.
-連絡先が主として活動する、または勤務している組織。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-連絡先に関連する組織</t>
+    <t>連絡先が主として活動する、または勤務している組織。</t>
+  </si>
+  <si>
+    <t>連絡先に関連する組織</t>
   </si>
   <si>
     <t>保護者またはビジネス関連の連絡先については、組織が関連しています。 / For guardians or business related contacts, the organization is relevant.</t>
@@ -1716,8 +1591,7 @@
     <t>この患者に関連するこの連絡先または組織が連絡するのが有効な期間 / The period during which this contact person or organization is valid to be contacted relating to this patient</t>
   </si>
   <si>
-    <t>The period during which this contact person or organization is valid to be contacted relating to this patient.
-この患者に関連して、この連絡担当者または組織に連絡することが有効な期間。</t>
+    <t>この患者に関連して、この連絡担当者または組織に連絡することが有効な期間。</t>
   </si>
   <si>
     <t>effectiveTime</t>
@@ -1726,19 +1600,16 @@
     <t>Patient.communication</t>
   </si>
   <si>
-    <t>A language which may be used to communicate with the patient about his or her health　彼または彼女の健康について患者と会話する際に使用する言語</t>
-  </si>
-  <si>
-    <t>A language which may be used to communicate with the patient about his or her health.
-彼または彼女の健康について患者と会話する際に使用する言語。</t>
-  </si>
-  <si>
-    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.  
-言語が指定されていない場合、デフォルトのローカル言語が話されていることを意味する。複数のモードの習熟度を伝える必要がある場合は、複数のPatient.Communicationアソシエーションが必要である。動物の場合、言語は関連するフィールドではないため、インスタンスから除外する必要がある。患者がデフォルトの現地言語を話さない場合、通訳者が必要であることを明示的に宣言するために、通訳者必須基準を使用できる。</t>
-  </si>
-  <si>
-    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.  
-患者が現地の言語を話さない場合、通訳が必要になる場合があるため、話せる言語と習熟度は、患者と関心のある他の人の両方にとって注意すべき重要な事項である。</t>
+    <t>健康について患者と会話する際に使用する言語</t>
+  </si>
+  <si>
+    <t>健康について患者と会話する際に使用する言語。</t>
+  </si>
+  <si>
+    <t>言語が指定されていない場合、デフォルトのローカル言語が話されていることを意味する。複数のモードの習熟度を伝える必要がある場合は、複数のPatient.Communicationアソシエーションが必要である。動物の場合、言語は関連するフィールドではないため、インスタンスから除外する必要がある。患者がデフォルトの現地言語を話さない場合、通訳者が必要であることを明示的に宣言するために、通訳者必須基準を使用できる。</t>
+  </si>
+  <si>
+    <t>患者が現地の言語を話さない場合、通訳が必要になる場合があるため、話せる言語と習熟度は、患者と関心のある他の人の両方にとって注意すべき重要な事項である。</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -1759,15 +1630,13 @@
     <t>Patient.communication.language</t>
   </si>
   <si>
-    <t>The language which can be used to communicate with the patient about his or her health 【詳細参照】</t>
-  </si>
-  <si>
-    <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.  
-ISO-639-1 alpha 2コード小文字で言語を、またオプションとしてハイフンとISO-3166-1 alpha 2コード大文字を続けて地域を表す。たとえば、英語の場合は「en」、アメリカ英語の場合は「en-US」、イギリス英語の場合は「en-EN」である。</t>
-  </si>
-  <si>
-    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.
-患者とコミュニケーションするときに使用できる言語をValueSet(CommonLanguages)より選択する。
+    <t>健康について患者と会話する際に使用する言語。 【詳細参照】</t>
+  </si>
+  <si>
+    <t>ISO-639-1 alpha 2コード小文字で言語を、またオプションとしてハイフンとISO-3166-1 alpha 2コード大文字を続けて地域を表す。たとえば、英語の場合は「en」、アメリカ英語の場合は「en-US」、イギリス英語の場合は「en-EN」である。</t>
+  </si>
+  <si>
+    <t>患者とコミュニケーションするときに使用できる言語をValueSet(CommonLanguages)より選択する。
 - de : ドイツ語
 - en : 英語
 - fr : フランス語
@@ -1776,8 +1645,7 @@
 など</t>
   </si>
   <si>
-    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.
-多言語の国のほとんどのシステムは、言語を伝えたいと考えられる。 すべてのシステムが実際に地域の方言を必要とするわけではない。</t>
+    <t>多言語の国のほとんどのシステムは、言語を伝えたいと考えられる。 すべてのシステムが実際に地域の方言を必要とするわけではない。</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
@@ -1795,17 +1663,14 @@
     <t>言語選好インジケーター / Language preference indicator</t>
   </si>
   <si>
-    <t>Indicates whether or not the patient prefers this language (over other languages he masters up a certain level).
-患者がこの言語を優先するかどうかを示す（他の言語よりも特定レベルまで習得している）。</t>
-  </si>
-  <si>
-    <t>This language is specifically identified for communicating healthcare information.
-この言語は、医療情報を伝えるために特に識別される。
+    <t>患者がこの言語を優先するかどうかを示す（他の言語よりも特定レベルまで習得している）。</t>
+  </si>
+  <si>
+    <t>の言語は、医療情報を伝えるために特に識別される。
 患者がこの言語を習得している場合はtrue、そうでなければfalseを設定する。</t>
   </si>
   <si>
-    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method.
-特定のレベルまで複数の言語を習得している人は、複数の言語を選択する可能性がある。つまり、特定の言語でのコミュニケーションに自信を持ち、他の言語を一種の備えとしている。</t>
+    <t>特定のレベルまで複数の言語を習得している人は、複数の言語を選択する可能性がある。つまり、特定の言語でのコミュニケーションに自信を持ち、他の言語を一種の備えとしている。</t>
   </si>
   <si>
     <t>preferenceInd</t>
@@ -1828,17 +1693,10 @@
 </t>
   </si>
   <si>
-    <t>Patient's nominated primary care provider　患者が指名するケア提供者</t>
-  </si>
-  <si>
-    <t>Patient's nominated care provider.
-患者が指名するケア提供者</t>
-  </si>
-  <si>
-    <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disability setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.
-Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.  
-Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.  
-これはプライマリケア提供者(GPを含む)である場合もあれば、コミュニティ/障害を持つ患者指定のケアマネージャーである場合もある。ケアチームの記録には使用されない。これらはケアプランまたはEpisodeOfCareリソースにリンクされるCareTeamリソースに含まれている必要がある。複数のGPは、学期中の大学GPと共にリストされた家庭GPなどの学生や、「フライイン/フライアウト」労働者など、さまざまな理由で患者に対して記録される場合がある。また、医学的問題を認識し続けるために家庭GPに含まれる。  
+    <t>患者が指名するケア提供者</t>
+  </si>
+  <si>
+    <t>これはプライマリケア提供者(GPを含む)である場合もあれば、コミュニティ/障害を持つ患者指定のケアマネージャーである場合もある。ケアチームの記録には使用されない。これらはケアプランまたはEpisodeOfCareリソースにリンクされるCareTeamリソースに含まれている必要がある。複数のGPは、学期中の大学GPと共にリストされた家庭GPなどの学生や、「フライイン/フライアウト」労働者など、さまざまな理由で患者に対して記録される場合がある。また、医学的問題を認識し続けるために家庭GPに含まれる。  
 管轄区域は、必要に応じてこれを1、またはタイプごとに1にプロファイルできると決定する場合がある。</t>
   </si>
   <si>
@@ -1851,19 +1709,16 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t>Organization that is the custodian of the patient record　患者記録の管理者である組織</t>
-  </si>
-  <si>
-    <t>Organization that is the custodian of the patient record.
-患者記録の管理者である組織。</t>
-  </si>
-  <si>
-    <t>There is only one managing organization for a specific patient record. Other organizations will have their own Patient record, and may use the Link property to join the records together (or a Person resource which can include confidence ratings for the association).
-特定の患者記録を管理する組織は1つだけである。他の組織には独自の患者レコードがあり、Linkプロパティを使用してレコードを結合する場合がある（または、関連付けの信頼性評価を含めることができる個人リソース）</t>
-  </si>
-  <si>
-    <t>Need to know who recognizes this patient record, manages and updates it.
-この患者記録を誰が認識し、管理し、更新するかを知る必要がある。</t>
+    <t>患者記録の管理者である組織</t>
+  </si>
+  <si>
+    <t>患者記録の管理者である組織。</t>
+  </si>
+  <si>
+    <t>特定の患者記録を管理する組織は1つだけである。他の組織には独自の患者レコードがあり、Linkプロパティを使用してレコードを結合する場合がある（または、関連付けの信頼性評価を含めることができる個人リソース）</t>
+  </si>
+  <si>
+    <t>事実上の同一患者をリンクする別のPatientリソース</t>
   </si>
   <si>
     <t>.providerOrganization</t>
@@ -1872,21 +1727,16 @@
     <t>Patient.link</t>
   </si>
   <si>
-    <t>Link to another patient resource that concerns the same actual person　事実上の同一患者をリンクする別のPatientリソース</t>
-  </si>
-  <si>
-    <t>Link to another patient resource that concerns the same actual patient.
-事実上の同一患者をリンクする別のPatientリソース。</t>
-  </si>
-  <si>
-    <t>There is no assumption that linked patient records have mutual links.
-リンクされた患者記録に相互リンクがあるという仮定はない。</t>
-  </si>
-  <si>
-    <t>There are multiple use cases:   
-* Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
-* Distribution of patient information across multiple servers
-複数のユースケースがある。  
+    <t>同じ実際の人に関係する別の患者リソースへのリンク / Link to another patient resource that concerns the same actual person</t>
+  </si>
+  <si>
+    <t>事実上の同一患者をリンクする別のPatientリソース。</t>
+  </si>
+  <si>
+    <t>リンクされた患者記録に相互リンクがあるという仮定はない。</t>
+  </si>
+  <si>
+    <t>複数のユースケースがある。  
 - 事務的なエラーのため一貫して人間を特定することが困難であり患者の記録が重複している
 - 複数のサーバにわたり患者情報が配布されている</t>
   </si>
@@ -1913,12 +1763,10 @@
     <t>リンクが指す他の患者または関連者のリソース / The other patient or related person resource that the link refers to</t>
   </si>
   <si>
-    <t>The other patient resource that the link refers to.
-リンクが参照する他の患者リソース。</t>
-  </si>
-  <si>
-    <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.
-ここでRelatedPersonを参照すると、Personレコードを使用して患者とRelatedPersonを同じ個人として関連付ける必要がなくなる。</t>
+    <t>リンクが参照する他の患者リソース。</t>
+  </si>
+  <si>
+    <t>ここでRelatedPersonを参照すると、Personレコードを使用して患者とRelatedPersonを同じ個人として関連付ける必要がなくなる。</t>
   </si>
   <si>
     <t>PID-3, MRG-1</t>
@@ -1930,12 +1778,10 @@
     <t>replaced-by | replaces | refer | seealso 【詳細参照】</t>
   </si>
   <si>
-    <t>The type of link between this patient resource and another patient resource.
-この患者リソースと別の患者リソース間のリンクのタイプ。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size  
-この患者リソースと別の患者リソース間のリンクのタイプをValueSet(LinkType)より選択する。
+    <t>この患者リソースと別の患者リソース間のリンクのタイプ。</t>
+  </si>
+  <si>
+    <t>この患者リソースと別の患者リソース間のリンクのタイプをValueSet(LinkType)より選択する。
 - replaced-by : このリンクを含む患者リソースは使用しないこと
 - replaces : このリンクを含む患者リソースは、現在アクティブな患者レコードである
 - refer : このリンクを含む患者リソースは使用中であり、有効であるが、患者に関する主な情報源とは見なされていない
@@ -6101,13 +5947,13 @@
         <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -6171,27 +6017,27 @@
         <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6214,19 +6060,19 @@
         <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -6275,7 +6121,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6290,7 +6136,7 @@
         <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>142</v>
@@ -6299,7 +6145,7 @@
         <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6307,10 +6153,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6333,19 +6179,19 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6394,7 +6240,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6409,16 +6255,16 @@
         <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6426,10 +6272,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6541,10 +6387,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6658,10 +6504,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6687,16 +6533,16 @@
         <v>69</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6724,28 +6570,28 @@
         <v>153</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6769,7 +6615,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6777,10 +6623,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6806,13 +6652,13 @@
         <v>69</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6841,28 +6687,28 @@
         <v>153</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z39" t="s" s="2">
+      <c r="AA39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6886,7 +6732,7 @@
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6894,10 +6740,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6923,16 +6769,16 @@
         <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6945,43 +6791,43 @@
         <v>41</v>
       </c>
       <c r="T40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6996,16 +6842,16 @@
         <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -7013,10 +6859,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7042,13 +6888,13 @@
         <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7062,43 +6908,43 @@
         <v>41</v>
       </c>
       <c r="T41" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7113,16 +6959,16 @@
         <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -7130,14 +6976,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7159,13 +7005,13 @@
         <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7179,43 +7025,43 @@
         <v>41</v>
       </c>
       <c r="T42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7230,16 +7076,16 @@
         <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7247,14 +7093,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7276,13 +7122,13 @@
         <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7332,7 +7178,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7347,16 +7193,16 @@
         <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7364,14 +7210,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7393,13 +7239,13 @@
         <v>138</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7413,43 +7259,43 @@
         <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7464,16 +7310,16 @@
         <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7481,14 +7327,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7510,13 +7356,13 @@
         <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7530,43 +7376,43 @@
         <v>41</v>
       </c>
       <c r="T45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7581,16 +7427,16 @@
         <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7598,10 +7444,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7627,13 +7473,13 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7683,7 +7529,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7698,16 +7544,16 @@
         <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7715,10 +7561,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7744,16 +7590,16 @@
         <v>186</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7802,7 +7648,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7826,7 +7672,7 @@
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7834,10 +7680,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7863,16 +7709,16 @@
         <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7900,10 +7746,10 @@
         <v>164</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
@@ -7921,7 +7767,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7936,16 +7782,16 @@
         <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7953,10 +7799,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7979,19 +7825,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -8040,7 +7886,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -8055,7 +7901,7 @@
         <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>142</v>
@@ -8064,7 +7910,7 @@
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -8072,10 +7918,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8098,19 +7944,19 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8159,7 +8005,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8174,7 +8020,7 @@
         <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>142</v>
@@ -8183,7 +8029,7 @@
         <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8191,10 +8037,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8217,19 +8063,19 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8278,7 +8124,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8290,10 +8136,10 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>142</v>
@@ -8310,10 +8156,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8425,10 +8271,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8542,14 +8388,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8571,10 +8417,10 @@
         <v>94</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>124</v>
@@ -8629,7 +8475,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8661,10 +8507,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8690,16 +8536,16 @@
         <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8727,10 +8573,10 @@
         <v>164</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8748,7 +8594,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8763,7 +8609,7 @@
         <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>142</v>
@@ -8772,7 +8618,7 @@
         <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8780,10 +8626,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8806,17 +8652,17 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8865,7 +8711,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8880,7 +8726,7 @@
         <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>142</v>
@@ -8889,7 +8735,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8897,10 +8743,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8926,16 +8772,16 @@
         <v>219</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8984,7 +8830,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -9008,7 +8854,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -9016,10 +8862,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9042,17 +8888,17 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -9101,7 +8947,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9116,7 +8962,7 @@
         <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>142</v>
@@ -9125,7 +8971,7 @@
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9133,10 +8979,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9165,11 +9011,11 @@
         <v>278</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -9218,7 +9064,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9242,7 +9088,7 @@
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9250,10 +9096,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9279,16 +9125,16 @@
         <v>194</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9337,7 +9183,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9346,13 +9192,13 @@
         <v>49</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>142</v>
@@ -9361,7 +9207,7 @@
         <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9369,10 +9215,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9398,10 +9244,10 @@
         <v>186</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9452,7 +9298,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9467,7 +9313,7 @@
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>142</v>
@@ -9484,10 +9330,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9510,19 +9356,19 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9571,7 +9417,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9586,10 +9432,10 @@
         <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -9603,10 +9449,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9718,10 +9564,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9835,14 +9681,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9864,10 +9710,10 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>124</v>
@@ -9922,7 +9768,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9954,10 +9800,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9983,16 +9829,16 @@
         <v>159</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -10041,7 +9887,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>49</v>
@@ -10056,16 +9902,16 @@
         <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -10073,10 +9919,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10102,16 +9948,16 @@
         <v>202</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -10160,7 +10006,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10175,16 +10021,16 @@
         <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10192,14 +10038,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10218,16 +10064,16 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10277,7 +10123,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10292,7 +10138,7 @@
         <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>142</v>
@@ -10301,7 +10147,7 @@
         <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10309,10 +10155,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10338,16 +10184,16 @@
         <v>194</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O69" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10396,7 +10242,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10411,10 +10257,10 @@
         <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -10428,10 +10274,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10454,19 +10300,19 @@
         <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10515,7 +10361,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10530,7 +10376,7 @@
         <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>142</v>
@@ -10547,10 +10393,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10662,10 +10508,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10779,14 +10625,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10808,10 +10654,10 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>124</v>
@@ -10866,7 +10712,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10898,10 +10744,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10924,16 +10770,16 @@
         <v>50</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10983,7 +10829,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>49</v>
@@ -11007,7 +10853,7 @@
         <v>41</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -11015,10 +10861,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11044,13 +10890,13 @@
         <v>69</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11079,10 +10925,10 @@
         <v>153</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>41</v>
@@ -11100,7 +10946,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>49</v>
@@ -11115,7 +10961,7 @@
         <v>61</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>142</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -767,7 +767,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -777,7 +777,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.telecom.system</t>
@@ -792,7 +792,7 @@
     <t>患者の連絡先の種別をValueSet(ContactPointSystem)より選択する。  　- phone : 電話　- fax : Fax 　- email : 電子メール　- pager : ポケットベル　- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。　- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  　- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
-    <t>「連絡先のための通信フォーム。」</t>
+    <t>連絡先のための通信フォーム。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -881,10 +881,10 @@
 </t>
   </si>
   <si>
-    <t>「使用の優先順位を指定してください（1が最も優先度が高い）」</t>
-  </si>
-  <si>
-    <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
+    <t>使用の優先順位を指定してください（1が最も優先度が高い）</t>
+  </si>
+  <si>
+    <t>一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。</t>
   </si>
   <si>
     <t>連絡先の使用順序（1 = 最高）</t>
@@ -896,10 +896,10 @@
     <t>Patient.telecom.period</t>
   </si>
   <si>
-    <t>「コンタクトポイントが使用されている時間帯」</t>
-  </si>
-  <si>
-    <t>「接点が使用されていた/現在使用中である時間期間」</t>
+    <t>コンタクトポイントが使用されている時間帯</t>
+  </si>
+  <si>
+    <t>接点が使用されていた/現在使用中である時間期間</t>
   </si>
   <si>
     <t>連絡先が使用されていた/されている期間</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -349,10 +349,10 @@
     <t>患者の公言された宗教的所属。</t>
   </si>
   <si>
-    <t>患者の宗教をValueSet(v3.ReligiousAffiliation)より選択する。輸血や食事で考慮が必要な場合がある。 
-- 1013 キリスト教
-- 1020 ヒンドゥー教
-- 1023 イスラム教
+    <t>患者の宗教をValueSet(v3.ReligiousAffiliation)より選択する。輸血や食事で考慮が必要な場合がある。  
+　- 1013 キリスト教  
+　- 1020 ヒンドゥー教  
+　- 1023 イスラム教  
 など</t>
   </si>
   <si>
@@ -396,13 +396,13 @@
   </si>
   <si>
     <t>患者の人種をValueSet(Race)より選択する。  
-- 2034-7 中国人
-- 2039-6 日本人
-- 2040-4 韓国人
-- 2108-9 ヨーロッパ人
-- 2110-5 英国人
-- 2111-3 フランス人
-- 2112-1 ドイツ人
+　- 2034-7 中国人  
+　- 2039-6 日本人  
+　- 2040-4 韓国人  
+　- 2108-9 ヨーロッパ人  
+　- 2110-5 英国人  
+　- 2111-3 フランス人  
+　- 2112-1 ドイツ人  
 など</t>
   </si>
   <si>
@@ -446,9 +446,7 @@
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。  
 Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
 医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細はOrganizationプロファイルの医療機関コード１０桁の説明を参照すること。  
-```
-例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
-```
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」  
 なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
@@ -707,12 +705,12 @@
   </si>
   <si>
     <t>患者は、用途や適用期間が異なる複数の名前を持つ場合がある。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」を使用する。  
-FHIRデータ型仕様に従って、以下の内容を採用する。
-- 姓名分割できる場合は、名前パート HumanName.familyとHumanName.givenに指定する
-- ミドルネームがある場合は、given に指定する（givenは繰り返し可能）  
-- 姓名に分割できない場合は、HumanName.text にフルネームを指定する
-- 各名前パートとtext は、両方存在してもよい
-- 漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する</t>
+FHIRデータ型仕様に従って、以下の内容を採用する。  
+　- 姓名分割できる場合は、名前パート HumanName.familyとHumanName.givenに指定する  
+　- ミドルネームがある場合は、given に指定する（givenは繰り返し可能）  
+　- 姓名に分割できない場合は、HumanName.text にフルネームを指定する  
+　- 各名前パートとtext は、両方存在してもよい  
+　- 漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する</t>
   </si>
   <si>
     <t>複数の名前で患者を追跡できる必要がある。例としては、正式名とパートナー名がある。</t>
@@ -848,11 +846,11 @@
     <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
-    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。   一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。
-　- home : 自宅
-　- work : 職場
-　- temp : 一時的
-　- old : 以前の
+    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。   一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
+　- home : 自宅  
+　- work : 職場  
+　- temp : 一時的  
+　- old : 以前の  
 　- mobile : モバイル機器</t>
   </si>
   <si>
@@ -920,11 +918,11 @@
     <t>管理上の性別-患者が管理および記録管理の目的で持つと見なされる性別。</t>
   </si>
   <si>
-    <t>患者の性別をValueSet(AdministrativeGender)より選択する。
-male 男性
-female 女性
-other その他
-unknown 不明</t>
+    <t>患者の性別をValueSet(AdministrativeGender)より選択する。  
+　male 男性  
+　female 女性  
+　other その他  
+　unknown 不明</t>
   </si>
   <si>
     <t>（少なくとも）名前と生年月日と組み合わせて、個人の識別に必要です。 / Needed for identification of the individual, in combination with (at least) name and birth date.</t>
@@ -1016,11 +1014,11 @@
     <t>個人の住所。</t>
   </si>
   <si>
-    <t>患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
+    <t>患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。  
 【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。  
-　- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する
-　- 住所が構造化されていない場合は、Address.text に記述する
-　- 各住所パートとtext は、両方存在してもよい
+　- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する  
+　- 住所が構造化されていない場合は、Address.text に記述する  
+　- 各住所パートとtext は、両方存在してもよい  
 ※診療文書構造化記述規約等では、streetAddressLine (FHIRではlineに対応) に指定するとなっていた。</t>
   </si>
   <si>
@@ -1048,16 +1046,16 @@
     <t>home | work | temp | old | billing - purpose of this address　住所の用途 【詳細参照】</t>
   </si>
   <si>
-    <t>The purpose of this address.
+    <t>The purpose of this address.  
 住所の用途</t>
   </si>
   <si>
     <t>住所の用途をValueSet(AddressUse)より選択する。  
-- home : 自宅
-- work : 職場
-- temp : 一時的
-- old : 以前の
-- billing : 請求書、インボイス、領収書などの送付用</t>
+　- home : 自宅  
+　- work : 職場  
+　- temp : 一時的  
+　- old : 以前の  
+　- billing : 請求書、インボイス、領収書などの送付用</t>
   </si>
   <si>
     <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
@@ -1085,9 +1083,9 @@
   </si>
   <si>
     <t>住所の種類をValueSet(AddressType)より選択する。  
-- postal : 郵送先 - 私書箱、気付の住所
-- physical : 訪れることのできる物理的な住所
-- both : postalとphysicalの両方</t>
+　- postal : 郵送先 - 私書箱、気付の住所  
+　- physical : 訪れることのできる物理的な住所  
+　- both : postalとphysicalの両方</t>
   </si>
   <si>
     <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
@@ -1113,9 +1111,9 @@
   </si>
   <si>
     <t>テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
-- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
-- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
-- 郵便番号は含めない。  
+　- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
+　- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
+　- 郵便番号は含めない。  
 例：東京都文京区本郷7-3-1</t>
   </si>
   <si>
@@ -1321,17 +1319,17 @@
   </si>
   <si>
     <t>患者の婚姻関係をValueSet(Marital Status Codes)より選択する。  
-- A : 婚姻取消・無効
-- D : 離婚
-- I : 暫定法令
-- L : 法的別居中
-- M : 既婚
-- P : 一夫多妻制
-- S : 生涯独身・非婚
-- T : 同棲
-- U : 未婚
-- W : 未亡人
-- UNK : 不明</t>
+　A : 婚姻取消・無効  
+　D : 離婚  
+　I : 暫定法令  
+　L : 法的別居中  
+　M : 既婚  
+　P : 一夫多妻制  
+　S : 生涯独身・非婚  
+　T : 同棲  
+　U : 未婚  
+　W : 未亡人  
+　UNK : 不明</t>
   </si>
   <si>
     <t>ほとんどの場合、すべてではないにしても、それをキャプチャします。 / Most, if not all systems capture it.</t>
@@ -1366,9 +1364,9 @@
   </si>
   <si>
     <t>multipleBirthBooleanまたはmultipleBirthIntegerのどちらかに値が入る  
-- multipleBirthBoolean : 多胎出産時かどうか  
+　- multipleBirthBoolean : 多胎出産時かどうか  
 ３つ子の例にbooleanが指定された場合、3つの患者レコードすべてがvalueBoolean = trueになる（順序は示されない）  
-- multipleBirthInteger : 多胎出産時の出生順位  
+　- multipleBirthInteger : 多胎出産時の出生順位  
 たとえば、３つ子の２番目の生まれはvalueInteger = 2で、3番目の生まれはvalueInteger = 3になる</t>
   </si>
   <si>
@@ -1395,9 +1393,9 @@
   </si>
   <si>
     <t>ガイドライン：  
-- 臨床写真ではなく、身分証明写真を使用すること
-- 寸法をサムネイルに制限する  
-- リソースの更新を容易にするため、バイト数を少なくすること</t>
+　- 臨床写真ではなく、身分証明写真を使用すること  
+　- 寸法をサムネイルに制限する  
+　- リソースの更新を容易にするため、バイト数を少なくすること</t>
   </si>
   <si>
     <t>多くのEHRシステムには、患者の画像をキャプチャする機能がある。より新しいソーシャルメディアの使用にも適合する。</t>
@@ -1469,13 +1467,13 @@
   </si>
   <si>
     <t>患者との関係性をValueSet(PatientContactRelationship)より選択する。  
-- C : 緊急連絡先
-- E : 雇用者
-- F : 連邦政府機関
-- I : 保険会社
-- N : 近親者
-- S : 州政府機関
-- U : 不明</t>
+　C : 緊急連絡先  
+　E : 雇用者  
+　F : 連邦政府機関  
+　I : 保険会社  
+　N : 近親者  
+　S : 州政府機関  
+　U : 不明</t>
   </si>
   <si>
     <t>状況に応じて、アプローチするのに最適な関係者を決定するために使用される。</t>
@@ -1636,12 +1634,12 @@
     <t>ISO-639-1 alpha 2コード小文字で言語を、またオプションとしてハイフンとISO-3166-1 alpha 2コード大文字を続けて地域を表す。たとえば、英語の場合は「en」、アメリカ英語の場合は「en-US」、イギリス英語の場合は「en-EN」である。</t>
   </si>
   <si>
-    <t>患者とコミュニケーションするときに使用できる言語をValueSet(CommonLanguages)より選択する。
-- de : ドイツ語
-- en : 英語
-- fr : フランス語
-- ja : 日本語
-- ko : 韓国語  
+    <t>患者とコミュニケーションするときに使用できる言語をValueSet(CommonLanguages)より選択する。  
+　de : ドイツ語  
+　en : 英語  
+　fr : フランス語  
+　ja : 日本語  
+　ko : 韓国語  
 など</t>
   </si>
   <si>
@@ -1666,7 +1664,7 @@
     <t>患者がこの言語を優先するかどうかを示す（他の言語よりも特定レベルまで習得している）。</t>
   </si>
   <si>
-    <t>の言語は、医療情報を伝えるために特に識別される。
+    <t>この言語は、医療情報を伝えるために特に識別される。  
 患者がこの言語を習得している場合はtrue、そうでなければfalseを設定する。</t>
   </si>
   <si>
@@ -1737,8 +1735,8 @@
   </si>
   <si>
     <t>複数のユースケースがある。  
-- 事務的なエラーのため一貫して人間を特定することが困難であり患者の記録が重複している
-- 複数のサーバにわたり患者情報が配布されている</t>
+　- 事務的なエラーのため一貫して人間を特定することが困難であり患者の記録が重複している  
+　- 複数のサーバにわたり患者情報が配布されている</t>
   </si>
   <si>
     <t>outboundLink</t>
@@ -1781,11 +1779,11 @@
     <t>この患者リソースと別の患者リソース間のリンクのタイプ。</t>
   </si>
   <si>
-    <t>この患者リソースと別の患者リソース間のリンクのタイプをValueSet(LinkType)より選択する。
-- replaced-by : このリンクを含む患者リソースは使用しないこと
-- replaces : このリンクを含む患者リソースは、現在アクティブな患者レコードである
-- refer : このリンクを含む患者リソースは使用中であり、有効であるが、患者に関する主な情報源とは見なされていない
-- seealso : このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す</t>
+    <t>この患者リソースと別の患者リソース間のリンクのタイプをValueSet(LinkType)より選択する。  
+　- replaced-by : このリンクを含む患者リソースは使用しないこと  
+　- replaces : このリンクを含む患者リソースは、現在アクティブな患者レコードである  
+　- refer : このリンクを含む患者リソースは使用中であり、有効であるが、患者に関する主な情報源とは見なされていない  
+　- seealso : このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す</t>
   </si>
   <si>
     <t>この患者リソースと別の患者リソースとの間のリンクのタイプ。 / The type of link between this patient resource and another patient resource.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>
@@ -699,9 +699,6 @@
   </si>
   <si>
     <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.51.11312345670</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -2235,7 +2232,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="43.7265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -4429,43 +4426,43 @@
         <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4480,16 +4477,16 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4497,10 +4494,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4526,13 +4523,13 @@
         <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4582,7 +4579,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4597,16 +4594,16 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4614,10 +4611,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4640,16 +4637,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4699,7 +4696,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4714,16 +4711,16 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4731,10 +4728,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4757,16 +4754,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4816,7 +4813,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4831,16 +4828,16 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4848,10 +4845,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4874,26 +4871,26 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="O23" t="s" s="2">
+      <c r="P23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="P23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="R23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4937,7 +4934,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4952,13 +4949,13 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -4969,10 +4966,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4995,19 +4992,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5056,7 +5053,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5071,16 +5068,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5088,10 +5085,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5114,19 +5111,19 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5175,7 +5172,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5190,16 +5187,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5207,10 +5204,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5236,10 +5233,10 @@
         <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5322,10 +5319,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5351,13 +5348,13 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5398,7 +5395,7 @@
         <v>138</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>82</v>
@@ -5419,7 +5416,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>183</v>
@@ -5439,10 +5436,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5468,13 +5465,13 @@
         <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5503,28 +5500,28 @@
         <v>194</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5533,22 +5530,22 @@
         <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5556,10 +5553,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5585,16 +5582,16 @@
         <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5643,7 +5640,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5655,19 +5652,19 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5675,10 +5672,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5704,16 +5701,16 @@
         <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5741,28 +5738,28 @@
         <v>194</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5774,19 +5771,19 @@
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5794,10 +5791,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5820,16 +5817,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5879,7 +5876,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5891,7 +5888,7 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>183</v>
@@ -5911,10 +5908,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5937,16 +5934,16 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5996,7 +5993,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6008,10 +6005,10 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6028,10 +6025,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6057,16 +6054,16 @@
         <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6094,11 +6091,11 @@
         <v>194</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6130,16 +6127,16 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6147,10 +6144,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6173,19 +6170,19 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6234,7 +6231,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6249,27 +6246,27 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6292,19 +6289,19 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6353,7 +6350,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6368,7 +6365,7 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>183</v>
@@ -6377,7 +6374,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6385,10 +6382,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6411,19 +6408,19 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6472,7 +6469,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6487,16 +6484,16 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6504,10 +6501,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6619,10 +6616,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6736,10 +6733,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6765,16 +6762,16 @@
         <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6802,28 +6799,28 @@
         <v>194</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Z39" t="s" s="2">
+      <c r="AA39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6838,7 +6835,7 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -6847,7 +6844,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6855,10 +6852,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6884,13 +6881,13 @@
         <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6919,28 +6916,28 @@
         <v>194</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z40" t="s" s="2">
+      <c r="AA40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6955,7 +6952,7 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -6964,7 +6961,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6972,10 +6969,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7001,16 +6998,16 @@
         <v>179</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7059,7 +7056,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7074,16 +7071,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7091,10 +7088,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7120,13 +7117,13 @@
         <v>179</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7176,7 +7173,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7191,16 +7188,16 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7208,14 +7205,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7237,13 +7234,13 @@
         <v>179</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7293,7 +7290,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7308,16 +7305,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7325,14 +7322,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7354,13 +7351,13 @@
         <v>179</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7410,7 +7407,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7425,16 +7422,16 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7442,14 +7439,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7471,13 +7468,13 @@
         <v>179</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7527,7 +7524,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7542,16 +7539,16 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7559,14 +7556,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7588,13 +7585,13 @@
         <v>179</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7644,7 +7641,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7659,16 +7656,16 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7676,10 +7673,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7705,13 +7702,13 @@
         <v>179</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7761,7 +7758,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7776,16 +7773,16 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7793,10 +7790,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7819,19 +7816,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7880,7 +7877,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7895,7 +7892,7 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
@@ -7904,7 +7901,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7912,10 +7909,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7941,16 +7938,16 @@
         <v>200</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7978,11 +7975,11 @@
         <v>205</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7999,7 +7996,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8014,16 +8011,16 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8031,10 +8028,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8057,19 +8054,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8118,7 +8115,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8133,7 +8130,7 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>183</v>
@@ -8142,7 +8139,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8150,10 +8147,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8176,19 +8173,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8237,7 +8234,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8252,7 +8249,7 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>183</v>
@@ -8261,7 +8258,7 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8269,10 +8266,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8295,19 +8292,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8356,7 +8353,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8368,10 +8365,10 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>183</v>
@@ -8388,10 +8385,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8503,10 +8500,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8620,14 +8617,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8649,10 +8646,10 @@
         <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>165</v>
@@ -8707,7 +8704,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8739,10 +8736,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8768,16 +8765,16 @@
         <v>200</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8805,11 +8802,11 @@
         <v>205</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8826,7 +8823,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8841,7 +8838,7 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>183</v>
@@ -8850,7 +8847,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8858,10 +8855,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8884,17 +8881,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8943,7 +8940,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8958,7 +8955,7 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>183</v>
@@ -8967,7 +8964,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8975,10 +8972,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9001,19 +8998,19 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9062,7 +9059,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9077,7 +9074,7 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>183</v>
@@ -9086,7 +9083,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9094,10 +9091,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9120,17 +9117,17 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9179,7 +9176,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9194,7 +9191,7 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>183</v>
@@ -9203,7 +9200,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9211,10 +9208,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9240,14 +9237,14 @@
         <v>110</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9275,11 +9272,11 @@
         <v>194</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9296,7 +9293,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9311,7 +9308,7 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>183</v>
@@ -9320,7 +9317,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9328,10 +9325,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9354,19 +9351,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9415,7 +9412,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9424,13 +9421,13 @@
         <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>183</v>
@@ -9439,7 +9436,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9447,10 +9444,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9473,13 +9470,13 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9530,7 +9527,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9545,7 +9542,7 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>183</v>
@@ -9562,10 +9559,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9588,19 +9585,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9649,7 +9646,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9664,10 +9661,10 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>82</v>
@@ -9681,10 +9678,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9796,10 +9793,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9913,14 +9910,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9942,10 +9939,10 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>165</v>
@@ -10000,7 +9997,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10032,10 +10029,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10061,16 +10058,16 @@
         <v>200</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10119,7 +10116,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>90</v>
@@ -10134,16 +10131,16 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10151,10 +10148,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10177,19 +10174,19 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10238,7 +10235,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10253,16 +10250,16 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10270,14 +10267,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10296,16 +10293,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10355,7 +10352,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10370,7 +10367,7 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>183</v>
@@ -10379,7 +10376,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10387,10 +10384,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10413,19 +10410,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10474,7 +10471,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10489,10 +10486,10 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
@@ -10506,10 +10503,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10532,19 +10529,19 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10593,7 +10590,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10608,7 +10605,7 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>183</v>
@@ -10625,10 +10622,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10740,10 +10737,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10857,14 +10854,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10886,10 +10883,10 @@
         <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>165</v>
@@ -10944,7 +10941,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10976,10 +10973,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11002,16 +10999,16 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11061,7 +11058,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>90</v>
@@ -11085,7 +11082,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11093,10 +11090,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11122,13 +11119,13 @@
         <v>110</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11157,11 +11154,11 @@
         <v>194</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11178,7 +11175,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>90</v>
@@ -11193,7 +11190,7 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>183</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -840,7 +840,7 @@
     <t>home | work | temp | old | mobile - 連絡先の用途等 【詳細参照】</t>
   </si>
   <si>
-    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
+    <t>「接点の目的を特定する。」</t>
   </si>
   <si>
     <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。   一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
@@ -854,7 +854,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>「接点の使用。」(Setten no shiyō.)</t>
+    <t>「接点の使用。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -479,8 +479,8 @@
 など</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.extension:birthPlace</t>
@@ -527,6 +527,10 @@
 　- 2111-3 フランス人  
 　- 2112-1 ドイツ人  
 など</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -3406,10 +3410,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3525,10 +3529,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3644,7 +3648,7 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>141</v>
@@ -3667,14 +3671,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3696,16 +3700,16 @@
         <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3754,7 +3758,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3786,10 +3790,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3812,19 +3816,19 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -3873,7 +3877,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3888,16 +3892,16 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3905,10 +3909,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3931,13 +3935,13 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3988,7 +3992,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4003,7 +4007,7 @@
         <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>82</v>
@@ -4020,14 +4024,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4049,13 +4053,13 @@
         <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4096,7 +4100,7 @@
         <v>138</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>82</v>
@@ -4105,7 +4109,7 @@
         <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4120,7 +4124,7 @@
         <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>82</v>
@@ -4137,10 +4141,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4166,16 +4170,16 @@
         <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4200,13 +4204,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4224,7 +4228,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4239,7 +4243,7 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
@@ -4256,10 +4260,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4282,19 +4286,19 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4319,13 +4323,13 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4343,7 +4347,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4358,7 +4362,7 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>82</v>
@@ -4367,7 +4371,7 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4375,10 +4379,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4404,16 +4408,16 @@
         <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4462,7 +4466,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4477,7 +4481,7 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
@@ -4486,7 +4490,7 @@
         <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4494,10 +4498,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4520,16 +4524,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4579,7 +4583,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4594,7 +4598,7 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
@@ -4603,7 +4607,7 @@
         <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4611,10 +4615,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4637,16 +4641,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4696,7 +4700,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4711,7 +4715,7 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
@@ -4720,7 +4724,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4728,10 +4732,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4754,16 +4758,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4813,7 +4817,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4828,7 +4832,7 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -4837,7 +4841,7 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4845,10 +4849,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4871,70 +4875,70 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4949,13 +4953,13 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -4966,10 +4970,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4992,19 +4996,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5053,7 +5057,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5062,13 +5066,13 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
@@ -5077,7 +5081,7 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5085,10 +5089,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5111,19 +5115,19 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5172,7 +5176,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5187,16 +5191,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5204,10 +5208,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5230,13 +5234,13 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5287,7 +5291,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5302,7 +5306,7 @@
         <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>82</v>
@@ -5319,14 +5323,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5348,13 +5352,13 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5395,7 +5399,7 @@
         <v>138</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>82</v>
@@ -5404,7 +5408,7 @@
         <v>139</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5416,10 +5420,10 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -5436,10 +5440,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5465,13 +5469,13 @@
         <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5497,13 +5501,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5521,7 +5525,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5530,13 +5534,13 @@
         <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5545,7 +5549,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5553,10 +5557,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5579,19 +5583,19 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5640,7 +5644,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5652,10 +5656,10 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5664,7 +5668,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5672,10 +5676,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5701,16 +5705,16 @@
         <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5735,13 +5739,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5759,7 +5763,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5771,10 +5775,10 @@
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -5783,7 +5787,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5791,10 +5795,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5817,16 +5821,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5876,7 +5880,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5888,10 +5892,10 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -5900,7 +5904,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5908,10 +5912,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5934,16 +5938,16 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5993,7 +5997,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6005,10 +6009,10 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6025,10 +6029,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6054,16 +6058,16 @@
         <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6088,13 +6092,13 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
@@ -6112,7 +6116,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6127,16 +6131,16 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6144,10 +6148,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6170,19 +6174,19 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6231,7 +6235,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6246,27 +6250,27 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6289,19 +6293,19 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6350,7 +6354,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6365,16 +6369,16 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6382,10 +6386,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6408,19 +6412,19 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6469,7 +6473,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6484,16 +6488,16 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6501,10 +6505,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6527,13 +6531,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6584,7 +6588,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6599,7 +6603,7 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
@@ -6616,14 +6620,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6645,13 +6649,13 @@
         <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6692,7 +6696,7 @@
         <v>138</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
@@ -6701,7 +6705,7 @@
         <v>139</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6716,7 +6720,7 @@
         <v>141</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
@@ -6733,10 +6737,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6762,16 +6766,16 @@
         <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6796,13 +6800,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6820,7 +6824,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6835,7 +6839,7 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -6844,7 +6848,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6852,10 +6856,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6881,13 +6885,13 @@
         <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6913,13 +6917,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6937,7 +6941,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6952,7 +6956,7 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -6961,7 +6965,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6969,10 +6973,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6995,19 +6999,19 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7056,7 +7060,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7071,7 +7075,7 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7080,7 +7084,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7088,10 +7092,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7114,16 +7118,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7173,7 +7177,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7188,7 +7192,7 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7197,7 +7201,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7205,14 +7209,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7231,16 +7235,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7290,7 +7294,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7305,7 +7309,7 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7314,7 +7318,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7322,14 +7326,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7348,16 +7352,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7407,7 +7411,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7422,7 +7426,7 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7431,7 +7435,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7439,14 +7443,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7465,16 +7469,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7524,7 +7528,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7539,7 +7543,7 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -7548,7 +7552,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7556,14 +7560,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7582,16 +7586,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7641,7 +7645,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7656,7 +7660,7 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -7665,7 +7669,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7673,10 +7677,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7699,16 +7703,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7758,7 +7762,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7773,7 +7777,7 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
@@ -7782,7 +7786,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7790,10 +7794,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7816,19 +7820,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7877,7 +7881,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7892,7 +7896,7 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
@@ -7901,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7909,10 +7913,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7935,19 +7939,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7972,13 +7976,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7996,7 +8000,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8011,16 +8015,16 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8028,10 +8032,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8054,19 +8058,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8115,7 +8119,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8130,16 +8134,16 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8147,10 +8151,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8173,19 +8177,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8234,7 +8238,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8249,16 +8253,16 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8266,10 +8270,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8292,19 +8296,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8353,7 +8357,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8365,13 +8369,13 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>82</v>
@@ -8385,10 +8389,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8411,13 +8415,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8468,7 +8472,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8483,7 +8487,7 @@
         <v>82</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8500,14 +8504,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8529,13 +8533,13 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8585,7 +8589,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8600,7 +8604,7 @@
         <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8617,14 +8621,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8646,16 +8650,16 @@
         <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8704,7 +8708,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8736,10 +8740,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8762,19 +8766,19 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8799,13 +8803,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8823,7 +8827,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8838,16 +8842,16 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8855,10 +8859,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8881,17 +8885,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8940,7 +8944,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8955,16 +8959,16 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8972,10 +8976,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8998,19 +9002,19 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9059,7 +9063,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9074,16 +9078,16 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9091,10 +9095,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9117,17 +9121,17 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9176,7 +9180,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9191,16 +9195,16 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9208,10 +9212,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9237,14 +9241,14 @@
         <v>110</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9269,13 +9273,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9293,7 +9297,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9308,16 +9312,16 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9325,10 +9329,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9351,19 +9355,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9412,7 +9416,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9421,22 +9425,22 @@
         <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9444,10 +9448,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9470,13 +9474,13 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9527,7 +9531,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9542,10 +9546,10 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
@@ -9559,10 +9563,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9585,19 +9589,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9646,7 +9650,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9661,10 +9665,10 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>82</v>
@@ -9678,10 +9682,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9704,13 +9708,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9761,7 +9765,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9776,7 +9780,7 @@
         <v>82</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -9793,14 +9797,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9822,13 +9826,13 @@
         <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9878,7 +9882,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9893,7 +9897,7 @@
         <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -9910,14 +9914,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9939,16 +9943,16 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -9997,7 +10001,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10029,10 +10033,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10055,19 +10059,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10116,7 +10120,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>90</v>
@@ -10131,16 +10135,16 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10148,10 +10152,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10174,19 +10178,19 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10235,7 +10239,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10250,16 +10254,16 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10267,14 +10271,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10293,16 +10297,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10352,7 +10356,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10367,16 +10371,16 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10384,10 +10388,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10410,19 +10414,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10471,7 +10475,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10486,10 +10490,10 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
@@ -10503,10 +10507,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10529,19 +10533,19 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10590,7 +10594,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10605,10 +10609,10 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
@@ -10622,10 +10626,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10648,13 +10652,13 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10705,7 +10709,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10720,7 +10724,7 @@
         <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
@@ -10737,14 +10741,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10766,13 +10770,13 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10822,7 +10826,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10837,7 +10841,7 @@
         <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>82</v>
@@ -10854,14 +10858,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10883,16 +10887,16 @@
         <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -10941,7 +10945,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10973,10 +10977,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10999,16 +11003,16 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11058,7 +11062,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>90</v>
@@ -11073,16 +11077,16 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11090,10 +11094,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11119,13 +11123,13 @@
         <v>110</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11151,13 +11155,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11175,7 +11179,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>90</v>
@@ -11190,10 +11194,10 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>82</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-patient.xlsx
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -889,7 +889,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -899,7 +899,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.telecom.system</t>
@@ -914,7 +914,7 @@
     <t>患者の連絡先の種別をValueSet(ContactPointSystem)より選択する。  　- phone : 電話　- fax : Fax 　- email : 電子メール　- pager : ポケットベル　- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。　- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  　- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
-    <t>連絡先のための通信フォーム。</t>
+    <t>「連絡先のための通信フォーム。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -967,7 +967,7 @@
     <t>home | work | temp | old | mobile - 連絡先の用途等 【詳細参照】</t>
   </si>
   <si>
-    <t>「接点の目的を特定する。」</t>
+    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
     <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。   一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
@@ -981,7 +981,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>「接点の使用。」</t>
+    <t>「接点の使用。」(Setten no shiyō.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
@@ -1003,10 +1003,10 @@
 </t>
   </si>
   <si>
-    <t>使用の優先順位を指定してください（1が最も優先度が高い）</t>
-  </si>
-  <si>
-    <t>一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。</t>
+    <t>「使用の優先順位を指定してください（1が最も優先度が高い）」</t>
+  </si>
+  <si>
+    <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
   </si>
   <si>
     <t>連絡先の使用順序（1 = 最高）</t>
@@ -1018,10 +1018,10 @@
     <t>Patient.telecom.period</t>
   </si>
   <si>
-    <t>コンタクトポイントが使用されている時間帯</t>
-  </si>
-  <si>
-    <t>接点が使用されていた/現在使用中である時間期間</t>
+    <t>「コンタクトポイントが使用されている時間帯」</t>
+  </si>
+  <si>
+    <t>「接点が使用されていた/現在使用中である時間期間」</t>
   </si>
   <si>
     <t>連絡先が使用されていた/されている期間</t>
@@ -1409,7 +1409,7 @@
     <t>住所が使用されていた/されている期間。 期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  期間は、時間間隔（経過時間の測定値）には使用されない。</t>
   </si>
   <si>
-    <t>アドレスを履歴上の文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>Address.period</t>
